--- a/deuChatbot/research_result/version_2(3000_300).xlsx
+++ b/deuChatbot/research_result/version_2(3000_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13787,6 +13787,7237 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으나, 종목별 배점에서 '기초디자인: 70%'와 '사고의 전환: 30%'로 나누어 설명하고 있어 원본의 '700점 (70%)'이라는 배점 정보가 누락되었습니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있으나, 배점에 대한 세부 정보가 다르게 표현되어 있어 약간의 불일치가 있습니다. 그 외의 정보는 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 모든 정보를 포함하고 있으며, 실기시험에 대한 설명이 잘 이루어져 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있으나, 일부 문장이 다소 간결하지 않거나 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 항목 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으나, 배점에 대한 정확한 수치가 누락되어 있어 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 배점의 세부 정보가 누락된 점이 아쉬운 부분입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 배점에 대한 정보가 다르게 표현되어 있어 약간의 의미적 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 다소 복잡하게 느껴질 수 있어 완전한 명확성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8315235157559666</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. 모집단위:
+   - 시각디자인
+   - 산업디자인
+   - 공예디자인
+2. 종목별 배점(비율):
+   - 기초디자인: 70%
+   - 사고의 전환: 30%
+3. 실기종목별 준비물:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+4. 실기주제 및 화지크기:
+   - 주제A와 주제B 중 각각 1개씩 선택하여 연결된 주제를 당일 추첨
+   - 기초디자인: 켄트지3절
+   - 사고의 전환: 켄트지2절
+5. 시간:
+   - 5시간
+6. 실기주제 예시 (기초디자인):
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+7. 조건:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 말 것
+   - 제공된 사물의 색상 변경 금지
+이러한 구성으로 디자인적 창의력과 기초적인 디자인 능력을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 포함하고 있으며, 대부분의 세부사항이 정확하게 반영되어 있습니다. 그러나 '화지크기'에 대한 정보가 기초디자인에 대해서만 언급되고 사고의 전환에 대한 정보는 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 기초디자인과 사고의 전환 두 가지 실기종목을 언급하고 있지만, 각 실기종목에 대한 세부사항이 완전히 일치하지 않으며, 특히 화지크기와 주제에 대한 정보가 불완전하게 전달되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 주요 요구 사항을 잘 다루고 있으며, 원본 텍스트의 핵심 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 실기종목에 대한 정보가 완전하지 않아 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 일부 세부사항이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등 여러 차원에서 잘 수행되고 있습니다. 그러나 일부 세부사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 세부사항이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8820213717077043</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **실기종목**: 기초디자인, 사고의 전환 중 하나를 선택합니다.
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제 A와 주제 B 각각에서 1개씩 선택하여 연결된 주제를 당일 추첨합니다.
+   (예시: 잠자리와 저울, 콜라병과 계절 등)
+4. **화지크기**: 켄트지 3절
+5. **시간**: 5시간
+이 정보는 디자인조형학과의 실기시험에 대한 기본적인 요구 사항을 포함합니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 대부분의 대회 이름이 정확하게 나열되어 있습니다. 그러나 "various 국제대회"라는 표현은 원본 텍스트의 "각종국제대회"를 정확히 번역하지 않았고, 이로 인해 약간의 모호함이 발생합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 "various"라는 단어 사용이 원본의 의미를 완전히 전달하지 못해 약간의 일관성 문제를 일으킵니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "various"라는 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 이어집니다. 그러나 "various"의 사용으로 인해 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "various"라는 표현이 정확한 정보를 전달하지 못해 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 약간의 일관성과 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "various"라는 표현이 원본의 의미를 완전히 전달하지 못해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 "various"라는 표현이 다소 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.933170623699329</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+배드민턴(남)의 경우:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- various 국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 인정받아 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 내용, 추첨 방식 및 예시가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.9066796589840199</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로 주제를 제공하면 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일 추첨을 통해 각각의 주제를 한 개씩 선택하여 연결된 주제로 사용하게 됩니다. 예시로는 "잠자리와 저울"과 같은 연결된 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 점수가 학생부 교과 전형에서 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가적으로 제공된 정보도 관련 내용을 잘 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, 일부 문장이 다소 길고 복잡하여 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으나, 추가 정보가 포함되어 있어 약간의 흐름이 끊길 수 있습니다. 그러나 전반적으로 이해하기 쉬운 구조입니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6964729363139526</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024학년도 동안 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 
+이를 확인하기 위해 제공된 정보 중에 다음과 같은 내용을 찾았습니다:
+"전형요소 반영비율에서 전형 유형은 수능 위주이며, 전형명은 나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외) 한의예과(수학(미적분/기하),수학(확률과 통계))이며, 모집 인원은 401이며, 사정 단계은 일괄 합산이며, 전형요소 반영비율(%)의 학생부 교과은 0이며, 전형요소 반영비율(%)의 출결은 0이며, 전형요소 반영비율(%)의 서류은 0이며, 전형요소 반영비율(%)의 면접은 0이며, 전형요소 반영비율(%)의 실기은 0이며, 전형요소 반영비율(%)의 수능은 100이며, 수능최저기준은 수능최저기준 없음이다."
+위 내용에서 학생부 교과와 출결의 반영 비율이 모두 0%로 표시되어 있습니다. 따라서 출결 점수가 학생부교과 전형에서 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원 수(17명)와 전형(가군 일반학생 전형)에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "교직"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 정보를 포함하고 있지만, "교직"이라는 요소가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트와의 일관성이 완벽하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 있으며, 모집 인원과 전형에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며 읽기 쉽습니다. 그러나 "교직"이라는 단어가 추가되어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 "교직"이라는 추가 정보가 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원과 전형에 대한 정보는 정확하지만, "교직"이라는 추가 정보가 원본 텍스트에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 주요 요소들에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, "교직"이라는 추가 정보가 원본 텍스트의 맥락과 완전히 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "교직"이라는 단어가 추가되어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.9106250549062926</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과 - 교직에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 추가적인 정보도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 잘 반영하고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성과를 보이며, 전반적으로 높은 품질을 유지합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6299482193740317</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 해당 모집단위의 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.8295057213993543</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "등급 1 :"과 같은 표현에서 공백이 불필요하게 포함되어 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.9478527570388584</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서 예술고 학생은 지원할 수 없다고 명시했으나, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 예술고 학생의 지원 자격에 대한 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 상반된 내용으로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 낮은 점수를 받을 수밖에 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7410503359224843</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생도 나군 학생부교과(농어촌학생전형)로 지원할 수 있습니다. 
+관련 내용을 요약하면:
+- 고교유형별 지원자격에서 예술고는 지원 가능합니다.
+- 예술고를 졸업한 학생이 농어촌 지역에 거주하며 6년 과정 또는 12년 과정의 교육과정을 이수했다면 지원 자격이 됩니다.
+따라서, 예술고 출신이면서 농어촌 지역에서 중·고등학교를 다닌 학생이라면 해당 전형으로 지원할 수 있습니다. 다만, 지원 자격 요건들을 모두 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 기록(218~221 cm)과 배점(275점)과 완전히 다릅니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 기록과 배점이 모두 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기 4등급에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 일관성이 매우 낮고 정확성도 떨어지지만, 관련성과 유창성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 내용을 다루고 있지만, 제공된 정보가 사실과 다르기 때문에 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8918695120215934</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 277~280cm이며, 배점은 325점입니다.
+이 정보는 다음과 같은 테이블에서 추출되었습니다:
+| 등급 | 남은 거리 (cm) | 여은 거리 (cm) | 배점 |
+|------|----------------|----------------|-----|
+| 4    | 277~280        | 223~226        | 325 |
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 277cm 이상에서 280cm 미만까지이며, 배점은 325점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.6963986571282013</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결은 학생부 종합 평가 영역에서 12%의 비율로 반영됩니다.
+이 정보는 "전형요소 반영비율(%)의 출결은 12%"라는 문장에서 추출되었습니다. 이는 경기지도학과에서 출결이 학생부 종합 평가 중 상당한 영향을 미치는 요소임을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.8606475420544653</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원에서 인문사회과학대학은 상경대학이며, 계열은 공학이며, 모집단위은 물리치료학과이며, 모집인원은 4이다."</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.547688296604983</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 사실을 무시하고, 응용화학과의 수능 최저기준에 대한 정보가 없다고 언급하고 있습니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 수능 최저기준이 없다는 점을 명확히 하지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저기준에 대한 정보를 찾는 방법에 대해 설명하고 있지만, 원문에서 명시된 "수능 최저 학력 기준은 없습니다."라는 핵심 정보를 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 원문에서 제공된 사실을 왜곡하고 있으며, 수능 최저기준이 없다는 점을 명확히 하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 어느 정도 적절하지만, 원문과의 불일치로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4980180185480036</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 자료에서 확인할 수 없습니다. 하지만, 일반적으로 수능 최저기준은 각 대학이 정하는 것이므로, 동의대학교의 공식 입시 안내 웹사이트나 학부모 및 지원자들을 위한 설명회 등을 통해 가장 정확한 정보를 얻을 수 있습니다.
+제공된 자료에서는 다른 전형과 모집단위에 대한 정보만 확인할 수 있었으며, 응용화학과의 경우 다음과 같은 정보가 포함되어 있지 않습니다:
+- 수능 최저기준 점수
+- 반영 영역 (국어, 수학, 영어 등)
+- 가산점 여부 및 기준
+따라서 정확한 수능 최저기준을 확인하려면 동의대학교의 공식 입시 홈페이지나 관련 자료를 참조하시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 포함하고 있지만, '라이프융합학부'가 'Life Fusion College'로 번역된 부분에서 정확성이 떨어진다. 또한, '라이프융합학부' 아래의 세부 전공이 명확히 언급되지 않아 일부 정보가 누락되었다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '라이프융합학부'의 번역과 세부 전공에 대한 설명이 일관되지 않다. 원본 텍스트의 구조와 내용이 완전히 반영되지 않았다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 다소 복잡하여 읽기 어려운 부분이 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽다. 그러나 '라이프융합학부'에 대한 설명이 다소 모호하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있으나, '라이프융합학부'의 번역과 세부 전공에 대한 설명에서 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 양호하나, 일부 세부 사항에서 정확성과 일관성이 부족하여 완벽하지는 않다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 대체로 잘 전달하고 있으나, 특정 용어의 번역에서 적절성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장 구조가 복잡하여 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.5033149601245998</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>东义大学2024学年新设的专业包括：
+1. 新建的Life Fusion College - 新增专业 (Startup Investment and Entrepreneurship, Beauty Business, Life Cultural Studies)
+所以，根据提供的信息，东义大学在2024学年新增了Life Fusion College下的三个专业：创业投资与企业学、美容商业学和生活文化学。</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전형요소 반영비율에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전형요소 반영비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8230088988514106</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가 : 70%
+- 면접 평가 : 30%
+이 비율은 지원자의 학교생활기록부, 검정고시 성적 등 관련 자료를 기반으로 서류평가와 면접평가에서 각각 반영되는 점수의 가중치를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 정확히 언급하고 있으며, 수학 과목에 대한 가산점 부여 기준도 올바르게 설명하고 있습니다. 그러나 의료·보건·생활대학이 언급되지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 공과대학과 ICT융합공과대학에 대한 정보를 일관되게 제공하지만, 의료·보건·생활대학에 대한 언급이 없으므로 전체적으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점 제도와 관련된 주요 내용을 잘 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 의료·보건·생활대학에 대한 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 가산점에 대한 정확한 정보를 제공하고 있지만, 의료·보건·생활대학에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 동의대학교의 수능 가산점 제도와 관련된 내용을 잘 전달하고 있습니다. 다만, 누락된 정보로 인해 완전한 적절성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.8031076026254217</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학 및 ICT융합공과대학 모집단위에서 수능 가산점을 적용합니다. 
+특히, 수능 반영영역 및 가산점 항목을 보면:
+- 공과대학, ICT융합공과대학 모집단위는 수능 가산점이 있습니다.
+  - 가산점은 수학(미적분 또는 기하) 응시자의 경우 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+따라서, 공과대학 및 ICT융합공과대학 모집단위에서 수능 성적이 중요한 평가 요소이며, 특히 수학을 미적분 또는 기하로 응시한 학생들에게는 추가적인 점수를 제공하는 가산점 제도가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 사실을 왜곡하고 있으며, 각 영역의 비율을 잘못 제시하고 있습니다. 원문에서는 수능 성적을 100% 반영한다고 명시했지만, 생성된 응답에서는 각 영역별 비율을 25%로 나누어 제시하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 성적을 100% 반영한다고 명시했으나, 생성된 응답은 각 영역의 비율을 제시하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있으나, 원문에서 언급된 '38페이지 Ⅴ. 수능성적 반영방법'에 대한 언급이 없어서 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 일관성이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정확한 정보를 제공하지 않으며, 원문과의 사실적 차이가 큽니다. 수능 성적이 100% 반영된다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 차이로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7346822443161105</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군(일반학생전형)에서는 수능 성적이 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **수능 영역별 비율**:
+   - 국어: 25%
+   - 수학: 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 중 2개 과목): 25%
+3. **가산점**: 해당 모집단위에 따라 다르지만, 일반적으로는 없습니다.
+따라서, 가군에서 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역을 각각 25%의 비율로 반영하며, 추가적인 가산점은 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 날짜와 관련된 모든 정보를 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기고사 날짜에 대한 정보가 일치합니다. 추가적인 학과 정보도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 실기고사 날짜에 직접적으로 관련된 정보를 포함하고 있으며, 추가적인 학과 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.6751208148556153</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- **레저스포츠학과, 태권도학과**의 실기고사는 **2024. 01. 16.(화)**입니다.
+따라서 레저스포츠학과와 태권도학과를 지원하는 경우, 실기고사는 2024년 1월 16일 화요일에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 한의예과가 제외된 모집단위 목록에서 누락되어 있어 사실성 점수가 4로 평가됩니다. 나머지 모집단위는 정확하게 언급되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과가 제외된 사실을 언급하지 않아 일관성이 떨어집니다. 그러나 나머지 모집단위에 대한 정보는 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 모집단위 제외에 대해 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 한의예과의 누락으로 인해 완전한 일관성을 잃었습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 전달하지만, 한의예과의 누락으로 인해 정확성 점수가 4로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되었으나, 한의예과의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 한의예과의 누락으로 인해 완전한 적절성을 잃었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 한의예과의 누락으로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7523568176656421</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 다음과 같은 모집단위들이 제외됩니다:
+- 디자인조형학과
+- 체육학과 
+- 경기지도학과
+이 세 가지 모집단위는 나군 실기/실적(경기실적우수자전형)에서는 포함되나, 일반학생전형의 경우 제외되었습니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8773110568819568</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 수능 최저기준 항목에 "수능최저기준 없음"이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8732909569130335</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이러한 변경사항은 2024학년도부터 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 원서 접수 시작일인 2024년 1월 3일(수)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가된 정보로 간주되어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 정보는 일치하지만, 원서 접수 시작일에 대한 정보가 원본 텍스트에 포함되어 있지 않기 때문에 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 질문에 직접적으로 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원서접수 마감일에 대한 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨리므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원서접수 마감일에 대한 정보는 정확하지만, 시작일에 대한 정보는 원본에 없으므로 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되었지만, 일관성과 정확성에서 약간의 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트에 없는 정보를 포함하고 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7764732903226573</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서 접수는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지 18시까지 마감됩니다.
+따라서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 전형 요소 변화에 대한 정보가 잘못되거나 왜곡되어 있습니다. 예를 들어, '학생부종합(조기취업형계약학과전형)'의 세부 사항이 원본과 다르게 기술되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 서로 다른 전형에 대한 정보가 혼합되어 있습니다. 원본의 전형 요소 변화와는 전혀 다른 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전형 요소 변화에 대한 구체적인 정보가 부족하고, 잘못된 정보가 포함되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일부 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전형 요소 변화에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많아 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 부분이 있지만, 내용의 정확성과 관련성 부족으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7282766054781971</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 120점 → 140점
+     - 학업역량: 1등급 240점 → 280점
+     - 전공적합성: 1등급 240점 → 280점
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력 → 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+     - 전공적합성: 진로정보 탐색능력 → 지원 전공(계열)에 대한 관심과 이해
+2. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 140점 → 120점
+     - 학업역량: 1등급 280점 → 280점
+     - 전공적합성: 1등급 280점 → 280점
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력 → 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+     - 전공적합성: 진로정보 탐색능력 → 지원 전공(계열)에 대한 관심과 이해
+3. **학생부교과(농어촌학생전형)**:
+   - 제출서류가 일부 변경되었습니다.
+     - 6년 과정: 중학교 학교생활기록부 제출 필요
+     - 12년 과정: 초등학교 학교생활기록부 추가 제출 필요
+4. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 공동체역량: 협업능력 → 학업태도 / 학업성취
+     - 학업역량: 학업에 대한 흥미 및 주도적 노력 수업시간 적극적 참여 학업에 대한 성취정도 학년별 성적추이
+     - 전공적합성: 열정 → 지원전공(계열) 관련 활동과 경험 지원전공(계열) 관련 학업의지 학교생활의 적극적 참여
+이러한 변경사항들은 각 전형에서 평가 기준과 방법을 보다 구체화하고, 학생들의 다양한 능력을 종합적으로 평가하기 위한 조치로 해석할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 정확하게 반영하고 있으며, 추가적으로 학과별로 실기 비중이 70%임을 명시하고 있습니다. 모든 정보가 사실에 부합합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않고 일관되게 전달됩니다. 모든 학과에서 실기 비중이 70%라는 점이 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 실기 비중에 대해 직접적으로 관련된 정보를 제공합니다. 추가적인 학과 정보도 포함되어 있어 더욱 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 정보의 흐름이 명확하고 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 모든 정보가 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 독자가 쉽게 이해할 수 있도록 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7403562808863715</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과에서는 실기가 70%입니다.
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과에서는 실기가 70%입니다.
+따라서 동의대학교 가군 실기/실적 전형에서 실기 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 마지막 문장에서 중국어가 포함되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 중국어 문장이 포함되어 있어 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 높은 품질을 보이나, 중국어 문장으로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 중국어 문장이 포함되어 있어 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 대체로 이해하기 쉽지만, 중국어 문장으로 인해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8077244960131778</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+这三个专业共同构成了新的Life Fusion Department。</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있으며, 이는 원본 텍스트에 명시된 '체육학과'와 '레저스포츠학과'와 일치하지 않습니다. 또한, 실기종목에 대한 정보도 원본 텍스트에 포함되어 있지 않으므로 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. '태권도학과'는 원본에 언급되지 않았고, '체육학과'는 누락되었습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 내용을 일부 반영하고 있으나, 정확하지 않기 때문에 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 불필요하게 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다. 정보가 일관되지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. '태권도학과'와 실기종목에 대한 정보는 원본에 포함되어 있지 않으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 많아 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 많습니다. 잘못된 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7305204694034877</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과 
+이 두 학과만 가군에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과들은 레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과인데 반해, 생성된 응답에서는 로봇자동화공학과와 토목공학과를 언급하며 이 두 학과가 모집 중지 상태라고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있습니다. 원본 텍스트의 정보와 상충되는 내용을 포함하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고 잘못된 학과 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제에 대한 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적 적절성 점수는 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6527607670659427</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 로봇자동화공학과 (로봇자동화공학과는 2024학년도에 모집 중지)
+2. 토목공학과 (토목공학과는 2024학년도에 모집 중지)
+따라서, 실기/실적 위주 전형을 지원하려면 로봇자동화공학과나 토목공학과를 고려해 볼 수 있습니다. 하지만 주의할 점은 두 학과 모두 2024학년도에는 모집 중지된 상태라는 것입니다.
+만약 실기/실적 위주 전형을 계속 지원하고자 한다면, 다음 년도나 다른 대학에서 해당 전형을 시행하는 학과를 찾아볼 필요가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "6년 과정"이라는 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록과 일치하지만, "6년 과정"이라는 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 라이프융합학부의 전공에 직접적으로 관련되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 추가 설명이 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, "6년 과정"이라는 정보는 원본 텍스트에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않으므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8370540153149953</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 학부는 6년 과정으로, 이전에는 신설되지 않은 새로운 학과로 추가되었습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 마이스터고에 대한 정보가 포함되어 있지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 특정 대학의 지원 조건에 대한 추가 정보가 포함되어 있어 원본과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 일반학생전형에 대한 지원 가능성을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 일부 세부사항이 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부사항이 누락되어 있어 완전한 의미 전달에는 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5941211524242241</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，根据提供的信息，你有可能符合东义大学的一般学生招生条件。具体来说：
+1. **支持的学校类型**：你的学校属于“特殊教育高中”，这在“高교유형별 지원자격”的“특수목적고”（Special Purpose High School）类别中被列出。
+2. **适用的招生类型**：
+   - 一般学生招生（가군, 다군）中的“수능 (일반학생전형)”和“실기/실적 (일반학생전형)”。
+因此，你有可能符合东义大学的一般学生招生条件。但具体还需要确认以下几点：
+- 确认你的高中是否在东义大学支持的特殊教育高中的名单内。
+- 了解具体的申请要求和截止日期。
+建议访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）获取最准确的信息，或者直接联系学校的招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 일본학과가 가장 많이 모집한다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 질문에 대한 정확한 답변을 제공하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 모집 인원에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공합니다. 일본학과에 대한 언급은 원본 텍스트와 관련이 없으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 잘못된 정보로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.7435105211308428</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집 인원을 확인해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 학과들이 많은 수의 학생들을 모집하고 있습니다:
+1. **중어중국학과 - 교직**: 46명
+2. **일본학과 - 교직**: 55명
+3. **영어영문학과 - 교직**: 50명
+이 중에서 가장 많은 인원을 모집하는 학과는 **일본학과 - 교직**으로, 55명을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **일본학과 - 교직**이라고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대하는 내용을 담고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약해집니다. 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.6920232957515001</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교의 농어촌학생전형을 지원할 수 있습니다. 하지만 일부 조건이 있습니다:
+1. 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 중에서 특수목적고등학교에 해당해야 합니다.
+2. 지원자는 농어촌(읍·면) 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고 있어야 합니다.
+3. 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주해야 합니다 (부모가 사망하거나 이혼한 경우에는 제외).
+따라서, 특수목적고등학교 학생으로서 해당 조건을 충족하고 있다면 지원이 가능합니다. 하지만 자세한 내용은 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 웹사이트에 게시된 최신 정보와 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문은 해당 정보를 확인하라고 안내하고 있으며, 생성된 응답은 구체적인 성적 정보를 제공하고 있습니다. 이는 명백한 사실 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 성적 정보를 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있으며, 생성된 응답은 그와는 전혀 다른 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비일관성을 보입니다. 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 내용을 포함하고 있으며, 이는 사실적으로 부정확합니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계에서 전반적으로 부정확하고 비일관적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문의 맥락과도 맞지 않습니다. 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.6121513331149282</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 수능 성적을 살펴보면 다음과 같습니다:
+- **최초합격자**:
+  - 모집인원: 30명
+  - 지원인원: 146명
+  - 경쟁률: 4.87
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- **최종등록자**:
+  - 모집인원: 30명
+  - 지원인원: 146명
+  - 경쟁률: 4.87
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+따라서, 2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 수능 성적 평균은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충하는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 점수를 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 그와는 전혀 다른 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 잘못된 정보를 포함하고 있습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계에서 전혀 적절하지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5355444596784601</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 입시 일정에 대한 설명으로 대체하고 있습니다. 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 발표 일정과 일치하지 않으며, 일반적인 정보로 대체하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 일정과는 관련이 적습니다. 따라서 관련성 점수가 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 정보로 대체하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 적절성 점수가 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.5220049145780273</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 일정에 따라 합격자 발표일자는 대체로 정해져 있습니다. 하지만 정확한 날짜는 각 단과대학의 공식 웹사이트를 통해 확인해야 합니다. 일반적으로 합격자 발표는 수능 이후 몇 주 후에 이루어지며, 대부분 2월 중순부터 3월 초까지 이루어집니다.
+입학사정관제나 전형별로 날짜가 다를 수 있으므로, 가장 정확한 정보는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 전혀 언급하지 않고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 면접 날짜를 제공하지만, 생성된 응답은 그 날짜를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접 일정에 대한 질문에 대한 적절한 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 면접 일정에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문에 대한 적절한 답변이 아니기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3603589720215458</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>題目中並未提供具體的面試時間，因此無法確定學生應該在哪一天去參加面試。如果您能提供更多關於面試安排的信息，我將能夠幫助您回答這個問題。通常來說，學校會在網站或招生簡章上公布面試日期和時間，請確認相關公告以獲取準確信息。</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 부정확하게 해석하고 있으며, 여러 가지 잘못된 정보를 포함하고 있습니다. 예를 들어, 수학 요구 사항이나 다른 전공과의 비교는 원문에 명시된 내용과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 최저학력 기준이 없다고 명시했지만, 생성된 응답은 여러 조건과 요구 사항을 제시하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어난 정보가 많아 관련성이 낮습니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 중국어로 작성되어 있어 한국어 사용자에게는 불편할 수 있습니다. 또한, 문장 구조가 복잡하여 읽기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다. 각 항목 간의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실적으로 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 부적절한 정보가 포함되어 있습니다. 원문의 맥락을 무시하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 일부 이해할 수 있는 부분이 있지만, 전반적으로 혼란스럽고 명확하지 않아 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.3977607469445026</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>从提供的信息中，没有直接提到韩医学科（한의예과）的具体最低学力标准。但是根据其他相关信息可以推断出一些细节：
+1. 对于韩医学科的数学要求：
+   - 韩医学科需要参加数学(微积分/几何)或数学(概率与统计)考试
+   - 数学成绩会加权计入总分（数学标准分数 x 0.1）
+2. 在其他类型的招生中，韩医学科通常与其他科目一起考虑，但具体最低要求可能有所不同。
+3. 对于一般学生的普通类型入学，韩医学科似乎没有特别提到单独的最低学力标准。它可能遵循学校整体的一般最低入学要求。
+4. 从其他医学相关专业的最低要求来看，韩医学科的要求可能会接近或略高于这些专业。
+为了获得确切的韩医学科最低学力标准信息，建议直接咨询同意大学招生办公室或访问其官方网站获取最新、最准确的信息。因为具体的最低要求可能会根据学校政策和当年的具体情况有所变化。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "대부분의 정시 모집단위에서는 수능 최저학력 기준이 없습니다"라는 부분은 다소 일반화된 표현으로, 모든 모집단위에 대한 정보가 아닌 특정 모집단위에 대한 정보로 한정될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 점에서 일관성을 유지하고 있지만, "대부분의 정시 모집단위"라는 표현은 원문과의 일관성을 떨어뜨립니다. 원문은 특정 대학에 대한 정보이므로, 일반화된 표현은 일관성을 해칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 내용을 잘 다루고 있으며, 수능 최저학력 기준에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "일부 특별한 경우가 있을 수도 있으므로"라는 문장이 다소 모호하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있습니다. 그러나 "대부분의 정시 모집단위"라는 표현은 정확성을 약간 떨어뜨릴 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 표현에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 적절한 맥락을 유지하고 있습니다. 다만, 일반화된 표현이 의미의 정확성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5617097556145929</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 대부분의 정시 모집단위에서는 수능 최저학력 기준이 없습니다. 
+특히 다음과 같은 전형들은 수능 최저학력 기준을 두고 있지 않습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위
+2. 나군 수능(일반학생전형) - 전 모집단위 
+3. 다군 수능(일반학생전형) - 전 모집단위
+따라서, 이들 정시 모집단위에서는 수능 최저학력 기준이 없어 다양한 학생들이 지원할 수 있습니다.
+하지만 일부 특별한 경우가 있을 수도 있으므로, 가장 정확한 정보는 대학 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 확인하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 충원합격자 발표일인 2024년 2월 14일에 대한 정보를 포함하고 있지만, 2차 및 3차 이후 발표 일정에 대한 정보가 누락되어 있습니다. 또한, 온라인 등록에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 온라인 등록 정보는 원본 텍스트와 일치하지 않으며, 발표 일정에 대한 정보가 불완전합니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트에 포함되지 않은 온라인 등록 정보가 추가되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 발표 일정에 대한 정보는 정확하지만, 추가된 온라인 등록 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균적이며, 일부 정보는 정확하지만 다른 부분에서 누락이나 왜곡이 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않기 때문에 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7237531486807599</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일 (수) 09:00에 충원 합격자 발표가 이루어집니다. 이와 함께 같은 날 동안 온라인으로 등록도 가능합니다.
+발표 및 등록 일정은 다음과 같습니다:
+- **2024년 2월 14일 (수) 09:00**: 충원 합격자 발표
+- **2024년 2월 14일 (수) 09:00~16:00**: 온라인으로 충원 합격자 등록
+주의할 점은:
+- *발표*: 홈페이지에서 개별 조회 가능합니다.
+- *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+- *등록장소*: 학교 지정은행 (등록금 고지서에 기재된 정보를 확인하세요)</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2차 충원합격자 발표일인 2024년 2월 15일(목) 09:00을 정확하게 언급하고 있으며, 추가합격자 등록 시간도 포함되어 있습니다. 그러나 1차 발표와 3차 이후 발표에 대한 정보는 누락되어 있어 완전한 사실성을 갖추지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 발표 일정과 관련된 정보를 제공하지만, 1차 및 3차 발표 일정에 대한 언급이 없어서 일관성이 떨어집니다. 전체 발표 일정에 대한 정보가 부족하여 일관성이 부족하다고 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 발표 일정과 관련된 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있지만 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 등록 시간에 대한 정보가 명확하게 연결되어 있습니다. 그러나 전체 발표 일정에 대한 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 2차 발표 일정과 관련된 정확한 정보를 제공하지만, 1차 및 3차 발표 일정에 대한 정보가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주어진 맥락에 적절하게 의미를 전달하고 있으며, 발표 일정과 관련된 정보가 잘 표현되어 있습니다. 다만, 전체 발표 일정에 대한 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 누락으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.6446373062021565</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 추가합격자 발표가 이루어집니다. 이날짜에 홈페이지에서 개별적으로 합격자를 확인할 수 있습니다.
+추가합격자 등록은 같은 날인 2024년 2월 15일(목) 09:00부터 16:00까지 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가모집에 대한 직접적인 언급이 없다고 주장하지만, 원본 텍스트에서는 추가모집에 대한 명확한 정보가 제공되고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본 텍스트에서 제공하는 정보와 상충하는 부분이 있습니다. 특히, 추가모집에 대한 정보가 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 웹사이트를 제안하지만, 원본 텍스트의 핵심 내용인 추가모집에 대한 정보는 다루지 않고 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 다른 언어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 주제와 관련된 정보가 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답은 전반적으로 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 주제와 관련된 정보가 부족하여 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 한국어가 아닌 다른 언어로 작성되어 있어 한국어 사용자에게는 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.5012338678507672</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以登录该网站查看最新的招生公告、招生计划以及其他相关信息。如果有具体的疑问或需要进一步的帮助，请告诉我，我会尽力提供支持。</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 여러 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 추가적인 정보가 포함되어 있습니다. 예를 들어, 지원자격에서 "만 30세 이상"이라는 조건은 원본 텍스트에 명시되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어집니다. 예를 들어, 면접 평가와 관련된 세부사항이 원본 텍스트에 없는데도 불구하고 언급되었습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 주제를 다루고 있으며, 원본 텍스트와 관련된 정보를 제공합니다. 그러나 일부 추가 정보가 포함되어 있어 약간의 주제 일탈이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 추가 정보로 인해 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 정보가 포함되어 있어 정확성이 떨어집니다. 특히 지원자격에 대한 조건이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있습니다. 전반적으로 유용한 정보가 포함되어 있지만, 정확성과 일관성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 추가 정보가 포함되어 있어 약간의 맥락 일탈이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.6984160691206334</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학생이 아닌 성인 학습자를 대상으로 하는 입학 전형입니다. 주요 특징과 절차는 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 다양한 단과대학과 계열, 모집단위에서 평생학습자전형을 통해 학생들을 모집합니다.
+   - 예를 들어, 미래융합대학의 라이프융합학부는 여러 전형명으로 학생들을 모집하고 있습니다.
+2. **지원자격**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자가 지원할 수 있습니다.
+   - 산업체에서의 재직 경력을 요구하며, 3년 이상의 재직 기간이 필요합니다.
+3. **전형요소 반영비율**:
+   - 서류 평가와 면접 평가를 통해 학생들을 선발합니다.
+   - 예를 들어, 학생부종합(평생학습자전형)에서는 서류 70%와 면접 30%의 비율로 평가됩니다.
+4. **제출서류**:
+   - 고교 학교생활기록부
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고교 졸업(예정)자의 경우, 공증받은 외국고교 졸업증명서와 성적증명서가 필요합니다.
+5. **면접평가**:
+   - 개별 면접으로 진행되며, 평균 10분 내외의 시간이 주어집니다.
+   - 지원동기 및 학업계획, 학업역량, 전공적합성 등에 대한 질문이 이루어집니다.
+6. **평가영역**:
+   - 공동체역량: 협업능력과 학교폭력 여부 등을 평가합니다.
+   - 학업역량: 학업에 대한 흥미와 노력, 성적 추이 등을 평가합니다.
+   - 전공적합성: 지원전공(계열) 관련 활동과 경험, 학업의지 등을 평가합니다.
+7. **동점자 처리기준**:
+   - 면접고사 성적이 상위자인 경우 우선적으로 선발됩니다.
+   - 서류평가 공동체역량 영역 성적 상위자도 동점자 처리 기준 중 하나입니다.
+8. **최종등록자 추가 제출서류**:
+   - 일부 전형에서는 고교 졸업증명서와 관련 증빙서류를 추가로 요구할 수 있습니다.
+평생학습자전형은 성인 학습자의 다양한 배경과 경력을 고려하여 입학 기회를 제공하므로, 지원자는 자신의 경험을 잘 활용해 서류와 면접에서 좋은 평가를 받도록 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 추가적으로 제공하고 있지만, 원본 텍스트에 명시된 "고교 졸업(예정)자"라는 조건을 명확히 언급하지 않고 있습니다. 또한, "만 30세 이상의 성인"이라는 조건은 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 누락되거나 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 추가적인 정보를 제공하지만, 원본의 핵심 조건인 "고교 졸업(예정)자"를 명확히 언급하지 않아 일관성이 떨어집니다. 또한, 추가된 정보가 원본과 충돌하지는 않지만, 원본의 내용을 충분히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하며, 관련된 고등학교 유형과 지원 가능성을 설명하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 "고교 졸업(예정)자"에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 점이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 추가적인 정보를 제공하지만, 원본의 핵심 조건을 누락하고 있어 정확성이 떨어집니다. 특히, "만 30세 이상의 성인"이라는 조건은 원본에 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본의 핵심 조건을 누락하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.7263341068495549</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+- 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고(특성), 영재학교, 학력인정고, 방송통신고, 각종학교 등 다양한 고등학교 유형의 졸업자 또는 법령에 의한 동등 학력 소지자입니다.
+즉, 평생학습자전형은 다양한 고등학교 출신뿐만 아니라 검정고시나 외국고교 졸업자도 지원이 가능하며, 만 30세 이상의 성인을 대상으로 합니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜와 대기실 및 입실 시간에 대한 정보를 정확하게 전달하고 있습니다. 그러나 실기고사 날짜가 2024년 1월 16일로 명시되어 있지만, 원본 텍스트에는 실기고사 날짜에 대한 정보가 포함되어 있지 않으므로 이 부분에서 약간의 불확실성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 실기고사 날짜에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에는 실기고사 날짜가 명시되어 있지 않기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 실기고사에 대한 준비 사항을 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 실기고사 날짜에 대한 정보가 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대기실 및 입실 시간에 대한 정보는 정확하지만, 실기고사 날짜에 대한 정보는 원본 텍스트에 명시되어 있지 않아 정확성에서 약간의 의문이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 실기고사 날짜에 대한 추가 정보가 원본 텍스트와 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 실기고사 날짜에 대한 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.7509651261432196</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 실기고사가 있습니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사는 다음과 같이 준비하시면 됩니다:
+- 날짜: 2024년 1월 16일(화)
+- 시간: 대기실 및 입실 시간은 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인
+실기고사는 해당 날짜와 시간에 맞춰 준비해 주세요.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 종목과 관련된 내용을 담고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 입실시간에 대한 정보만을 제공하고 있지만, 생성된 응답은 실기 종목에 대한 세부사항을 설명하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 체육학과의 실기 종목에 대한 내용으로 전혀 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용과는 관련이 없는 정보입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제가 완전히 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3005878975610226</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 종목들 중 하나를 선택하여 준비해야 합니다:
+1. 제자리 멀리뛰기 (240점)
+2. 메디신볼 던지기 (230점) 
+3. Z-런 (230점)
+각 종목별로 다음과 같은 내용이 요구됩니다:
+- 제자리 멀리뛰기는 켄트지 3절 크기의 화지를 사용하여 5시간 동안 실시합니다.
+- 메디신볼 던지는 켄트지 2절 크기의 화지를 사용하여 5시간 동안 실시합니다.
+- Z-런은 켄트지 2절 크기의 화지를 사용하여 5시간 동안 실시합니다.
+각 종목별로 요구되는 최소 성적 기준도 제공되어 있습니다. 예를 들어:
+- 제자리 멀리뛰기는 남학생이 285cm 이상, 여학생이 231cm 이상을 기록해야 합니다.
+- 메디신볼 던지는 남학생이 11.5m 이상, 여학생이 9.5m 이상을 기록해야 합니다.
+- Z-런은 남학생이 14.20m 이하, 여학생이 15.29m 이하를 기록해야 합니다.
+따라서 체육학과 지원자는 자신이 선택한 종목에 따라 적절한 준비를 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정확한 정보를 제공하고 있으며, 전화 통보가 이루어지지 않는다는 점을 잘 반영하고 있습니다. 그러나 구체적인 날짜와 절차에 대한 정보는 원문에 포함되어 있지 않으므로 완전한 일치라고 보기는 어렵습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 전화 통보가 없다는 내용을 유지하고 있습니다. 다만, 추가적인 세부사항이 포함되어 있어 원문과의 일관성은 높지만, 원문에서 언급되지 않은 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수시 충원합격자 발표와 관련된 모든 주요 사항을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 구체적인 날짜와 절차에 대한 정보는 원문에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성이 높습니다. 그러나 일부 세부사항에서 원문과의 차이가 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다. 그러나 추가된 세부사항이 원문과의 의미적 일치를 약간 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6885297457291744</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년 입학사정관전형의 경우, 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드리지 않습니다. 대신 합격자 발표 및 등록금 납부 일정에 따라 다음과 같은 절차가 따릅니다:
+1. **수시 충원 합격자 발표**: 2024년 2월 15일(목) 09:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보 없이 홈페이지에서 개별 조회 가능합니다.
+2. **수시 충원 합격자 등록**: 2024년 2월 15일(목) 09:00부터 2024년 2월 16일(금) 16:00까지 입학관리팀 지정은행에서 등록이 가능합니다.
+따라서 합격자 발표 이후에는 홈페이지를 통해 개별 조회하고, 등록 절차를 진행해야 합니다. 추가 안내가 필요하시면 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [문의전화](https://ipsi.deu.ac.kr/main.do)로 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보를 제공하지 않는다는 원문 내용을 무시하고, 추론된 정보를 제시하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 원문이 명시적으로 수시모집 결과에 대한 정보를 포함하지 않는다고 언급했음에도 불구하고, 추론된 결과를 제시하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문이 제공하지 않는 정보를 바탕으로 한 추론이 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 추론된 정보가 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공되지 않는 정보를 포함하고 있으며, 이는 사실적으로 부정확합니다. 원문이 명시적으로 수시모집 결과에 대한 정보를 포함하지 않는다고 했기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문이 제공하지 않는 정보를 바탕으로 한 추론이 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 추론된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7683879888526284</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 문단에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도와 관련된 정보가 포함되어 있으므로, 이전 논리와 유사한 패턴을 따르면 다음과 같은 점들을 추론할 수 있습니다:
+1. **모집인원**: 7명
+2. **지원 인원**: 29명 (이는 경쟁률을 계산하는데 사용될 것입니다)
+3. **경쟁률**: 4.14 (29 / 7 = 4.14)
+4. **충원 합격자**: 7명
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과는 다음과 같을 것으로 추정할 수 있습니다:
+- 모집인원: 7명
+- 지원 인원: 약 29명 (경쟁률이 4.14라는 점에서)
+- 충원 합격자: 7명
+하지만, 정확한 정보는 해당 대학의 공식 웹사이트나 입학처에서 확인해야 합니다. 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생들도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있지만, 생성된 응답은 수능을 응시하지 않은 학생들도 지원할 수 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제의 핵심인 '정시모집 지원자는 수능에 응시해야 한다'는 점을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성이 결여되어 있어 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4729870729633708</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 수능을 응시하지 않은 학생들도 지원이 가능합니다. 주요 내용은 다음과 같습니다:
+1. **검정고시 출신자 / 외국고교 졸업(예정)자**:
+   - 이들은 수능 대신 검정고시 합격증서나 외국고교 졸업증명서를 제출하면 지원이 가능합니다.
+2. **특수목적 고등학교 출신자**:
+   - 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등 특수목적 고등학교 졸업생도 지원이 가능합니다.
+3. **특성화고 출신자**:
+   - 특성화고의 특성(직업) 또는 특성(대안) 과정을 이수한 학생들도 지원이 가능합니다.
+4. **영재학교 졸업자**:
+   - 영재학교에서 졸업한 학생도 지원이 가능합니다.
+5. **학력 인정 고등학교 출신자**:
+   - 일반고, 자율고, 방송통신고, 각종학교 등에서 졸업한 학생들도 지원이 가능합니다.
+6. **검정고시 출신자**:
+   - 검정고시를 통과한 학생도 지원이 가능합니다.
+따라서 수능을 응시하지 않은 학생들도 다양한 형태로 지원할 수 있는 기회가 있습니다. 다만, 각 전형별로 제출해야 하는 서류와 평가 기준이 다를 수 있으므로, 해당 대학의 공식 입학전형 안내 사이트(https://ipsi.deu.ac.kr/main.do)를 확인하여 자세한 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 점을 언급하고 있지만, "대부분의 대학에서 정시 모집은 고등학교 졸업 후 3년 이내를 대상으로 한다"는 정보는 사실과 다릅니다. 이는 잘못된 정보로, 정시 지원에 대한 제한이 없다는 원문과 상충합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 정시 모집 기준에 대한 설명이 원문과 모순됩니다. 원문은 졸업 시기와 관계없이 지원 가능하다고 명시하고 있으나, 생성된 응답은 3년 이내라는 조건을 제시하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서 강조한 "정시 지원 가능성"에 대한 직접적인 답변보다는 추가적인 정보가 포함되어 있어 약간의 주제 이탈이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있습니다. 그러나 원문과의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제시된 정보 중 일부는 정확하지 않으며, 특히 정시 모집 기준에 대한 설명이 원문과 상충합니다. 이는 정확성에 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미를 대체로 잘 전달하고 있으나, 일부 정보가 원문과 다르게 해석될 수 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6128204744508903</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로 답변 드리겠습니다. 
+현재 제공된 정보로는 2024학년도의 경우, 정시모집군 변경이나 전형요소 반영비율 등이 일부 변경되었지만, 고등학교 졸업한지 10년 이상 지났다고 해서 직접적인 지원 제한은 보이지 않습니다. 
+하지만 일반적으로 대학 입시에서는 다음과 같은 요인들을 고려합니다:
+1. **정시모집의 기준**: 대부분의 대학에서 정시 모집은 고등학교 졸업 후 3년 이내를 대상으로 합니다.
+2. **경력사항**: 10년 이상 지났다면, 해당 기간 동안 취득한 자격증, 경력 등이 중요하게 평가될 수 있습니다.
+3. **개인성적 및 경험**: 학업 성취도, 사회 활동, 특기사항 등을 강조해야 합니다.
+4. **전형별 요구사항**: 각 전형별로 다른 요구사항이 있으므로 해당 대학의 정시모집 전형을 꼼꼼히 확인해보세요.
+5. **추천서 및 면접**: 일부 전형에서는 추천서나 면접에서 경력사항을 평가할 수 있습니다.
+따라서, 10년 이상 지났다고 해도 지원 가능하지만, 다음과 같은 절차를 따르는 것이 좋습니다:
+- **대학 입시 홈페이지 확인**: 해당 대학의 공식 입시 홈페이지를 방문하여 정시모집 전형에 대한 자세한 정보를 확인하세요.
+- **상담 요청**: 입학처나 학부모 상담실에 문의하여 직접적인 조언을 받으세요.
+- **자기소개서 작성**: 경력사항과 관련된 자기소개서를 잘 준비해보세요.
+이런 절차를 통해 지원 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8437015288616178</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집의 주요 일정을 요약하면 다음과 같습니다:
+1. 모집인원 확정 공고:
+   - 날짜: 2024. 01. 02.(화)
+   - 내용: 입학안내 홈페이지 공고
+2. 원서접수(인터넷):
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) (마감일 18시까지)
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) (마감일 17시까지 도착)
+   - 참고: 서류 제출대상은 전형별 세부 안내를 참조해야 함
+4. 실기고사:
+   - 레저스포츠학과, 태권도학과: 2024. 01. 16.(화)
+     - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 확인
+5. 디자인조형학과, 체육학과 실기고사: 2024. 01. 17.(수)
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 확인
+6. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+7. 충원 합격자 발표 및 등록:
+   - 1차: 2024. 02. 14.(수) 09:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+   - 2차: 2024. 02. 15.(목) 09:00 ~ 16:00
+8. 충원 합격자 발표 및 등록:
+   - 3차 이후 (개별 전화 통보): 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정은 일반적인 예시이며, 실제 일정은 변경될 수 있으므로 공식 입학 안내 홈페이지를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8834228041643654</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집의 주요 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) (마감일 18시까지)
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) (마감일 17시까지 도착)
+   - 참고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조), 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과
+   - 날짜: 2024. 01. 16.(화)
+   - 참고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과
+   - 날짜: 2024. 01. 17.(수)
+   - 참고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 참고: *발표 : 홈페이지에서 개별 조회* *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 3차 이후 (개별 전화 통보) 발표 및 등록: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정은 일반적인 정시모집 절차를 요약한 것입니다. 각 전형별 세부사항과 변경 사항은 입학처 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 요구하는 정보와는 상반된 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 나열된 전형에 대한 설명이 있지만, 원문과의 연결이 부족하여 일관된 흐름이 부족합니다. 원문과의 관계가 명확하지 않아 다소 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 담고 있습니다. 수능 미응시자가 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6422820605280523</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **나군 학생부교과(농어촌학생전형)**
+2. **나군 학생부교과(평생학습자전형)**
+3. **나군 학생부종합(성인학습자(정원내)전형)**
+4. **나군 학생부종합(성인학습자(정원외)전형)**
+이 전형들은 수능 미응시자도 지원 가능하며, 주로 학생부 성적과 면접 등을 통해 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격자가 36명이라는 사실을 정확하게 반영하고 있습니다. 그러나 "2024학년도 데이터를 바탕으로"라는 부분은 전년도 데이터에 대한 질문에 대한 정확한 답변이 아니므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 전년도 데이터에 대한 질문에 대해 2024학년도 데이터를 언급하고 있어 일관성이 떨어집니다. 또한, 최초합격자와 충원 합격을 포함한 2차까지 이루어졌다는 설명은 원문에 명시된 내용과 일치하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 전자공학과의 충원 합격자 수에 대한 질문에 직접적으로 답변하고 있으며, 관련된 웹사이트 링크도 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, "충원 합격 (후보순위)을 포함한 2차까지 이루어진 것입니다" 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 2024학년도와 전년도 데이터의 혼용으로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전자공학과의 충원 합격자 수에 대한 정확한 정보를 제공하고 있지만, 전년도 데이터에 대한 질문에 2024학년도 데이터를 언급한 점에서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 전반적으로 의미가 적절하게 전달되고 있으나, 전년도 데이터에 대한 질문에 2024학년도 데이터를 언급한 점에서 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.7504033288817064</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 36명이었습니다. 이는 최초합격자(1차)와 충원 합격 (후보순위)을 포함한 2차까지 이루어진 것입니다.
+만약 전년도 데이터가 필요하다면, 해당 정보를 제공하기 위해 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보시는 것이 좋겠습니다. 이 사이트에서는 최신의 모집 정보와 결과를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와 상충하는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전화번호에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 연락처에 대한 질문에 대한 직접적인 답변을 제공하지 않지만, 웹사이트를 방문하라는 제안은 관련성이 있습니다. 그러나 전화번호에 대한 정보가 없다는 점에서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 언어가 한국어가 아닌 중국어로 되어 있어 한국어 사용자에게는 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 없다고 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 전화번호에 대한 정보가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자에게는 중국어로 되어 있어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6297992957345117</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。建议您访问东义大学官网（https://ipsi.deu.ac.kr/main.do）以获取最新的联系方式，包括入学处的联系电话等信息。如果网站上仍然没有相关信息，您可以尝试通过电子邮件或其他在线表单进行咨询。</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차를 상세히 설명하고 있지만, 원본 텍스트에서 언급된 "전화 연락이 두절되어(3회 통화 시도)"라는 부분이 누락되어 있습니다. 또한, 원본 텍스트는 등록 의사가 없는 것으로 간주된다는 점을 강조하고 있으나, 생성된 응답에서는 이 부분이 명확히 언급되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제를 다루고 있지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 구체적인 절차를 추가하여 일관성을 유지하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 등록 포기자로 처리되는 부분이 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 전화 통화가 되지 않을 경우의 절차에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 절차가 순차적으로 나열되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트의 핵심 내용과의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차를 설명하고 있지만, 원본 텍스트의 중요한 사실인 등록 포기자로 처리되는 부분이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 다소 부족함이 있어 전체 점수는 4로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 중요한 정보가 누락되어 있어 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있는 점이 있어 4로 평가됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.6006545264542614</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화통보 후에도 전화 통화가 되지 않는 경우, 일반적으로 다음과 같은 절차가 따르게 됩니다:
+1. **재전화 시도**: 입학관리팀은 최대한 많은 횟수로 재전화를 시도합니다.
+2. **메시지 남기기**: 전화가 되지 않을 때는 메시지를 남깁니다. 이때, 합격자에게 연락처 변경 사항이나 기타 필요한 정보를 포함하여 메시지를 남깁니다.
+3. **추가 통보 방법**: 메일이나 문자 메시지 등을 통해 추가로 통보합니다. 예를 들어, 합격자 발표 페이지에 대한 링크를 제공하거나, 입학관리팀의 연락처를 알려줍니다.
+4. **입학관리팀 문의**: 합격자들은 이메일 또는 전화를 통해 직접 입학관리팀에 문의할 수 있습니다. 이렇게 하면 입학관리팀은 합격 사실을 확인하고 필요한 정보를 제공합니다.
+5. **등록 절차 안내**: 등록 절차와 관련된 모든 정보가 포함된 고지서나 안내문을 발송하여 학생들이 스스로 처리할 수 있도록 합니다.
+이러한 절차들은 합격자에게 최대한 많은 기회를 제공하고, 전화 통신의 불편함으로 인해 발생하는 문제를 최소화하려는 노력입니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록과 조건을 잘 반영하고 있으나, 일부 세부사항이 누락되거나 간략화되어 있어 완전한 정확성을 보장하지는 않는다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관되지만, 일부 표현에서 약간의 차이가 있어 완전한 일관성을 보장하지는 않는다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 필요한 서류에 대한 정보를 명확하게 제공하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 몇몇 문장에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 문장 간의 연결이 매끄럽지 않을 수 있다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부사항이 생략되어 있어 완전한 정확성을 보장하지는 않는다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 세부사항의 누락으로 인해 완전한 점수를 받지 못했다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있어 완전한 적합성을 보장하지는 않는다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 몇몇 문장에서 약간의 혼란을 줄 수 있는 표현이 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7466762980138214</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류가 필요합니다:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+3. **중학교 학교생활기록부** (1부) - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+4. **고등학교 학교생활기록부** (1부) - 학생부 온라인 제공 비대상 교 및 미동의자에 한해 필요
+추가로 부모가 사망하거나 이혼한 경우 다음과 같은 서류를 제출해야 합니다:
+- 사망한 부 또는 모의 기본증명서 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)
+- 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부
+- 본인의 기본증명서(상세) 1부
+6년 과정에서는 중학교와 고등학교 재학기간 동안 농어촌 지역에 거주한 자여야 하며, 12년 과정에서는 초중고 학교에서 농어촌 지역에 소재한 학교를 이수하고 거주한 자여야 합니다.
+이러한 서류들은 정확하게 준비하여 제출해야 하며, 특히 주민등록초본과 학교생활기록부는 반드시 원본을 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 포함하고 있지만, 부모의 사망이나 이혼에 대한 추가 서류는 원본 텍스트에 명시되어 있지 않으므로 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 서류 정보가 원본과 일치하지 않아 일관성이 부족하다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 필요한 서류에 대한 정보를 잘 전달하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 원본 텍스트에 포함되지 않은 추가 서류 정보가 포함되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 사실성과 정확성에서 일부 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절함이 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8414377441623804</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 지원자는 다음과 같은 서류를 제출해야 합니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+6. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 "저소득 기회균등 전형을 실시하지 않는 것으로 보입니다"라고 언급하고 있지만, 원문에서는 기회균등 전형이 존재하지 않는다고 명확히 언급하고 있습니다. 따라서 사실관계에 대한 정확성이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 "실시하지 않는 것으로 보입니다"라고 하여 모호한 표현을 사용하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명확히 언급된 사항을 충분히 반영하지 못하고 있습니다. 그러나 주제와 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 기회균등 전형의 존재 여부에 대한 잘못된 해석을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 의미와 다소 일치하지 않으며, 기회균등 전형의 존재 여부에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5288343663594538</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 이 대학교에서는 정시모집의 일부 전형에서 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 
+특히 주요 변경사항 중 "정시모집군 변경" 항목에서 다음과 같은 내용이 있습니다:
+- 2023학년도: 영어영문학과 (가)
+- 2024학년도: 영어영문학과 (다)
+이는 저소득 기회균등 전형을 실시하지 않는 것으로 해석될 수 있습니다. 
+그러나 정확한 정보를 얻기 위해서는 대학교 입학처 웹사이트나 직접 확인하는 것이 가장 좋습니다. 변경사항이 추가되거나 수정될 수 있기 때문입니다.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 구체적인 정보를 제공하지 않으며, 잘못된 정보(예: 평균 산출 방식에 대한 설명)를 포함하고 있습니다. 원본 텍스트의 내용과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 원본에서 언급된 정보와 상반되는 내용을 포함하고 있습니다. 따라서 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성 부족으로 인해 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하며, 원본 텍스트와의 연결이 약합니다. 그러나 내부적으로는 어느 정도의 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.27929579871601</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两门社会学考科的成绩分别是2和3等第，那么它们的平均分是2.5。在这种情况下，大多数大学会采用四舍五入或者直接取整的方式处理非整数等级。
+1. **四舍五入**：通常会将2.5等第向上取整为3。
+2. **直接取整**：有些学校可能会规定直接取整为最接近的整数，即2.5也会被取整为3。
+具体政策可能因大学而异，请务必查看你申请的具体学校的官方说明或咨询招生办公室以获取准确信息。如果不确定，建议联系学校确认他们的处理方式。</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표의 차수와 일정에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "1차 충원 합격자 등록"에 대한 내용이 원본 텍스트에는 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 다만, 추가된 등록 일정이 원본 텍스트에 명시되어 있지 않아 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 추가 정보를 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7066752012072064</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집의 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 1차 충원 합격자 발표
+2. **1차 충원 합격자 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00~16:00
+   - 내용: 1차 충원 합격자 등록
+3. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 09:00 (발표)
+     - 2024. 02. 15.(목) 09:00~16:00 (등록)
+4. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 (발표)
+     - 개별 전화 통보 시 안내 (등록)
+따라서, 정시 충원 합격자 발표는 총 3차로 이루어지며, 각 차례별로 일정이 다르게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 모집 인원과 지원 인원에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 수능 성적에 대한 구체적인 수치와 비교할 때, 정확한 정보가 부족하고 일부 내용이 왜곡되어 있습니다. 예를 들어, 원본 텍스트에서는 수능 4개 영역 등급이 4.6점일 경우의 가능성을 언급하고 있지만, 생성된 응답은 그에 대한 구체적인 수치를 제공하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 예를 들어, 원본 텍스트는 수능 성적이 4.6점일 경우의 가능성을 언급하고 있지만, 생성된 응답은 모집 인원과 경쟁률에 대한 정보에 집중하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 질문에 대한 답변을 시도하고 있지만, 주제와 관련된 정보가 부족하여 다소 관련성이 떨어집니다. 원본 텍스트의 핵심 내용인 수능 성적에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 고려하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 요소가 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 수치와 정보를 정확하게 반영하지 않고 있으며, 특히 수능 성적에 대한 구체적인 정보가 부족합니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있지만, 주제와 관련된 정보가 부족하여 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5701268780175957</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑几个因素：
+1. **e비즈니스학과의 모집인원 및 지원 인원**: 根据您提供的信息，2024学年该专业的招生人数为10人，而最终注册的申请者有38人。
+2. **竞争率**：根据提供的数据，竞争比是3.8。这意味着每个名额大约有3.8名学生在竞争。
+3. **成绩要求**：虽然您没有提供具体的录取分数线或最低分数要求，但我们可以推测，如果您的成绩为4.6，在当前的竞争情况下，有可能会被考虑。
+基于以上信息：
+- 由于该专业的招生人数（10人）相对较少，而申请者较多（38人），竞争非常激烈。
+- 您的成绩为4.6，在目前提供的数据中处于中间偏上的水平。如果录取分数线在4.5左右或略高一些，您的成绩是有竞争力的。
+因此，理论上来说，如果您是e비즈니스学专业的考生，并且成绩为4.6，那么您有可能通过该专业的正取（常规录取）获得录取。但是，最终能否被录取还需要考虑具体的录取分数线以及招生委员会的具体评判标准。
+建议：
+- 查看学校官方发布的具体录取分数线。
+- 关注学校的补充录取信息，因为有些大学会在正取结束后进行补充录取。
+- 如果可能的话，咨询学校的招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 영어 등급 평균을 2.88로 제시하고 있으나, 원본 텍스트에서는 3.66으로 명시되어 있습니다. 또한, 수능 4개 영역 등급 평균이 4.53이라고 언급되었으나, 생성된 응답에서는 이 정보가 누락되었습니다. 이러한 차이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 부분이 있습니다. 예를 들어, 원본 텍스트는 정시 등급 5.3이 합격하기 어려울 수 있다고 명시했지만, 생성된 응답은 합격 가능성이 높다고 주장하고 있습니다. 이러한 모순으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 분석을 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 연결되지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘못 전달하고 있으며, 특히 평균 등급과 관련된 정보에서 큰 오류가 있습니다. 이러한 부정확성으로 인해 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 일부 정보가 잘못되어 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 부분에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6328009267268037</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 최초합격자 분석을 보면, 다음과 같은 정보가 있습니다:
+- 모집 인원: 95명 (실제 지원 인원은 33명으로 충원 가능)
+- 경쟁률: 약 2.87 : 1
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 326.89
+- 영어 등급의 평균: 2.88
+이 정보를 바탕으로 정시 등급 5.3을 가정해보겠습니다:
+1. **등급 5.3에 해당하는 표준점수**: 
+   - 등급 5.3은 대략 109-110의 표준점수가 됩니다.
+2. **기타 영역 점수 예상**:
+   - 국어, 수학, 탐구(2개) 등의 평균 점수를 고려하면, 총점이 326.89에 가까워야 합니다.
+3. **합격 가능성 분석**:
+   - 현재 e비즈니스학과의 최저 합격 점수가 약 327점으로 보입니다.
+   - 등급 5.3 (109-110)을 기반으로 국어, 수학, 탐구(2개) 등의 평균 점수를 맞추면, 총점이 326.89에 가까워지므로 충분히 최저 합격 점수를 넘을 가능성이 있습니다.
+따라서, 정시 등급 5.3을 가지고 e비즈니스학과에 최초합격 가능성은 높다고 볼 수 있습니다. 그러나 실제 입학 결과는 지원자의 전체 성적 및 경쟁률 등 다양한 요인에 따라 결정되므로 확실한 보장은 아닙니다.
+추가적으로, 동의대학교의 정시 모집 규칙과 지원자의 전반적인 성적을 고려하여 최종 판단하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 질문에 대해 전혀 관련이 없는 정보를 제공하고 있습니다. 원본 텍스트에서 언급된 충원합격 순위와 관련된 사실을 무시하고, 다른 주제에 대한 설명을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 충원합격에 대한 정보와 관련된 내용이 전혀 없습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보나 관련 없는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와 관련이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4234047367138694</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你需要查看你是否符合eBiz专业的要求。通常，eBiz专业的录取标准会包括国语、数学和选修科目的平均分。
+2. **竞争情况**：根据提供的数据，eBiz专业的最终注册人数为89人，计划招生10人，因此竞争非常激烈。平均成绩约为308.58（标准差为10.96）。
+3. **个人表现**：你需要查看自己的成绩单和学校生活记录表，并确保你在这些方面表现出色。特别是要突出你的学业态度、学业成就以及与eBiz相关的兴趣和经历。
+4. **面试准备**：如果需要参加面试，你还需要准备好回答关于支持eBiz专业的问题，展示你的热情和能力。
+假设你提供的成绩是380分左右（具体分数未提供），这个成绩在当前的录取标准下可能处于中等偏上的水平。但是，由于竞争激烈，你需要确保你在其他方面也表现出色：
+- **学校生活记录表**：确保你的记录表真实反映你的努力和成就。
+- **面试表现**：准备充分，展示你对eBiz专业的热情和理解。
+建议你仔细查看自己的成绩单，并准备好相关的支持材料。如果有疑问或不确定的地方，可以参考学校的官方网站或直接咨询招生办公室获取更详细的信息。
+如果你需要进一步的帮助或具体指导，请告诉我更多细节！</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 3.44 등급으로 합격 가능성이 낮다는 주장을 뒷받침하는 이유를 제시하고 있습니다. 그러나 평균 등급이 3.41이라는 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 간호학과의 평균 등급과 경쟁률에 대한 정보를 일관되게 제공합니다. 그러나 평균 등급에 대한 수치가 원본과 다소 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 평균 등급에 대한 수치가 원본 텍스트와 다소 차이가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6242630778152946</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44 등급으로 동의대학교 간호학과에 지원하는 경우, 합격 가능성이 매우 낮다고 볼 수 있습니다.
+다음은 이유입니다:
+1. **정시 모집인원 및 경쟁률**: 
+   - 간호학과는 정원 내 모집 인원이 22명이며, 지원 인원이 145명으로 높은 경쟁률을 보이고 있습니다.
+   - 평균 등급은 3.37이며, 표준 편차가 0.29로 낮은 수치입니다.
+2. **성적 분포**:
+   - 평균 등급이 3.41이고, 표준 편차가 0.69인 경우, 3.44는 상위권에 해당하지만 여전히 경쟁률이 매우 높습니다.
+3. **동점자 처리 기준**:
+   - 동점자 처리 기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자로, 등급만으로는 결정하기 어렵습니다.
+4. **추천**:
+   - 3.44 등급으로 지원하는 경우, 다른 대안을 고려해보시는 것이 좋습니다.
+   - 농어촌학생 전형이나 경기실적 우수자 전형 등을 활용해 볼 수 있습니다.
+   - 또는 다른 대학의 간호학과를 탐색해 보세요.
+결론적으로, 3.44 등급으로는 동의대학교 간호학과에 합격하기 어렵다고 판단됩니다. 그러나 다양한 전형을 고려하여 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 정확하게 반영하고 있으며, 2.52라는 점수에 대한 해석도 적절합니다. 그러나 "영어 등급 2등급은 131점"이라는 정보는 출처에서 제공되지 않았으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 정보를 제공하지만, "2.52라는 점수만으로는 간호학과에 최종 합격하기가 어렵다"는 주장은 원본 텍스트의 긍정적인 합격 가능성과 상충합니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 특정 세부사항(예: 영어 등급 점수에 대한 정보)이 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일관성에서 약간의 문제가 있어 전체 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보가 추가되어 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.653990903300719</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급 점수가 2등급에 해당하는 점수입니다 (영어 등급 2등급은 131점). 동의대학교 간호학과의 경우, 최종 합격을 위해서는 다음과 같은 요소들이 중요합니다:
+1. **모집인원 및 지원자 수**: 간호학과는 정원 내 모집 인원이 22명이며, 지원 인원은 145명으로 많은 경쟁률을 보이고 있습니다.
+2. **성적 평균**: 최종 등록자의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 353.48이며, 영어 등급의 평균은 2.34입니다.
+3. **성적 분포**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차는 4.66이며, 영어 등급의 표준 편차는 0.69입니다.
+4. **경쟁률**: 경쟁률은 6.59로 매우 높습니다.
+이러한 상황을 고려할 때, 2.52라는 점수만으로는 간호학과에 최종 합격하기가 어렵다고 볼 수 있습니다. 그러나 다음과 같은 요인들이 있다면 기회를 얻을 수도 있습니다:
+- **특기사항 및 활동**: 동의대학교에서는 학생부 종합전형에서 공동체역량, 학업역량, 전공적합성 등을 평가합니다. 특별한 활동이나 경험을 통해 입학사정관들의 관심을 끌 수 있습니다.
+- **면접 성적**: 면접에서도 좋은 성적이 나온다면 이점을 활용할 수 있습니다.
+따라서, 2.52라는 점수로 간호학과에 최종 합격하기는 어렵지만, 특기사항이나 활동을 잘 준비하고 면접에서 좋은 성적을 받으면 기회를 얻을 수도 있습니다. 
+추가적으로, 동의대학교 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 추가적인 지원 전략을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 포함하고 있으며, GPA 3.7이 합격 가능성에 미치는 영향을 잘 설명하고 있습니다. 그러나 "합격 가능성이 낮다"는 원문에서의 명확한 결론을 다소 약화시키는 방식으로 설명하고 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관된 정보를 제공하지만, GPA 3.7이 낮은 성적이라는 원문의 주장을 다소 완화시키고 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 간호학과에 지원하기 위한 여러 요소를 고려하고 있으며, 원문에서 언급된 GPA와 관련된 질문에 직접적으로 답변하고 있습니다. 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 잘 일치하지만, GPA 3.7이 평균보다 낮다는 점을 명확히 하지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 부합하지만, 일부 표현이 원문의 강한 결론을 약화시키는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.4811670891667684</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁이 매우 치열합니다. 특히 교직 간호학과는 수험생들의 성적이 높은 편입니다. 정시 성적이 3.7이라면, 다른 요소들이 좋은 점수를 보완해야 합니다.
+2. **학생부 및 서류**: 학생부와 제출서류가 중요합니다. 특히 간호학과는 인성과 역량을 중점적으로 평가하기 때문에, 학교생활기록부에서의 활동과 성적, 그리고 관련 활동 경험 등을 잘 보여줘야 합니다.
+3. **면접**: 면접에서도 좋은 점수를 받는 것이 중요합니다. 간호학과에서는 지원자의 의사소통 능력, 인성, 진로계획 등이 평가됩니다.
+4. **추천서 및 특기사항**: 추천서나 특기사항을 잘 작성하여 자신의 장점을 강조하는 것도 도움이 될 수 있습니다.
+5. **동점자 처리 기준**: 동점자 처리 기준도 중요합니다. GPA 외에도 학교생활기록부, 면접 성적 등 다양한 요소가 고려될 수 있으므로, 이 부분에서도 좋은 점수를 받는 것이 유리할 것입니다.
+결론적으로 3.7의 GPA만으로는 확실한 합격을 보장하기 어렵습니다. 그러나 학생부와 서류, 면접 등에서 우수한 성적을 거두면 가능성이 있습니다. 따라서 다음과 같은 조치를 취해보시는 것이 좋겠습니다:
+- **학생부 및 활동 강조**: 학교생활기록부에서의 활동과 성적을 잘 보여주는 서류를 준비합니다.
+- **면접 준비**: 면접 질문 공통문항에 대해 미리 대비하고, 진로계획과 인성 등을 잘 준비합니다.
+- **추천서 작성**: 추천서를 통해 선생님이나 지도교사의 추천을 받습니다.
+이러한 조치들을 취하면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 모집 인원, 성적 반영 방법, 성적 평균, 합격 가능성 등에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용과 대체로 일치합니다. 그러나 원본 텍스트에서 언급된 평균 등급과 비교하여 합격 가능성을 높게 평가하는 부분에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 해석이 다소 상이합니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 언급했으나, 생성된 응답에서는 일반 전형에서 낮은 점수라고 평가하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 간호학과의 정시 모집요강에 대한 구체적인 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 합격 가능성에 대한 해석에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 전반적으로 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 전반적으로 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있으며, 정보가 잘 전달되고 있습니다. 다만, 일부 부분에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.6161492968675786</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 고려해보겠습니다.
+1. **전형별 모집인원**:
+   - 간호학과는 일반 전형으로 35명을 모집합니다.
+   - 실기/실적 위주 전형으로도 20명을 모집합니다.
+2. **학생부 교과성적 반영방법 (학생부교과, 실기/실적 위주전형)**:
+   - 반영과목: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   - 성적 반영 방식: 
+     - A: 1등급 (98점 이상)
+     - B: 3등급 (87점 이상)
+     - C: 5등급 (76점 이상)
+3. **성적 평균**:
+   - 2.58은 한국사와 사회(역사/도덕 포함)를 제외한 10과목의 성적을 반영합니다.
+   - 2.58은 대략 B등급에 해당합니다 (87점 이상).
+4. **전형별 학생부 교과성적 평균**:
+   - 일반 전형: 3.69
+   - 실기/실적 위주 전형: 3.21
+5. **합격 가능성**:
+   - 현재 성적이 B등급으로, 일반 전형에서는 낮은 점수입니다.
+   - 실기/실적 위주 전형에서는 조금 더 높은 점수가 필요하지만 가능성이 있습니다.
+6. **추천 사항**:
+   - 실기/실적 위주 전형을 선택하여 지원하는 것이 좋습니다.
+   - 추가적으로 면접 준비를 철저히 하여 학업역량과 전공적합성을 강조해야 합니다.
+   - 서류 제출 시 창의적 체험활동, 진로 탐색 활동 등 관련 내용을 잘 기재해 주세요.
+결론적으로 2.58이라는 성적이 간호학과 일반전형에서는 낮지만, 실기/실적 위주 전형으로는 합격 가능성은 있습니다. 철저한 준비와 면접 준비를 통해 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보와 맥락을 벗어난 내용을 포함하고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 경쟁률과 관련된 다른 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 주제를 벗어나고 있으며, 예비 번호에 대한 직접적인 답변을 제공하지 않습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용인 예비 합격 가능성에 대한 정보가 포함되어 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 원본 텍스트의 주제와 관련이 없기 때문에 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 예비 7번의 합격 가능성에 대한 정보가 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 질문에 대한 명확한 답변으로는 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.5668613653320302</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看一些具体的数据。根据您提供的信息，2024学年游戏公学（게임공학과）的招生情况如下：
+- 招生人数：3人
+- 报名人数：16人
+- 竞争比：5.33
+从这些数据来看，竞争非常激烈。您的预估号码是7号。
+根据以往的经验和录取规则，通常情况下：
+1. 会按照总分（国语 + 数学 + 探究科目）进行排序。
+2. 如果分数相同，则可能按单科成绩、或其它标准如实测成绩等进一步区分。
+建议您关注以下几个方面来提高被录取的机会：
+1. **努力提升各科成绩**：尤其是国语、数学和探究科目的成绩，因为这些是主要评分依据。
+2. **准备充分的实测成绩**：如果学校有实测科目或项目，请认真准备并取得好成绩。
+3. **保持良好的出勤记录**：如果有出勤要求的话，尽量不要缺课。
+您可以参考以下链接获取更多详细信息：
+https://ipsi.deu.ac.kr/main.do
+如果您还有其他具体问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적과 관련된 평균 점수 및 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "추가 합격 몇 번을 받을지는 예측하기 어렵습니다"라는 부분을 간과하고 있습니다. 또한, 표준편차와 관련된 계산이 원본 텍스트에 명시되지 않은 정보이므로, 일부 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 경쟁률과 충원 합격자 수에 대한 추가 정보를 제공하여 원본 텍스트와의 일관성이 떨어집니다. 원본 텍스트는 추가 합격에 대한 예측이 어렵다고 명시하고 있으나, 생성된 응답은 확률이 낮다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 성적과 합격 가능성에 대한 정보를 다루고 있습니다. 그러나 원본 텍스트의 핵심 메시지인 추가 합격에 대한 예측의 어려움이 충분히 강조되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 수학적 계산 부분이 다소 복잡하게 표현되어 있어 일부 독자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적과 관련된 평균 점수 및 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 특히, 표준편차와 관련된 계산이 원본 텍스트에 명시되지 않은 정보입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있습니다. 원본 텍스트의 핵심 메시지를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가 합격에 대한 예측의 어려움이 충분히 반영되지 않았습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 수학적 계산 부분이 다소 복잡하게 표현되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.654813496349736</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다.
+수능 성적이 4.16정도라면, 평균 점수가 4.78이고 표준 편차가 0.20인 경우를 고려해 볼 수 있습니다:
+- 평균점수: 4.78
+- 표준편차: 0.20
+이제 4.16을 평균에서 얼마나 떨어져 있는지 계산합니다:
+\[ \text{표준화된 점수} = \frac{\text{실제 점수} - \text{평균점수}}{\text{표준편차}} \]
+\[ \text{표준화된 점수} = \frac{4.16 - 4.78}{0.20} = -3.1 \]
+이 표준화된 점수가 매우 낮은 수치로, 이는 실제 성적이 평균보다 상당히 낮다는 것을 의미합니다.
+따라서, 4.16정도의 성적을 가진 지원자가 경쟁률이 5.33인 경우에 3명 중에서 합격할 확률은 매우 낮습니다. 
+추가적으로 동의대학교 게임공학과는 수능 성적이 중요한 요소로 작용하므로, 이 정도 성적으로는 추가 합격을 받기 어렵다고 볼 수 있습니다.
+결론적으로, 4.16정도의 성적로는 추가 합격 기회가 매우 낮습니다. 다른 전형이나 대학을 고려해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 경영정보학과의 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족하다. 따라서 일부 사실이 누락되었고, 원본 텍스트의 핵심 내용을 완전히 반영하지 못했다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리기준에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 다소 일치하지 않는 부분이 있다. 특히, 3.75의 성적이 최초 등록자가 될 가능성이 있다는 점은 언급되었으나, 원본 텍스트의 합격 가능성에 대한 명확한 연결이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동점자 처리기준에 대한 정보를 제공하여 질문과 관련이 있지만, 원본 텍스트의 핵심 내용인 경영정보학과의 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족하다. 그러나 여전히 관련된 정보를 제공하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 동점자 처리기준에 대한 설명이 일관되게 이어진다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리기준에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치나 조건을 정확히 반영하지 못하고 있다. 따라서 정확성에서 다소 부족함이 있다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있어 전반적인 품질이 다소 낮다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 의미적으로 적절하다. 그러나 원본 텍스트의 맥락을 완전히 반영하지는 못하고 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공하고 있다. 다만, 일부 문장이 길어질 경우 이해하기 어려울 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.6589281818207897</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리기준을 확인해보겠습니다.
+- **나군 수능(일반학생전형) 동점자 처리기준**:
+  - 순위 1: 수능 국어 + 수학 + 영어영역 합계점수 상위자
+  - 순위 2: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+  - 순위 3: 의료‧보건‧생활대학, 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+- **다군 수능(일반학생전형) 동점자 처리기준**:
+  - 순위 1: 수능 국어 + 수학 + 영어영역 합계점수 상위자
+  - 순위 2: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+  - 순위 3: 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+이 중 경영정보학과는 인문사회과학대학에 속합니다. 따라서 동점자 처리기준을 보면:
+1. **수능 국어 + 수학 + 영어 합계점수 상위자**: 이 조건만 충족하면 최초 등록자가 될 가능성이 높습니다.
+2. **인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자**: 이 조건은 점수가 더 높아야 합니다.
+따라서, 경영정보학과에 지원하는 경우:
+- **3.75의 성적**이면 최초 등록자가 될 가능성이 있습니다.
+- 만약 다른 모집단위에서 3.75 이상의 성적이 더 높다면, 그 경우에는 동점자 처리기준을 충족하지 못할 수 있습니다.
+따라서, 현재로서는 **3.75의 성적만으로는 최초 등록자가 될 가능성이 있지만, 다른 모집단위에서 더 높은 점수가 나오면 이 조건이 변경될 수 있습니다**. 
+추가적으로, 정확한 판단을 위해서는 해당 대학의 최종 등록자 정보와 동점자 처리기준을 확인하는 것이 좋습니다. 필요하다면 **https://ipsi.deu.ac.kr/main.do** 링크를 참조해 보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 4.2에 대한 평가를 포함하고 있지만, 원본 텍스트에서 제시된 평균 등급(2.88, 3.88)과의 비교가 부족하여 합격 가능성에 대한 명확한 근거를 제공하지 못하고 있습니다. 또한, "최초등록자"에 대한 가능성을 다루는 방식이 원본과 다소 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 최초등록자 가능성에 대한 해석이 다소 다릅니다. 원본에서는 합격 가능성이 낮다고 명시했지만, 생성된 응답에서는 중간 정도의 성적이라고 언급하며 다소 모호한 입장을 취하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시모집과 관련된 정보를 제공하고 있으며, 수능 성적과 학생부 종합 평가에 대한 설명이 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 명확한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 비교하여 합격 가능성을 명확히 설명하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.688722865833709</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집에서 경영정보학과의 경우, 수능 및 학생부 종합 평가를 통해 지원자를 선발합니다.
+주요 정보:
+- **수능 성적**: 4.2 등급입니다.
+- **학생부 종합 평가**: 이 부분은 학업역량, 전공적합성 등을 종합적으로 판단하는 요소로, 단순히 수능 점수만으로는 결정되지 않습니다.
+**최초등록자로서의 가능성**:
+1. **수능 성적**: 4.2 등급은 중간 정도의 성적이므로 경쟁률이 높은 학과에서는 낮은 점수로 충분히 최초등록자가 될 수는 없습니다.
+2. **학생부 종합 평가 영역**:
+   - **공동체역량**: 협업능력, 참여도 등
+   - **학업역량**: 학업태도와 성취정도, 주도적 노력 등
+   - **전공적합성**: 지원자의 열정과 관련된 활동 및 경험
+**추천 사항**:
+1. **학생부 작성**: 학교생활기록부에서의 활동 기록을 자세히 작성하고, 교사와의 소통을 통해 긍정적인 평가를 받도록 합니다.
+2. **면접 준비**: 면접에서는 지원 동기와 학업 계획, 전공적합성에 대한 열정 등을 잘 표현해야 합니다.
+**결론**:
+4.2 등급으로는 단순히 수능 성적으로 최초등록자가 될 가능성은 낮습니다. 그러나 학생부 종합 평가에서 뛰어난 점수를 얻을 경우, 가능성을 높일 수 있습니다. 따라서, 학교생활기록부 작성과 면접 준비에 집중하는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 5.33이라는 수능 등급이 높은 점수라고 언급하고 있지만, 원본 텍스트에서는 이 등급이 경영정보학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 합격 가능성이 낮다고 하는 원본의 사실과 상충하는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 5.33이라는 수능 등급으로 합격 가능성이 매우 높다고 주장하지만, 원본 텍스트에서는 이 등급이 평균보다 낮아 합격 가능성이 낮다고 설명하고 있습니다. 두 정보가 서로 모순되므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 등급과 합격 가능성에 대한 여러 요인을 설명하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 핵심 사실을 왜곡하고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 원본 텍스트의 주제와의 연결이 약해 보입니다. 정보의 흐름이 다소 일관되지 않으며, 주제에 대한 명확한 결론이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 5.33이라는 수능 등급이 합격 가능성이 높다고 주장하는 것은 원본의 사실과 모순됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 합격 가능성에 대한 해석이 원본과 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6392736218984874</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>5.33이라는 수능 등급은 상당히 높은 점수입니다. 동의대학교 경영정보학과의 경우, 정시 모집에서는 수능 성적이 중요한 평가 요소 중 하나이지만, 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **전형 방식**: 동의대학교는 일반적으로 수능 성적을 주요 평가 기준으로 하지만, 다른 전형 요소들도 고려됩니다.
+2. **모집 인원과 지원자 수**: 5.33이라는 등급은 상당히 높기 때문에 경쟁률이 낮아질 가능성이 있습니다. 그러나 모집 인원과 지원자의 수에 따라 달라질 수 있습니다.
+3. **전형 요소의 비중**: 동의대학교는 수능 성적 외에도 학생부, 면접 등 다양한 평가 요소를 고려합니다.
+따라서 5.33이라는 높은 수능 등급으로 경영정보학과에 합격할 가능성은 매우 높습니다. 하지만 최종 결정은 모집 인원, 지원자 수, 그리고 기타 전형 요소들에 따라 달라질 수 있습니다.
+추가적으로, 동의대학교의 정시모집 성적 기준을 확인하거나, 입학사정관들의 평균 점수를 참고하면 더 정확한 판단이 가능할 것입니다. 필요하다면, 동의대학교의 공식 웹사이트나 입학처에 문의하시거나, 전문적인 상담을 받는 것도 좋은 방법입니다.
+추가 정보:
+- [동의대학교 입학정보 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 입학 가능성을 판단하기 위한 여러 요소를 고려하고 있으며, 성적 기준에 대한 설명도 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 평균 성적 정보(영어 등급 평균 3.82, 수능 4개 영역 등급 평균 4.74)에 대한 언급이 없으므로 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 여러 요소를 제시하고 있지만, 원본의 구체적인 수치와 비교할 때 일관성이 떨어집니다. 특히, 성적 기준에 대한 설명이 원본의 평균 성적과 일치하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 바이오응용공학부의 입학 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 여러 요소를 고려하여 입학 가능성을 판단하는 데 필요한 정보를 잘 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 구분되어 있습니다. 그러나 일부 내용이 중복되거나 불필요하게 길어져서 완전한 일관성을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 입학 가능성을 판단하기 위한 여러 요소를 제시하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 원본의 평균 성적 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 원본 텍스트의 구체적인 수치와의 일치성 부족으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 원본의 구체적인 수치가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.6274278345448249</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부에 대해 정확한 입학 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집단위와 모집인원**: 바이오응용공학부의 정시 모집 인원과 모집 단위를 확인해야 합니다.
+2. **성적 기준**: 성적이 3.33이라면, 이는 대체로 중간 이상의 성적을 의미합니다. 하지만 최종 결정은 모집단위별 성적 기준에 따라 달라질 수 있습니다.
+3. **전형 방식**: 동의대학교는 주로 수능 위주 전형과 학생부 종합 전형 등 다양한 방식으로 모집합니다. 바이오응용공학부에서 어떤 전형방식을 사용하는지 확인해야 합니다.
+4. **동점자 처리 기준**: 만약 성적이 동점자라면, 동점자 처리 기준에 따라 결정될 수 있습니다.
+5. **기타 요인**: 학생의 특성화 과정, 실적, 면접 등도 고려될 수 있습니다.
+현재 정보로는 다음과 같은 점을 주목해야 합니다:
+- 바이오응용공학부는 여러 모집단위와 인원으로 구성되어 있을 가능성이 높습니다.
+- 성적이 3.33이라면, 일부 모집단위에서는 충분히 경쟁력을 갖추고 있을 수 있습니다.
+- 전형 방식과 동점자 처리 기준에 따라 최종 결정이 달라질 수 있습니다.
+따라서, 정확한 답변을 위해서는:
+1. 바이오응용공학부의 2024년 정시 모집 단위와 인원을 확인하세요.
+2. 해당 모집단위별 성적 기준과 전형 방식을 파악하세요.
+3. 동점자 처리 기준도 확인해 보세요.
+이런 정보를 바탕으로 최종적인 입학 가능성을 판단할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 포함하고 있지만, "4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만"이라는 부분은 다소 모호하게 표현되어 있어, 실제로는 합격 가능성이 낮다는 점을 명확히 하지 못하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 제공하지만, "4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만"이라는 문구는 원문과의 일관성이 떨어집니다. 원문에서는 합격 가능성이 낮다고 명시하고 있기 때문에, 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하는 것과 관련된 여러 요소를 다루고 있어 주제와 관련성이 높습니다. 그러나 일부 내용은 원문과 직접적으로 연결되지 않는 부분이 있어, 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있어, 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 일부 내용이 원문과의 연결이 약해 전체적인 일관성이 떨어질 수 있어, 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 포함하고 있지만, "합격 가능성이 낮다"는 원문의 핵심 메시지를 충분히 반영하지 못하고 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 적절한 의미를 전달하고 있으나, 원문과의 연결이 약해 일부 내용이 부적절하게 느껴질 수 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 길어질 수 있어 이해도 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5134147547244283</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률과 합격 기준 등을 고려해야 합니다.
+방사선학과는 일반적으로 높은 경쟁률을 보입니다. 따라서 성적 외에도 다음과 같은 요소들이 중요합니다:
+1. **성적**: 4.4의 등급은 중간 수준이며, 방사선학과의 합격 기준보다는 낮습니다. 하지만 최근 몇 년 동안의 경쟁률을 고려하면, 좋은 성적이 필요합니다.
+2. **학생부 평가**: 공동체역량, 학업역량, 전공적합성 등이 중요합니다. 활동과 경험, 학교생활기록부에서 보여줄 수 있는 열정과 적합성을 강조해야 합니다.
+3. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다. 지원 동기와 전공에 대한 이해도 등을 잘 표현해야 합니다.
+4. **추천서 및 기타 서류**: 추천서나 자기소개서 등에서 자신의 장점을 잘 나타낼 수 있어야 합니다.
+5. **실적**: 방사선학과에서는 실무 경험이나 관련 활동이 유리할 수 있습니다. 이에 대한 경험을 강조하는 것이 좋습니다.
+현재의 성적만으로는 확정적으로 합격할 수 없다고 볼 수 있지만, 성적 외 요소들을 잘 준비한다면 좋은 결과를 얻을 수 있을 것입니다. 
+추천드리면:
+- **학생부와 면접 준비**: 활동과 경험을 자세히 기재하고, 학교생활기록부에서 보여줄 수 있는 열정과 적합성을 강조하세요.
+- **추천서 작성**: 선생님이나 지도老师的，根据您提供的信息和2024年韩国大学入学考试的主要变化，我为您总结了以下几个关键点：
+1. **学科分拆（学部→学科）**：
+   - 保育·家庭咨询学部 → 儿童学部
+   - 经济金融保险学部 → 金融经营学部
+   - 信息经营学部 (经营信息学, e商务学) → 经营信息学部, e商务学部
+   - 不动产金融·资产经营管理学部 → 不动产资产管理学部（不动产投资学, 不动产开发经营学）
+   - 机械汽车机器人零部件工程学部（机械工程, 机器人自动化工程, 汽车工程）→ 机械工程学部, 机器人自动化工程学部, 汽车工程学部
+   - 新材料工程学部（金属材料工程, 电子电材材料工程, 高分子材料工程）→ 新材料工程学部, 高分子纳米工程学部
+   - 建筑工学部（建筑学(5年制), 建筑工程, 土木工程, 城市工学）→ 建筑学部(5年制), 建筑工程学部, 土木工程学部, 城市工学部
+   - 化学环境工学部（化学工程, 环境工程, 应用化学）→ 化学工程学部, 环境工程学部, 应用化学学部
+   - 生物应用工学部（生物生命工学, 生物医药工学, 食品工程学）→ 生物生命工学部, 生物医药工学部, 食品工程学部
+   - 设计工学部（人机系统设计工学, 产品设计工学）→ 人机工程学部, 产品设计工学部
+   - 工业融合系统工学部（工业ICT技术工学, 工业经营大数据工学）→ 工业经营大数据工学部
+   - 创意软件工学部（计算机软件工学, 应用软件工学）→ 软件工程学部（计算机软件工学, 应用软件工学）
+   - 电气电子通信工学部（电气工程, 电子工程, 信息通信工程）→ 电气工程学部, 电子工程学部
+   - 音乐学部（声乐, 钢琴, 管弦打击乐, 实用音乐·音乐剧, 新媒体作曲）→ 音乐学部（古典音乐, 实用音乐, 新媒体作曲）
+2. **新设学科及暂停招生**：
+   - 心理学部 (新设)
+   - 智能港口物流学部 (新设)
+   - 创业投资经营学部 (新设)
+   - 生活融合学部 (新设)（创业投资学, 美容商业学, 生活文化学）
+   - 经济指导学部 (新设)
+3. **招生群变更**：
+   - 英语英语文学部 (甲) → 英语英语文学部 (丁)
+   - 酒店·会议经营学部 (乙) → 酒店·会议经营学部 (甲)
+   - 机器人自动化工程学部 (乙) → 机器人自动化工程学部 (甲)
+   - 土木工学部 (甲) → 土木工学部 (乙)
+   - 应用化学学部 (甲) → 应用化学学部 (丙)
+   - 生物医药学部 (丙) → 生物医药学部 (乙)
+   - 产品设计工学部 (乙) → 产品设计工学部 (甲)
+   - 电气工程学部 (乙) → 电气工程学部 (甲)
+   - 电子工程学部 (乙) → 电子工程学部 (甲)
+4. **新增招生类型**：
+   - 学生综合（成人学习者（定员内/外）型）：高中毕业或同等学历持有者
+5. **评价领域及评分标准变更**：
+   - 共同体能力：合作能力
+   - 学业能力：学业态度 / 学业成就
+   - 专业适应性：热情
+6. **提交材料变更**：
+   - 高中学生记录表（在线提供同意者除外）
+   - 检定考试或国外高中毕业证明书及成绩单
+   - 对于在国外高中毕业的学生，需要经过认证的副本和翻译本，并附上评分标准。
+综上所述，您目前的成绩为4.4，在申请放射线学部时可能面临一定的挑战。建议您除了准备良好的学业成绩外，还需要注重学生综合评价中的其他方面，如共同体能力、学业能力和专业适应性等。同时，积极参与与放射线学相关的活动和实践，以增强您的竞争力。希望这些建议对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 지원자 수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(2.8 및 3.82)과 관련된 정보는 포함되어 있지 않다. 또한, 2.66이 평균보다 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실성 점수가 낮아졌다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공한다. 원본에서는 2.66이 평균보다 높다고 언급했으나, 생성된 응답에서는 2.66이 상대적으로 낮다고 주장하고 있다. 이러한 모순으로 인해 일관성 점수가 낮아졌다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 지원자 수에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보는 다루지 않고 있다. 따라서 관련성 점수는 높지만 완전하지 않다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 완벽한 유창성 점수는 아니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못한다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 지원자 수에 대한 정보를 제공하지만, 원본 텍스트의 사실과 상충하는 내용을 포함하고 있다. 따라서 정확성 점수는 중간 정도로 평가된다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 사실성과 일관성에서 낮은 점수를 받았지만, 관련성과 유창성에서는 상대적으로 높은 점수를 받았다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 원본의 주장을 반박하는 내용이 포함되어 있어 의미적으로 적절하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있다. 그러나 일부 복잡한 문장 구조로 인해 완전한 이해 가능성 점수는 아니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5548299110226947</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년도 방사선학과의 경쟁률과 지원자 수를 고려하면, 2.66이라는 표준 변환 점수는 상대적으로 낮은 편입니다.
+- **경쟁률**: 7.20
+- **지원 인원**: 36명
+방사선학과의 경쟁률이 7.20으로 높기 때문에, 평균적인 표준 변환 점수는 상대적으로 높은 편입니다. 지원자 수가 많아도 경쟁률이 높기 때문에 낮은 점수가 적중하는 경우가 있을 수 있습니다.
+**평균 및 표준 편차 정보:**
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 341.62
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 9.80
+이 정보를 바탕으로, 2.66은 평균보다 약간 낮습니다. 하지만 표준 편차가 9.80이라는 점을 고려하면, 이 점수는 여전히 경쟁력을 갖춘 수준입니다.
+**추천 조치:**
+1. **서류 준비**: 서류 평가 영역에서 높은 점수를 받도록 노력하세요.
+2. **면접 준비**: 면접에서도 학업 역량과 전공 적합성을 잘 보여줄 수 있도록 준비해보세요.
+3. **추천서 및 추천인**: 강력한 추천서와 추천인이 있다면 이점도 활용할 수 있습니다.
+결론적으로, 2.66은 위험하지만 경쟁력을 갖춘 점수입니다. 최선을 다하여 다른 평가 영역에서 높은 점수를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 GPA와 관련된 정보와 합격 가능성에 대한 여러 요소를 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 언급된 평균 성적 4.12와의 비교가 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 원본 텍스트의 특정 수치(4.12)와 비교하는 부분이 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 합격 가능성에 대한 다양한 요소를 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 원본 텍스트의 특정 수치와 비교하는 부분이 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5621826533566384</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수입니다만, 경찰행정학전공 농어촌 전형에 합격하기 위해서는 여러 요소를 고려해야 합니다.
+1. **학교생활기록부**: 이 부분은 학업역량과 공동체역량을 평가하는 중요한 기준이 됩니다. 특히, 학교생활기록부에서의 활동과 성취도, 협력능력 등을 잘 보여줘야 합니다.
+2. **면접**: 경찰행정학전공은 사회과학 분야에 속하며, 이와 관련된 전문성과 인성을 평가하는 면접이 중요합니다. 학업계획이나 지원동기에 대한 명확한 답변을 준비해야 합니다.
+3. **추천서 및 자기소개서**: 추천서는 교사나 지도교수의 평가를 받게 되며, 자기소개서에서는 자신의 장점과 농어촌 배경을 잘 설명해야 합니다.
+4. **동점자 처리 기준**: 동점자가 발생할 경우, 국어, 수학, 영어 등 학업성적을 중심으로 결정되므로 GPA가 중요한 역할을 합니다.
+5. **지역 특성**: 농어촌 배경이 지원자의 경쟁력을 높일 수 있으니, 이 부분을 잘 강조해야 합니다.
+3.66의 GPA는 좋은 성적이지만, 합격 여부는 전반적인 평가에서 결정됩니다. 따라서:
+- **학업역량**과 **공동체역량**을 잘 보여주는 학교생활기록부를 준비하세요.
+- **면접 준비**에 충분히 시간을 투자하고, 지원 동기에 대한 명확한 답변을 준비해보세요.
+- **추천서 및 자기소개서**에서 농어촌 배경과 자신의 장점을 잘 설명하도록 하세요.
+이러한 요소들을 모두 고려하면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 순위가 높다고 언급하고 있지만, 원문에서는 예비 25번 이상이 합격한 학과 목록을 제공하고 있습니다. 따라서, 특정 학과에 대한 합격 가능성을 명확히 언급하지 않고 일반적인 가능성에 대한 설명을 하고 있어 사실성과 관련하여 다소 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 순위가 높다고 하면서도 합격 가능성을 완전히 배제할 수 없다고 언급합니다. 이는 원문에서 제시한 정보와 일치하지만, 원문에서 제공한 특정 학과에 대한 정보는 반영되지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번에 대한 합격 가능성을 논의하고 있으며, 원문에서 제시한 주제와 관련이 있습니다. 그러나 원문에서 제공한 특정 학과 목록에 대한 언급이 없기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 설명을 제공하지만, 원문에서 제시한 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원문과의 연결성 및 특정 정보의 누락으로 인해 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락에 맞는 의미를 전달하고 있지만, 특정 학과에 대한 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공합니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4344670894479873</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 대부분의 경우, 이 정도 순위에서는 합격하기가 어려울 가능성이 큽니다. 하지만 정시에서 합격 여부는 여러 요인에 따라 결정되므로 완전히 배제할 수는 없습니다.
+다음과 같은 요소들을 고려해볼 수 있습니다:
+1. 모집 인원: 남아있는 모집 인원이 얼마나 되는지 확인해야 합니다.
+2. 경쟁률: 현재까지 지원한 사람들의 수와 모집 인원을 비교하면 대략적인 경쟁률을 알 수 있습니다.
+3. 평균 점수: 해당 전형의 평균 합격 점수가 어느 정도인지 파악합니다.
+4. 개인 성적: 자신의 성적이 평균 이상인지 확인해야 합니다.
+5. 동점자 처리 기준: 만약 다른 지원자가 25번과 동점이라면, 동점자 처리 기준에 따라 결정될 수 있습니다.
+6. 기타 요인: 실기 점수나 학생부 등 다른 평가 항목에서 우위를 보였다면 이도 고려할 만합니다.
+결론적으로, 25번은 매우 높은 순위이므로 확실한 합격 가능성은 낮지만, 모든 요소를 종합적으로 판단하여 최선을 다해 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 잘못된 점이 있습니다. 원본 텍스트에 따르면 법경찰행정학부는 존재하지 않으며, 경찰행정학과에 대한 정보가 제공되고 있습니다. 그러나 생성된 응답은 법경찰행정학부에 대한 모집 요강을 언급하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 경찰행정학과에 대한 성적 정보를 제공하고 있지만, 생성된 응답은 법경찰행정학부에 대한 정보를 제공하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 일부 관련된 정보를 포함하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 원본 텍스트의 주제와는 다소 벗어나 있습니다. 경찰행정학과에 대한 정보는 포함되어 있지만, 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 가지 정보를 포함하고 있지만, 법경찰행정학부에 대한 잘못된 언급으로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않으며, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 잘못된 정보를 포함하고 있으며, 이는 원본 텍스트의 사실과 일치하지 않습니다. 경찰행정학과에 대한 성적 정보는 포함되어 있지만, 전체적으로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전체적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않습니다. 법경찰행정학부에 대한 잘못된 정보로 인해 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7481966064437695</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부의 정시 모집요강을 바탕으로 추측해보겠습니다.
+1. **전형별 모집인원 및 지원 경쟁률**:
+   - 일반학생전형: 모집 인원이 7명이며, 경쟁률은 매우 높을 것으로 예상됩니다.
+   - 나군 학생부교과(농어촌학생전형): 모집 인원이 0명으로, 이 전형으로는 안정적인 진학이 어렵습니다.
+2. **성적 평균**:
+   - 정시에서 안정적으로 합격하기 위해서는 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 높아야 합니다.
+   - 2023년도 동의대학교 상경대학 금융경영학과의 경우, 최종 등록자의 평균 점수는 276.77점이었습니다 (국어 + 수학 + 탐구).
+   - 법경찰행정학부는 경쟁률이 높을 것으로 예상되므로, 이보다 더 높은 점수가 필요할 것입니다.
+3. **추천 점수**:
+   - 안정적인 합격을 위해서는 290점 이상의 표준 변환 점수를 받는 것이 좋습니다.
+   - 경쟁률이 매우 높다면, 300점 이상을 목표로 하는 것이 더 안전할 수 있습니다.
+4. **추가 팁**:
+   - 학생부 교과 성적도 중요합니다. 특히 사회 과목의 등급이 높은 것이 유리합니다.
+   - 출결 및 실기 점수도 고려해야 합니다 (물론 이 전형에서는 해당 항목이 없습니다).
+따라서, 법경찰행정학부에 정시로 안정적으로 합격하기 위해서는 **290점 이상의 표준 변환 점수**를 받는 것이 바람직하며, 경쟁률이 매우 높다면 300점 이상을 목표로 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 성적 반영 방법과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 보육가정상담학과의 평균 등급과 합격 가능성에 대한 구체적인 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되었고, 원본 텍스트와의 일치도가 낮다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 전반적인 수능 성적 반영 방법에 대한 정보를 제공하지만, 원본 텍스트의 특정 학과에 대한 정보와는 일치하지 않는다. 보육가정상담학과에 대한 구체적인 언급이 부족하여 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 성적 반영 방법에 대한 정보를 제공하여 관련성이 있지만, 질문자가 궁금해하는 보육가정상담학과에 대한 직접적인 정보는 부족하다. 따라서 관련성은 높지만 완전하지 않다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 성적 반영 방법에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 데이터와 비교했을 때 정확성이 떨어진다. 특히 보육가정상담학과에 대한 정보가 부족하다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일치성 및 구체성이 부족하여 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 성적 반영 방법에 대한 의미를 잘 전달하고 있으나, 질문자의 의도와는 다소 차이가 있다. 따라서 의미적으로 적절하지만 완전하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달된다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5315360722260294</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 정시 모집에서는 수능 성적을 주요하게 반영합니다. 보육가정상담학과는 인문사회과학대학 계열에 속하며, 해당 학과의 전형요소 중 수능 점수가 큰 비중을 차지하고 있습니다.
+주요 정보:
+1. **수능성적 반영방법**: 
+   - 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목) 각각 25%의 비율로 반영됩니다.
+2. **성적 산출 예시**:
+   - 국어: 표준점수
+   - 수학: 표준점수
+   - 영어: 등급에 따른 점수 (예: 4등급은 107점)
+   - 탐구: 표준점수
+3. **성적 평균 및 분산**:
+   - 예를 들어, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 276.77이며, 표준 편차는 16.13입니다.
+4. **성적 분포**:
+   - 지원 인원이 많을 경우, 평균치보다 높은 점수가 필요할 수 있습니다.
+   - 예를 들어, 경영학과에서는 충원 합격者的，让我来帮你翻译并总结这段内容：
+这段内容主要描述了韩国东国大学（Deu）的招生政策和相关细节。具体包括以下几个方面：
+1. **录取标准**：根据高考成绩的不同类型（如一般学生型、实绩优秀生型等），有不同的录取标准。
+2. **科目权重**：不同科目的权重有所不同，例如语文、数学、英语和综合科目分别占一定比例。
+3. **加分政策**：某些专业或学科有额外的加分政策，比如数学成绩优秀的考生可以获得一定的加分。
+4. **同分处理规则**：对于分数相同的情况，有不同的处理方式，如按总分高低排序等。
+5. **提交材料**：申请时需要提交不同的文件，包括成绩单、推荐信等。
+6. **费用**：不同类型的招生考试有不同的报名费。
+具体到你提到的保育与家庭教育学专业（保育·가정상담학과），虽然没有直接提及该专业的录取标准，但可以参考类似的人文社科类专业的录取标准。通常这类专业的录取会综合考虑高考成绩、学科成绩等多方面因素。
+如果你有具体的分数和排名情况，可以根据上述信息来判断是否有可能被录取。建议你查看东国大学官网或联系招生办公室获取更详细的信息。如果需要进一步的帮助，请告诉我具体分数和其他相关信息。</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "예비 12번을 받았다는 것은 이미 충원 합격자 명단에 포함되어 있다는 의미입니다."라는 부분은 다소 오해의 소지가 있으며, 예비 번호가 충원 합격자 명단에 포함된 것이 아니라 합격 가능성이 있다는 점을 강조해야 합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 다만, 예비 번호에 대한 해석에서 약간의 차이가 있어 일관성 점수가 완벽하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 예비 번호에 대한 해석에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 예비 번호에 대한 해석에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7522096992417382</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 각 모집단위별로 충원 합격 절차가 진행되며, 이 과정에서 여러 요인들이 합격 여부를 결정합니다. 예비 12번을 받았다는 것은 이미 충원 합격자 명단에 포함되어 있다는 의미입니다.
+하지만 최종적으로 학교측이 발표하는 합격자 명단까지 확인해야 합니다. 따라서 다음과 같은 절차와 정보가 도움이 될 수 있습니다:
+1. **최종 합격자 발표 일정**: 2024년 2월 15일(목) 19:00부터 20일(화) 18시까지입니다.
+2. **발표 방식**: 홈페이지에서 개별 조회 가능합니다.
+3. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+이러한 절차를 통해 최종 합격 여부를 확인할 수 있습니다. 만약 아직 최종 발표가 이루어지지 않았다면, 동의대학교 입학 안내 홈페이지를 주기적으로 확인하시거나, 입학관리팀에 문의하시는 것이 좋습니다.
+추가적으로, 충원 합격자 3차 이후에는 개별 전화 통보도 이루어질 수 있으므로, 핸드폰 번호 등 연락처 정보는 정확하게 입력해두시고, 가능하다면 입학관리팀에 연락을 취하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 경쟁률과 성적 분포에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 유아교육학과의 평균 성적(4.18)과 4.75의 성적이 지원하기 어려운 이유를 명확히 반영하지 못하고 있습니다. 또한, 경쟁률에 대한 정보가 원본 텍스트에 없으므로 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 특히, 경쟁률과 성적 분포에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용인 4.75 성적에 대한 지원 가능 여부에 대한 직접적인 답변이 부족합니다. 그러나 유아교육학과에 대한 추가적인 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 특히, 경쟁률과 성적 분포에 대한 정보가 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 평균 성적에 대한 정보가 잘못되었으며, 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 경쟁률과 성적 분포에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 경쟁률과 성적 분포에 대한 정보는 원본 텍스트의 주제와 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보가 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6897424460873322</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 영어 등급은 상당히 높은 점수입니다. 2024년도의 경우, 많은 모집단위에서 수능 성적이 학생들의 경쟁력을 크게 좌우하는 요소로 작용합니다.
+유아교육학과에 대해 살펴보면:
+1. **경쟁률**: 유아교육학과는 지원 인원이 4명이고, 지원 인원은 23명으로 높은 경쟁률을 보입니다 (경쟁률 5.75).
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 321.00
+   - 영어 등급의 평균: 6.33
+4.75라는 영어 등급은 이 평균보다 훨씬 높습니다. 따라서, 수능 성적으로는 유리한 위치에 있습니다.
+하지만, 유아교육학과에서는 학생부와 면접도 중요한 요소로 작용합니다:
+- **학생부**: 공동체역량, 학업역량, 전공적합성 등이 평가됩니다.
+- **면접**: 지원동기 및 학업계획, 학업역량, 전공적합성 등을 평가합니다.
+따라서, 4.75의 영어 성적이 유리한 점수일 수 있지만, 학생부와 면접에서도 좋은 결과를 내야 합니다. 특히, 유아교육에 대한 열정과 관련된 활동이나 경험을 잘 보여줄 필요가 있습니다.
+결론적으로, 4.75의 영어 성적은 유리한 점수지만, 학생부와 면접에서 좋은 평가를 받는 것이 중요합니다. 준비를 철저히 하여 모든 요소를 최대한 활용하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 경쟁률과 등급 평균에 대한 정보를 제공하고 있으며, 환산등급 4.16에 대한 평가도 적절하게 이루어졌습니다. 그러나, 보육가정상담학과의 신설 여부와 관련된 정보는 명확하지 않으며, 경쟁률에 대한 구체적인 데이터가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 보육가정상담학과의 신설 여부와 관련된 내용이 추가되어 일관성이 떨어질 수 있습니다. 원본 텍스트의 구체적인 데이터와 비교할 때, 일부 정보가 모호하게 표현되었습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 환산등급 4.16에 대한 합격 가능성을 평가하는 데 적절한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 부분에서 정보의 전개가 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 평가를 제공하고 있습니다. 그러나 보육가정상담학과의 신설 여부와 관련된 정보는 명확하지 않아 정확성에 약간의 의문이 남습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보의 불확실성으로 인해 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 추가 정보가 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5359979093455025</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집에서 보육가정상담학과의 경쟁률과 등급 평균을 고려해보겠습니다.
+1. **최근 경쟁률 및 등급 평균**:
+   - 보육가정상담학과는 2024년도에 신설되었으며, 정확한 최근 경쟁률이나 등급 평균 데이터를 찾기 어렵습니다.
+   - 그러나 다른 인문사회과학대학의 학과와 비교해볼 수 있습니다. 예를 들어, 국어국문학과나 중어중국학과 등의 경쟁률과 등급을 참고할 수 있습니다.
+2. **경쟁률 및 등급 평균**:
+   - 예를 들어, 2024년도 인문사회과학대학의 국어국문학과는 지원인원이 37명이고 충원 합격자는 17명으로 경쟁률은 약 2.18입니다.
+   - 이 경우 평균 등급은 4.00대를 넘지 않는 것으로 보입니다.
+3. **당신의 환산등급**:
+   - 당신의 환산등급이 4.16이라면, 이는 약간 높은 수준입니다.
+   - 경쟁률과 평균 등급을 고려할 때, 4.16의 등급은 충분히 좋은 위치에 있습니다.
+4. **추합까지 생각**:
+   - 추합까지 포함하면, 학교생활기록부와 면접 등의 요소가 추가로 평가됩니다.
+   - 이들 요소는 개인적인 특성과 역량을 종합적으로 판단하므로, 좋은 서류평가와 면접 성적이 있다면 더 높은 확률로 합격할 수 있습니다.
+5. **결론**:
+   - 현재의 환산등급 4.16은 경쟁률과 평균 등급을 고려하면 충분히 좋은 위치입니다.
+   - 추합까지 포함한다면, 서류평가와 면접 성적이 좋다면 합격 가능성은 높습니다.
+따라서, 당신의 환산등급 4.16은 보육가정상담학과 일반학생전형으로 충분히 합격 가능성이 있습니다. 추합까지 잘 준비한다면 더 높은 확률로 합격할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 언급하고 있지만, 추가적으로 제공된 정보는 정확하지 않거나 관련성이 떨어집니다. 예를 들어, 소프트웨어융합학과가 신설되었다는 정보는 확인되지 않았고, 다른 학과의 정시 모집 통계는 소프트웨어융합학과와 직접적인 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시 모집 대상이 아니라는 점을 명확히 하고 있지만, 이후에 제시된 다른 학과의 정보는 일관성이 부족합니다. 소프트웨어융합학과에 대한 정보와 다른 학과의 통계가 혼합되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변을 제공하고 있지만, 다른 학과의 통계 정보는 질문의 핵심과는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 매끄럽지 않고 주제 간의 연결이 약합니다. 소프트웨어융합학과에 대한 정보와 다른 학과의 통계가 혼합되어 있어 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확히 반영하고 있지만, 다른 학과의 통계 정보는 정확하지 않거나 확인되지 않은 내용이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 응답은 여러 차원에서 부족한 점이 많습니다. 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 의미를 전달하고 있지만, 다른 학과의 정보가 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 혼합으로 인해 일부 부분에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.5733171044058599</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시 모집이 이루어지지 않는 것으로 보입니다. 현재 정보에서는 소프트웨어융합학과가 신설되었지만, 정시모집 대상은 아니라는 점을 확인해야 합니다.
+하지만, 일반학생전형이나 기타 특별전형(예: 학생부종합) 등을 통해 지원이 가능할 수 있습니다. 예를 들어, ICT융합공과대학의 소프트웨어공학부는 정시 모집이 이루어지며, 이 경우 평균 등급을 살펴보면 다음과 같습니다:
+- **최초합격자 통계**: 
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 영어 등급의 평균: 3.77
+- **최종등록자 통계**: 
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 영어 등급의 평균: 3.77
+따라서, 일반학생전형을 통해 소프트웨어융합학과를 지원하려면 대략적으로 다음과 같은 수준의 성적을 받아야 합니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함)**: 317.87 이상
+- **영어 등급**: 3.77 이상
+이러한 평균 점수를 기준으로 지원하되, 각 모집단위의 정원과 경쟁률을 고려하여 개인적인 상황에 맞게 준비하시기 바랍니다.
+더 자세한 정보나 추가 질문이 있으시면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 포함하고 있으며, 면접 점수와 세특의 중요성을 강조하고 있습니다. 그러나 원본 텍스트에서 언급된 '학생부 교과성적'에 대한 구체적인 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 추가적인 정보를 제공하고 있지만, 원본 텍스트의 평가 기준에 대한 일관성이 다소 떨어집니다. 특히, 세특에 대한 강조가 원본 텍스트의 평가 기준과 완전히 일치하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 지원자가 준비해야 할 사항에 대한 유용한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 흐름이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으나, 세부적인 내용에서 약간의 차이가 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유용성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 지원자가 이해하기 쉽게 설명하고 있습니다. 다만, 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 복잡한 표현이 사용되어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5879723857398014</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2024학년도의 학생부종합 평가에서 소프트웨어융합학과에 지원할 때, 면접 점수와 세특(세부능력 및 특기사항) 내용 모두 중요하게 평가됩니다. 특히 세특 부분은 지원자의 실질적인 능력과 경험을 보여주는 중요한 요소로 간주되므로 충분히 준비하는 것이 좋습니다.
+### 면접 점수와 세특의 중요성
+- **면접 점수**: 면접에서는 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어집니다. 이에 대해 명확하고 설득력 있게 답변하는 것이 중요합니다.
+- **세특 내용**: 세특는 지원자의 실질적인 능력과 경험을 보여주는 부분입니다. 창의적 체험활동, 동아리 활동, 진로활동 등 다양한 경험을 구체적으로 기재해야 합니다.
+### 서류 준비
+- **고교 학생부**: 학생부는 기본적인 성적 정보를 제공하므로 정확하게 작성되어야 합니다.
+- **학교생활기록부 대체 서류**: 검정고시출신자나 외국고교 졸업(예정)자는 학교생활기록부 대체 서류를 준비해야 합니다. 이는 성적증명서와 합격증명서 등이 포함됩니다.
+- **추가 서류**: 필요에 따라 추가로 제출할 수 있는 서류가 있을 수 있으므로, 모집단위별 요구사항을 확인하는 것이 좋습니다.
+### 세특 준비 팁
+1. **구체적인 경험 기재**: 창의적 체험활동, 동아리 활동, 진로활동 등 구체적인 경험을 기재해야 합니다.
+2. **성과와 역량 강조**: 자신의 성과와 능력을 강조하면서도 노력 과정도 함께 기재합니다.
+3. **진로 관련성**: 지원하는 전공(계열)과 관련된 활동이나 경험을 중점적으로 기재합니다.
+### 참고 자료
+- [입학사정관 홈페이지](https://ipsi.deu.ac.kr/main.do)를 통해 모집단위별 세부 안내와 요구사항을 확인할 수 있습니다.
+- 학교생활기록부 작성 시 교사의 의견과 평가도 함께 기재하면 좋습니다.
+이러한 준비를 통해 지원자의 전반적인 능력과 적합성을 효과적으로 보여줄 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 평균 등급이 4.12라고 명시되어 있지만, 생성된 응답에서는 평균 종합 표준 변환 총점이 325.15로 언급되어 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 없습니다. 원본 텍스트는 4.08의 성적이 평균 등급보다 약간 높은 수준이라고 언급하고 있지만, 생성된 응답에서는 다른 기준으로 성적을 평가하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 입학 가능성에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와는 다소 동떨어진 내용이 포함되어 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 중국어로 되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하여 분석을 시도하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적 흐름이 매끄럽지 않습니다. 원본 텍스트의 정보와의 연관성이 떨어져 coherence 점수가 낮습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 평균 성적에 대한 잘못된 정보가 포함되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 원본 텍스트의 질문에 대한 적절한 답변이 아닌 다른 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.5354619681205905</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年东国大学软件工程学部的录取情况**：根据您提供的信息，2024年东国大学软件工程学部（ICT融合工科学院）的招生情况如下：
+   - 最终注册人数：51人
+   - 招生名额：30人
+   - 竞争比：4.25
+   - 平均综合标准转换总分：325.15
+2. **您的成绩**：您提到的综合标准转换总分为4.08。
+3. **比较分析**：
+   - 您的成绩（4.08）高于该学部2024年的平均综合标准转换总分（325.15）。
+   - 竞争比为4.25，意味着录取率相对较低。
+基于以上信息，您的成绩在统计上是较高的。然而，最终能否被录取还取决于其他因素，如：
+- 具体的招生名额分配
+- 是否有特殊政策或优先考虑某些考生（例如，特定地区、特定学校等）
+- 学校的具体录取标准和流程
+总体来看，您的成绩处于较高水平，有很大的机会被该学部录取。建议您关注东国大学发布的最新招生信息，并按照要求准备相关材料。
+如果您还有其他具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 제공된 소스 텍스트와는 다른 정보를 포함하고 있습니다. 예를 들어, 정원외 모집인원, 지원 인원, 평균 등급 등의 정보는 소스 텍스트에 포함되어 있지 않으며, 이러한 정보는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소스 텍스트와 일관성이 부족합니다. 소스 텍스트는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 수치와 정보를 제공하고 있습니다. 이는 서로 상충하는 내용입니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 제공된 정보가 소스 텍스트의 내용과 일치하지 않기 때문에 관련성이 떨어집니다. 소스 텍스트는 합격 등급 정보가 없다고 명시하고 있으므로, 생성된 응답의 정보는 주제와 관련이 있지만 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 소스 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되어 있지만, 소스 텍스트와의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 소스 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 예를 들어, 정원외 모집인원, 지원 인원, 평균 등급 등의 정보는 소스 텍스트에 명시되어 있지 않으며, 이는 정확성이 떨어지는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 소스 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 소스 텍스트와의 불일치로 인해 전체적인 의미 전달이 부족합니다. 정보가 적절하게 전달되지 않고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 정보의 정확성과 관련성 부족으로 인해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6344234253645015</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 학생부종합(조기취업형계약학과전형)에서 소프트웨어융합학과의 정원외 모집인원은 7명이며, 지원 인원이 45명으로 높은 경쟁률을 보였습니다. 평균 등급은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 306.69이고, 영어 등급의 평균은 4.17이며, 수능 4개 영역 등급의 평균은 4.88입니다.
+이러한 데이터를 바탕으로 볼 때, 정시 모집에서 5등급을 받는 것은 상대적으로 낮은 점수로 판단할 수 있습니다. 그러나 이전 연도와 비교했을 때, 소프트웨어융합학과의 경쟁률이 높아졌기 때문에, 5등급으로 지원하더라도 충원 합격 가능성은 매우 낮습니다.
+따라서, 2024학년도에 소프트웨어융합학과를 정시로 지원하는 경우 5등급을 받는 것은 적절하지 않을 것으로 보입니다. 대신 더 높은 등급을 목표로 설정하거나 다른 전형을 고려해볼 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 "최종등록자들의 성적 평균은 271.64"라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다. 또한, 경쟁률에 대한 정보도 원본 텍스트와 일치하지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히 경쟁률과 성적 평균에 대한 정보가 원본과 상충하므로 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 신소재공학과에 입학하기 위한 여러 요인을 고려하고 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 없거나 잘못된 정보이므로 점수는 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요인을 나열하고 있지만, 정보의 흐름이 매끄럽지 않으며 일부 내용이 원본 텍스트와 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 정보 중 일부는 원본 텍스트와 일치하지 않으며, 잘못된 수치가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락에 맞는 내용을 포함하고 있지만, 잘못된 정보가 포함되어 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 점수는 다소 높지만 완벽하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.6616413347921539</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 상대적으로 좋은 성적입니다만, 동의대학교 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **경쟁률**: 신소재공학과의 경쟁률이 높습니다. 지원 인원 56명 중 81명이 지원하여 1.45:1이라는 경쟁률을 보이고 있습니다. 이는 입학에 어려움이 있을 수 있음을 의미합니다.
+2. **성적 평균**: 최종등록자들의 성적 평균은 271.64입니다. 이보다 높은 점수를 받았기 때문에 경쟁력이 있습니다만, 여전히 경쟁률이 높아서 확실한 보장은 아닙니다.
+3. **표준 편차**: 성적 표준 편차가 19.52로 상대적으로 크므로, 평균보다 약간 낮더라도 충분히 합격할 수 있는 가능성도 있습니다.
+4. **전형방법**: 동의대학교는 수능성적 반영방법이 정해져 있으므로, 해당 방식에 따라 성적이 반영됩니다. 국어, 수학, 영어, 탐구 등 4개 영역 중 각각 25%씩 반영되며, 이 중 수학은 표준점수의 10%가 추가로 가산될 수 있습니다.
+결론적으로, 4.28이라는 성적은 신소재공학과에 입학하기 위한 충분한 경쟁력을 가지고 있지만, 여전히 높은 경쟁률을 고려하면 확실한 보장은 아닙니다. 최선의 준비와 노력이 필요하며, 추가적으로 실기나 면접 등 다른 평가 요소도 고려해야 합니다.
+추천 사항:
+- **자기소개서 및 추천서 작성**: 잘 준비된 자기소개서와 추천서는 입학에 긍정적인 영향을 줄 수 있습니다.
+- **면접 준비**: 면접에서도 좋은 성적과 관련된 경험 등을 강조할 수 있습니다.
+- **추가 지원**: 다른 대학이나 전형도 고려해 볼 만합니다.
+자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 자기소개서 제출이 필요 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서 제출 여부에 대한 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.5641891532912984</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다. 
+주요 내용을 요약하면:
+1. **제출서류**:
+   - 고교 졸업(예정)자: 제출서류 없음 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음)
+   - 검정고시출신자 / 외국고교 졸업(예정)자: 제출서류 없음
+2. **전형요소**:
+   - 자기소개서는 포함되지 않습니다.
+   - 전형요소 반영비율은 수능 100%로, 서류 및 면접 등 다른 요소가 없습니다.
+따라서 수능(일반학생전형)으로 지원할 때는 자기소개서를 작성하지 않아도 됩니다. 단, 학생부 온라인 제공 동의를 한 경우, 학생부를 온라인으로 제공받을 수 있습니다. 기타 자세한 사항은 입학 안내 홈페이지나 공지사항을 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 합격 가능성을 평가하는 데 필요한 여러 요소를 잘 설명하고 있으며, 원본 텍스트의 주요 사실을 반영하고 있습니다. 그러나 일부 세부 사항(예: 수능 4개 영역의 표준 변환 점수 합의 평균)에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 합격 가능성에 대한 평가와 추가 모집에 대한 언급이 원본 텍스트와 잘 연결되어 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 더 매끄러운 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 일부 세부 사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 수능 4개 영역의 평균 점수에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6785582182222321</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수가 주어졌을 때, 동의대학교의 정시 모집에서 합격 가능성은 다음과 같이 판단될 수 있습니다:
+1. 모집단위와 전형 유형:
+   - 인문사회과학대학, 상경대학 등에서 일반학생전형으로 지원하는 경우가 많습니다.
+   - 이 경우 수능 4개 영역 (국어 + 수학 + 영어 + 탐구) 표준 변환 점수 합의 평균이 약 300-450 사이입니다.
+2. 경쟁률과 모집인원:
+   - 경쟁률은 높지 않지만, 모집 인원도 많지 않은 경우가 많습니다.
+   - 예를 들어, 경쟁률이 1:1.5 이하이고 모집 인원이 30명 이상일 수 있습니다.
+3. 추가모집 가능성:
+   - 일부 학과에서는 추가모집을 진행할 가능성이 있습니다.
+   - 특히 인문사회과학대학의 경우, 추가모집 확률이 높습니다.
+4. 기타 요인:
+   - 학생부 성적, 자기소개서 등 다른 평가 항목도 고려됩니다.
+   - 실기나 특별한 경력 등을 가진다면 이점이 유리할 수 있습니다.
+5. 추천:
+   - 동의대학교 입학 홈페이지를 확인하여 최신 정보를 얻으세요.
+   - 추가모집 일정과 가능성을 파악하세요.
+   - 학교 관계자와 상담을 받아보세요. 
+결론적으로 4.5라는 점수는 낮지만, 적절한 전략과 행운이 따라오면 합격 가능성은 있습니다. 하지만 확실한 것은 아니므로 추가모집 정보를 확인하고 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 모집 요강과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 5.06, 수능 5.78)에 대한 직접적인 언급이 부족합니다. 또한, 다른 학과의 성적 평균을 예로 들며 신소재공학과와의 비교를 시도하지만, 이는 원본 텍스트의 핵심 정보와는 다소 거리가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보와 일치하지 않는 부분이 있습니다. 특히, 다른 학과의 성적 평균을 언급하면서 신소재공학과와의 직접적인 연관성을 명확히 하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 정시 모집 요강에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 직접적인 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 잘 구조화되어 있으며, 각 항목이 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해져서 완전한 일관성을 유지하지는 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 모집 요강에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과에 대한 정보를 제공하며, 주제와 관련된 의미를 잘 전달하고 있습니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.5875830269351789</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)에 대한 정시 모집요강을 기반으로 답변 드리겠습니다.
+1. **모집단위 및 모집인원**:
+   - 단과대학: 공과대학
+   - 계열: 공학
+   - 모집단위: 신소재공학과, 고분자나노공학과
+   - 모집인원: 32명 (신소재공학과 15명 + 고분자나노공학과 17명)
+2. **전형요소 반영비율**:
+   - 전형명: 다군 수능(일반학생전형)
+   - 모집단위: 전 모집단위
+   - 수능 반영비율: 국어, 수학, 영어, 탐구 중 2개 과목 (각 25%)
+3. **수능 성적 반영방법**:
+   - 수능 반영영역: 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 중 2개 과목)
+   - 각 영역별 반영비율: 25%
+4. **최종등록자 및 최초합격자의 성적 분석**:
+   - 예를 들어, ICT융합공과대학 인공지능학과의 경우, 최종등록자의 수능 점수 평균은 다음과 같습니다.
+     - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 403.85
+     - 영어 등급의 평균: 4.53
+   - 이는 신소재공학과와 비슷한 수준의 성적을 요구할 것으로 예상됩니다.
+따라서, 신소재공학과에 대한 정시 합격 가능성은 **국어, 수학, 탐구 중 2개 과목**에서 높은 점수를 받는 것이 중요합니다. 특히 수능 영역별 표준점수가 400점 이상이면 충분히 경쟁력을 갖추고 있을 것으로 보입니다.
+하지만 정확한 등급 예측은 해당년도의 전체 입시 경향과 지원자들의 성적 분포를 고려해야 하므로, 최종 결정을 내리기 전까지는 공식 발표나 추가 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점과 비교하여 447점이 훨씬 높다는 사실을 언급하고 있으나, 작년과 올해의 경쟁률 및 합격 점수 변동에 대한 여러 요인을 제시하고 있어 일부 정보는 정확하지만, 구체적인 수치에 대한 언급이 부족하여 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 작년의 평균 점수와 비교하여 447점이 높다는 점에서는 일관성을 보이지만, 추가적으로 제시된 여러 요인들은 원래 질문의 맥락과는 다소 거리가 있어 일관성이 떨어진다고 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 내용을 다루고 있으며, 신소재공학과의 합격 가능성에 대한 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있으나, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 점수에 영향을 미칠 수 있는지를 설명하고 있어 일관된 흐름을 유지하고 있습니다. 그러나 일부 내용이 원래 질문과의 연결이 약해 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요인에 대해 설명하고 있지만, 구체적인 수치나 작년의 평균 점수와의 비교가 부족하여 정확성에서 약간의 부족함이 있어 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 작성되었으나, 일관성과 정확성에서 약간의 부족함이 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 일부 내용이 원래 질문과의 연결이 약해 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.5744490561572684</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 단과대학 및 모집단위별 경쟁률과 합격 점수는 여러 요인에 따라 변동될 수 있습니다. 작년과 비교해 작년보다 약간 높은 표준점수가 요구되는 경우가 있을 수 있습니다.
+다음은 가능한 이유들입니다:
+1. **모집 인원 감소**: 작년에는 모집 인원이 더 많았지만, 올해는 줄어든 경우, 경쟁률이 상승하고 합격 점수가 높아질 수 있습니다.
+2. **지원 인원 증가**: 작년보다 지원 인원이 늘어난다면, 경쟁률이 높아지고 합격 점수가 상승할 가능성이 있습니다.
+3. **입학사정관 평가 강화**: 일부 모집단위에서는 입학사정관의 평가 비중을 늘렸을 수 있으며, 이로 인해 학생들의 전반적인 성적 외에도 다양한 요소들이 고려되었을 가능성이 있습니다.
+4. **수능 난이도 변화**: 작년과 올해의 수능 난이도가 다르게 평가될 경우, 표준점수가 변동될 수 있습니다.
+5. **학교 정책 변경**: 동의대학교 자체적으로 입학 정원이나 전형 방식을 조정했을 수도 있습니다.
+따라서 작년보다 약간 높은 표준점수를 요구하는 것은 가능성이 있지만, 확실한 예측은 어렵습니다. 최종적인 합격 여부는 여러 요인에 따라 결정되므로, 정확한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본 텍스트는 4.1~4.2 등급의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 언급하고 있으며, 합격 가능성이 높다고 설명하고 있습니다. 그러나 생성된 응답은 4.3 등급이 4.1~4.2로 변환되면 지원하기 어렵다고 주장하고 있어 사실과 상반됩니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 4.1~4.2 등급이 신소재공학부의 평균 성적보다 높은 편이라고 하였으나, 생성된 응답은 반대로 4.1~4.2 등급으로는 경쟁력이 부족하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 해석으로 인해 주제에 대한 접근이 부정확합니다. 성적 기준, 경쟁률, 전형 방법 등 다양한 요소를 언급하고 있으나, 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 요소를 나열하고 있으나, 논리적인 흐름이 다소 부족합니다. 각 항목 간의 연결이 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상반되는 주장을 하고 있어 정확성이 낮습니다. 원본 텍스트의 내용을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않지만, 주제와 관련된 내용을 다루고 있어 의미적으로 적절한 부분도 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 내용이 혼란스러울 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5412350442669803</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면 동의대학교의 신소재공학과에 지원하기는 어렵다고 볼 수 있습니다.
+다음은 이유와 고려사항입니다:
+1. **성적 기준**: 동의대학교의 신소재공학과는 일반적으로 높은 성적 기준을 요구합니다. 4.3 등급이 4.1~4.2로 변환되면, 이는 중간 이상의 성적일 것입니다.
+2. **경쟁률**: 동의대학교의 신소재공학과는 경쟁률이 높습니다. 특히, 해당 학과에 관심 있는 지원자가 많을 가능성이 큽니다.
+3. **전형방법**: 동의대학교는 수능 성적을 기반으로 하는 전형을 실시합니다. 따라서 성적이 중요한 요소 중 하나입니다.
+4. **추천서 및 서류평가**: 일부 학과에서는 추천서나 서류 평가 등 다른 요인도 고려할 수 있지만, 이 역시 성적에 크게 의존하는 경우가 많습니다.
+5. **비교 대상**: 현재의 성적이 동일한 학과에서 4등급대를 받은 지원자들보다 약간 낮으므로, 같은 등급을 받은 다른 지원자들과 비교해볼 필요가 있습니다.
+6. **추천 및 추가 정보**: 입학사정관이나 학교 관계자에게 상세히 문의하거나, 동의대학교의 입학처 웹사이트를 확인하여 최신 정보와 전형요건을 확인하는 것이 좋습니다.
+결론적으로, 4.1~4.2 등급으로는 신소재공학과에 충분한 경쟁력을 갖추기 어렵다고 판단됩니다. 성적 외에도 다른 강점이나 특별한 경험 등을 준비하여 지원하면 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 수치와 사실을 여러 군데에서 잘못 전달하고 있습니다. 예를 들어, "국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균"이 293.11로 잘못 기재되었고, "영어 등급 평균"과 "수능 4개 영역 등급 평균"도 원본과 다릅니다. 이러한 오류로 인해 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 여러 가지 면에서 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다. 예를 들어, 평균 점수와 표준 편차가 원본과 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 깊습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 나열되어 있습니다. 그러나 일부 수치의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답의 수치와 정보가 원본 텍스트와 크게 다르기 때문에 정확성 점수는 매우 낮습니다. 주요 수치들이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성, 일관성, 정확성이 매우 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 수치의 오류로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 다만, 수치의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7933441160996595</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자의 성적 요약을 제공하겠습니다:
+- **모집인원**: 15명
+- **지원인원**: 24명 (경쟁률 1.60)
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균**: 293.11
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 표준 편차**: 14.35
+- **영어 등급 평균**: 4.53
+- **영어 등급 표준 편차**: 0.80
+- **수능 4개 영역 등급 평균**: 5.25
+- **수능 4개 영역 등급 표준 편차**: 0.35
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이 성적은 최종 등록자들의 평균과 분산을 나타내며, 이 정보를 참고하여 자신의 성적이 어느 정도인지 판단하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적에 대한 일반적인 정보와 고려해야 할 요소들을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 학과별 성적 평균과 표준 편차에 대한 정보는 포함되어 있지 않다. 따라서, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 구체적인 학과별 성적 정보를 제공하지 않기 때문에 일관성이 떨어진다. 원본 텍스트의 세부 사항을 무시하고 일반적인 정보만을 제공하고 있다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27의 성적과 관련된 여러 요소를 고려하고 있으며, 이는 질문에 대한 적절한 답변을 제공하고 있다. 그러나 원본 텍스트의 구체적인 학과 정보와 비교할 때 다소 부족하다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있다. 문장 구조와 표현이 매끄럽다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27의 성적에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 관련된 요소들을 잘 설명하고 있다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 적절성을 제공하지는 않는다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6233793689595977</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 영어 등급은 상당히 좋은 점수입니다. 하지만 정확한 추합 가능성 판단을 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집단위와 전형 유형**: 어떤 단과대학과 모집단위에 지원하는지, 일반학생전형인지, 학생부종합전형인지 등이 중요합니다.
+2. **모집인원 및 지원 인원**: 각 모집단위의 모집인원과 지원 인원을 확인해야 합니다. 경쟁률이 높은 곳에서는 좋은 성적이 있어도 충분히 합격할 수는 없습니다.
+3. **성적 분포**: 해당 단과대학과 모집단위의 지원자의 평균 및 표준편차를 고려해야 합니다. 예를 들어, 평균이 5.27 이상이고 표준편차가 작다면 경쟁률은 높을 수 있습니다.
+4. **전형요소**: 서류평가와 면접 등 다른 요인도 중요합니다. 특히 학생부종합전형에서는 성적이 아닌 학업역량, 전공적합성 등의 평가가 이루어질 수 있습니다.
+5. **특수전형**: 조기취업형계약학과전형이나 농어촌학생전형 등 특별한 전형도 고려해야 합니다.
+이러한 요소들을 종합적으로 고려하여 추정을 해보면:
+- **일반학생전형**: 5.27의 영어 점수는 상당히 좋은 성적입니다. 경쟁률이 높은 모집단위에서는 충분하지 않을 수 있지만, 평균이 낮거나 표준편차가 큰 모집단위에서는 가능성이 있습니다.
+- **학생부종합전형**: 이 경우에는 성적이 아닌 학업역량과 전공적합성 등 다른 요소들이 중요하므로, 좋은 학생부와 면접 성적이 필요합니다.
+따라서, 정확한 추정을 위해서는 해당 대학의 공식 홈페이지나 입학처에 직접 문의하는 것이 가장 좋습니다. 또한, 동의대학교의 2024학년도 정시 모집 정보를 확인하여 상세한 분석이 가능할 것입니다.
+[동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 직접 문의해보는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적과 관련된 정보를 잘 반영하고 있으며, 지원자의 성적이 평균보다 높다는 점을 강조하고 있습니다. 그러나 일부 세부사항(예: 경쟁률, 모집 인원 등)은 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 정보(경쟁률, 모집 인원 등)를 포함하여 다소 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 정보와는 일치하지만, 추가된 정보가 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 지원자의 성적과 소프트웨어공학부에 대한 정보를 적절히 연결하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 정보가 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 대체로 정확합니다. 그러나 원본 텍스트에 명시되지 않은 세부사항이 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.603180189825668</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 지원하려면, 수능 성적이 중요한 요소 중 하나입니다. 주어진 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적**: 동의대식 정시 성적 4.2는 상당히 높은 점수입니다. 이 점수는 경쟁률과 충원 합격자 수를 결정하는 중요한 요소가 됩니다.
+2. **모집인원 및 지원 인원**: 소프트웨어공학부의 모집인원이 45명이고, 지원 인원이 146명으로 많은 지원자가 있습니다. 이는 경쟁률이 높을 것으로 예상됩니다 (경쟁률은 약 3.27:1).
+3. **성적 평균 및 표준 편차**: 
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+   - 이는 동의대식 정시 성적 4.2에 해당하는 점수가 될 것입니다.
+4. **경쟁률 및 충원 합격자 수**: 
+   - 경쟁률이 4.87이고, 충원 합격 (후보순위)은 63명입니다.
+   - 이는 상대적으로 높은 경쟁률을 보여주며, 성적이 높아야 충원 가능성이 높아집니다.
+5. **가산점**: 
+   - 소프트웨어공학부는 수능 가산점이 적용되지 않는 것으로 보입니다 (수능 반영방법에서 확인).
+따라서, 동의대식 정시 성적 4.2로 소프트웨어공학부에 지원한다면 충분히 경쟁력을 갖추고 있습니다. 그러나 경쟁률이 높아 충원 합격을 확신할 수는 없습니다.
+**추천 사항:**
+1. **성적 확인**: 최종적으로 지원하기 전에, 자신의 성적이 정확하게 어느 범위에 속하는지 다시 한 번 확인하세요.
+2. **면접 준비**: 면접에서도 학업역량과 전공적합성을 잘 보여줄 수 있도록 준비해보세요.
+3. **추가 정보 수집**: 입학처나 대학 홈페이지를 통해 최신 정보와 지원 가이드라인을 확인하세요.
+결론적으로, 동의대식 정시 성적 4.2로 소프트웨어공학부에 충분히 지원 가능하지만, 경쟁률이 높아 확실한 합격은 보장되지 않습니다. 최선을 다해 준비하시면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 합격 가능성에 대한 정보를 포함하고 있으며, 3.92라는 점수가 합격 기준을 충족할 가능성이 높다는 점에서 사실에 부합합니다. 그러나 구체적인 합격 기준에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 3.92라는 점수가 합격 가능성이 높다는 주장을 지지합니다. 다만, 성적 산출 방법에 대한 추가적인 정보가 포함되어 있어 약간의 일관성 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 화학환경공학부의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 성적 산출 방법과 합격 기준에 대한 설명이 명확하게 연결되어 있습니다. 다만, 일부 부분에서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 3.92라는 점수와 관련된 정보가 정확하게 전달되고 있으며, 합격 기준에 대한 일반적인 정보도 포함되어 있습니다. 그러나 구체적인 합격 기준이 명시되지 않아 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.6870469435849365</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수는 수능 표준점수를 의미하는 것으로 보입니다. 화학환경공학부의 정시 모집요강을 살펴보면, 성적 산출 방법과 합격 기준에 따라 결정됩니다.
+1. **성적 산출 방법**:
+   - 국어 + 수학(미적분 또는 기하) + 영어 등급점수 + 탐구 표준점수
+   - 가산점은 수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1
+2. **성적 산출 예시**:
+   - 국어: 104 (표준점수)
+   - 수학(미적분): 108 (표준점수)
+   - 영어: 4등급 (115 점)
+   - 과탐(물리Ⅰ): 47
+   - 과탐(화학Ⅰ): 59
+3. **성적 산출**:
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 104 + 108 + 115 + (47 + 59) / 2 = 104 + 108 + 115 + 53 = 380
+이 예시에서 3.92는 표준점수로 보이며, 이 점수가 합격 기준을 충족하는지 확인해야 합니다.
+**합격 기준**:
+- 화학환경공학부의 정확한 합격 기준은 공개되지 않았지만, 일반적으로 3.5 이상이 필요합니다.
+- 일부 전공에서는 더 높은 점수가 요구될 수 있습니다.
+따라서 3.92라는 표준점수는 충분히 합격 가능할 것으로 보입니다. 하지만 최종 결정을 내리기 위해서는 동의대학교 화학환경공학부의 정확한 합격 기준과 성적 산출 방법을 확인해야 합니다.
+추가적으로, 수능 성적이 3.92라면 대체로 좋은 점수이므로, 해당 전공에 지원하는 것이 가능할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교했을 때 일부 정보가 다르거나 추가적인 세부사항이 포함되어 있습니다. 예를 들어, 성적 예시의 평균 점수가 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 화학공학과와 관련된 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 모집단위와 관련된 정보는 원본 텍스트에 명시되어 있지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 일부 정보는 질문의 핵심과는 다소 거리가 있을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 특정 수치와 다르거나 추가적인 정보가 포함되어 있어 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 정보의 정확성과 일관성에서 부족함이 있어 종합적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 추가 정보가 포함되어 있어 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 복잡한 문장 구조가 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6632113448814209</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학공학과(화학환경공학부)는 수능 일반학생전형을 통해 지원할 수 있습니다.
+주요 정보를 요약하면:
+1. 모집단위: 화학공학과 (화학공학과, 환경공학과, 응용화학과 중 하나)
+2. 모집인원 및 경쟁률:
+   - 4개 학과 총 모집 인원은 81명
+   - 지원 인원은 122명으로, 경쟁률이 약 1.5:1입니다.
+3. 성적 요건:
+   - 수능 반영 영역: 국어(25%), 수학(25%), 영어(25%), 탐구(25%)
+   - 가산점: 수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1 가산
+4. 성적 예시:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 378.15
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 395.58
+당신이 언급한 동의대식 정시 성적 4.25는 대략적인 점수로, 실제 수능 점수와 비교하여 판단해야 합니다.
+주의사항:
+- 정확한 지원 가능 여부는 최종 수능 점수가 결정됩니다.
+- 모집단위별 경쟁률이 다르므로, 원하는 학과에 대한 경쟁력을 확인해보세요.
+- 실기고사나 추가 서류 제출 등 다른 요건도 확인해야 합니다.
+결론적으로, 동의대식 정시 성적 4.25는 화학공학과로 지원 가능할 것으로 보이지만, 최종 결정은 수능 점수와 모집요강을 참조하여 하실 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하지만, 4.0 등급을 언급하며 4.2 점수에 대한 직접적인 언급이 부족합니다. 또한, 실기와 면접의 중요성을 강조하지만, 원본 텍스트에서 제공된 수치적 정보와의 직접적인 연결이 약합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과의 입학 기준에 대한 정보를 제공하지만, 원본 텍스트의 수치적 정보와 일치하지 않는 부분이 있습니다. 예를 들어, 4.0 등급을 언급하는 것은 원본 텍스트의 4.2 점수와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 입학 기준에 대한 정보를 제공하며, 수능 성적 외에도 실기와 면접의 중요성을 강조합니다. 그러나 원본 텍스트의 구체적인 수치와 직접적으로 연결되지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 정보는 제공하지만, 원본 텍스트의 구체적인 수치와 일치하지 않는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 작성되었지만, 원본 텍스트와의 연결이 약해 일부 차이가 있습니다. 그러나 전반적인 품질은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 입학 기준에 대한 적절한 정보를 제공하고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 구체적인 수치와의 연결이 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6391513752761917</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.0 등급을 받았다면, 이는 좋은 성적입니다. 하지만 영화학과의 경우 실기와 면접이 중요하기 때문에 단순히 수능 점수만으로 합격 여부를 판단하기는 어렵습니다.
+영화학과의 특성상 다음과 같은 요소들이 중요한 역할을 합니다:
+1. **실기 성적**: 실제 실기 과목(예시: 촬영 기술, 편집 기술 등)에서의 성적이 중요합니다.
+2. **면접 성적**: 면접에서는 창의성과 표현력 등을 평가받습니다.
+3. **전형별 특성**: 나군 수능(일반학생전형)에서는 수능 점수와 실기/실적 비율이 100:0으로 설정되어 있지만, 실제 합격 기준은 종합적으로 판단됩니다.
+현재의 수능 성적이 좋은 만큼, 실기 과목에서 좋은 성적을 받고 면접에서도 창의적인 답변을 준비한다면 합격 가능성은 높습니다. 
+추가적으로:
+- **실기 준비**: 실제 실기 과목에 대해 충분히 준비해보세요.
+- **면접 준비**: 면접 질문 예상과 답변 연습을 해보세요.
+- **서류 준비**: 제출 서류는 정확하게 준비하고, 필요하다면 추가 자료를 준비하세요.
+입학사정관들이 종합적으로 평가하기 때문에, 단순 수능 점수만으로 판단하지 않고 다양한 요소들을 고려합니다. 따라서 실기와 면접에서도 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 "이 절차는 모든 면접에서 동일하게 적용되며, 개별면접 방식으로 진행됩니다."라는 문장이 포함되어 있습니다. 이 문장은 일반적인 면접 절차에 대한 설명으로 적절하지만, 원본 텍스트에 명시되어 있지 않은 정보이므로 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차와 일치하며, 추가적인 설명이 포함되어 있지만, 이 설명이 원본 텍스트와 모순되지 않기 때문에 전반적으로 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다. 추가적인 설명도 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 명확하게 설명하고 있습니다. 각 단계가 순서대로 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 설명이 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성은 아닙니다. 그러나 일반적인 면접 절차에 대한 설명으로는 적절합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 추가된 정보로 인해 완전한 정확성은 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 추가된 설명도 적절합니다. 의미적으로 일관성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8546895230688673</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용되며, 개별면접 방식으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/deuChatbot/research_result/version_2(3000_300).xlsx
+++ b/deuChatbot/research_result/version_2(3000_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21018,6 +21018,6895 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 내용은 전반적으로 정확하지만, "각 종목은 700점 중에서 70%인 490점을 배점받습니다."라는 부분은 잘못된 해석입니다. 각 종목의 배점은 700점 중 70%가 아니라, 전체 시험에서 700점이 70%를 차지한다는 점을 명확히 해야 합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 원본의 구체적인 세부사항(예: 준비물, 주제 등)을 생략하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 잘 요약하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽습니다. 그러나 일부 문장은 더 간결하게 표현될 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 세부사항이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 전반적으로 정확하지만, 특정 세부사항에서 오해의 소지가 있는 표현이 있습니다. 예를 들어, 배점에 대한 설명이 명확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 좋은 품질을 가지고 있으나, 세부사항의 부족과 일부 표현의 모호함으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하지만, 원본 텍스트의 특정 세부사항을 생략함으로써 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 응답이지만, 일부 세부사항이 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8333985992029153</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어져 있습니다. 각 모집단위별로 실기종목을 선택하게 되며, 종목별 배점 비율은 700점(70%)입니다.
+실기시험의 주요 내용은 다음과 같습니다:
+1. **기초디자인**: 이 부분에서는 기본적인 디자인 기술과 창의력을 평가합니다. 예를 들어, 색상 조합, 형태 표현 등이 포함될 수 있습니다.
+2. **사고의 전환**: 이 부분에서는 문제 해결 능력과 창의성을 평가합니다. 예를 들어, 주어진 주제에 대해 다양한 접근 방식을 제시하거나, 새로운 아이디어를 발전시키는 과정 등을 평가하게 됩니다.
+각 종목은 700점 중에서 70%인 490점을 배점받습니다. 따라서 실기시험에서는 기초적인 디자인 기술과 창의력을 중심으로 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 종목별 배점(비율)인 700점(70%)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 종목별 배점에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점에 대한 정보가 없으므로, 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 내용을 모두 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 구조가 어색할 수 있는 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 종목별 배점에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 종목별 배점에 대한 정보는 원본에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 종목별 배점의 추가로 인해 약간의 감점이 있었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 종목별 배점에 대한 언급이 추가되어 있어 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 약간 복잡할 수 있어 완벽한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8454882111650375</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인, 사고의 전환'이며, 종목별 배점(비율)은 700점(70%)입니다.
+준비물은 다음과 같습니다:
+- 볼펜
+- 연필 
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울, 콜라병과 계절 등의 조합이 있습니다.
+화지크기는 켄트지3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 정확하게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8827397089057352</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)의 경우 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (주니어국제대회로 출전한 경우만 인정)
+8. 광역시·도 협회장기 종별대회
+축구(남)의 경우 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+1.춘계한국고등학교축구연맹전
+2.추계한국고등학교축구연맹전
+3.대한축구협회장배전국고등학교축구대회
+4.문화체육관광부장관기전국고등학교축구대회
+5.문화체육관광부장관배전국고등학교축구대회
+6.백운기전국고등학교축구대회
+7.전국고등축구리그(권역별고교축구리그)
+8.전국고등축구리그왕중왕전
+9.무학기전국고등학교축구대회
+10.청룡기전국고등학교축구대회
+11.백록기전국고등학교축구대회
+12.금강대기전국고등학교축구대회
+13.대통령금배전국고등학교축구대회
+14.금석배전국고등학생축구대회
+15.부산MBC전국고등학생축구대회
+16.K리그 U18 챔피언십
+17.K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기록하면 경기지도학과의 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B의 내용이 원본 텍스트와 다릅니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"인데, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 주제B의 내용이 다르기 때문에, 주제 선정 및 연결 주제 작성에 대한 설명도 일관되지 않게 됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있지만, 주제B의 잘못된 정보로 인해 일부 관련성이 떨어집니다. 그러나 주제A는 정확하게 언급되어 있어 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 주제B의 잘못된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제 선정 및 작품 제작 과정에 대한 설명이 일관되게 이어집니다. 그러나 주제B의 오류로 인해 완전한 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 주제B의 오류로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 주제B의 잘못된 정보로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 주제B의 오류로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7818393011839651</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중에서 각각 1개씩 선정하여 연결된 주제를 작성해야 합니다. 예시로 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+학생들은 당일에 추첨을 통해 선택된 주제를 사용하여 작품을 제작해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있으며, 추가적으로 출결의 비율이 0%로 표기되어 있다는 정보도 제공하고 있습니다. 이는 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있습니다. 추가 정보도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 맥락에 적합한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7366634326042927</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서 출결 점수는 반영되지 않습니다. 전형요소 반영비율에서 출결의 비율은 0%로 표기되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다. '2024년'이라는 추가 정보가 포함되어 있지만, 이는 사실에 부합합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9301540243854973</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 모집 인원과 전형에 대한 정보가 정확하게 반영되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8727799747695932</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 다군 일반학생전형으로는 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본의 내용과 일치하지 않기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있습니다. 간호학과의 모집 인원에 대한 질문에 대한 답변으로 적절합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 설명을 제공합니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용과 크게 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았지만, 관련성과 유창성에서 어느 정도 긍정적인 평가를 받았습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 부적절합니다. 원본 텍스트의 의미와 일치하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7162171703167729</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 점수를 정확하게 반영하고 있으며, 등급과 점수의 관계를 올바르게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 영어 등급에 따른 점수에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 등급과 점수의 관계가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 정보와 완벽하게 일치하며, 정확한 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8382327035652879</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급이 1일 경우, 점수는 139입니다.
+- 등급이 2일 경우, 점수는 131입니다.
+- 등급이 3일 경우, 점수는 123입니다.
+- 등급이 4일 경우, 점수는 115입니다.
+- 등급이 5일 경우, 점수는 107입니다.
+- 등급이 6일 경우, 점수는 99입니다.
+- 등급이 7일 경우, 점수는 91입니다.
+- 등급이 8일 경우, 점수는 83입니다.
+- 등급이 9일 경우, 점수는 75입니다.
+위와 같이 수능 영어 등급에 따라 점수가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 핵심 주제를 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 사실적 일치가 전혀 없으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 매우 낮은 품질을 보이며, 사실성, 일관성, 정확성 모두에서 심각한 문제를 가지고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7020185724873179</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하는 것은 가능합니다. 그러나 지원 자격과 제출 서류가 조금 다를 수 있습니다.
+1. **지원 자격**: 
+   - **6년 과정 유형**:
+     - 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자로서, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자.
+   - **12년 과정 유형**:
+     - 부모의 거주지와 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자.
+2. **제출 서류**: 
+   - **6년 과정 유형**:
+     - 지원자 본인의 가족관계증명서 1부
+     - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+     - 중학교 학교생활기록부 1부
+     - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - **12년 과정 유형**:
+     - 지원자 본인의 주민등록초본 1부
+     - 초등학교 학교생활기록부 1부
+     - 중학교 학교생활기록부 1부
+     - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+3. **추가 제출 서류**:
+   - **6년 과정 유형**:
+     - 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+   - **12년 과정 유형**:
+     - 중·고등학교 재학 시 부, 모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+따라서 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하려면 위와 같은 자격과 서류를 준비해야 합니다. 만약 추가로 궁금한 점이 있다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 "남은 268～271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221 cm로 명시되어 있습니다. 따라서 이 부분은 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268～271cm"라는 기록은 원본과 상충하므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 정보가 잘 전달됩니다. 그러나 "남은"이라는 표현이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 기록에 대한 정보가 부정확하여 정확성 점수가 낮습니다. 원본 텍스트의 기록과 배점이 정확히 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적입니다. 관련성은 높지만, 사실성과 일관성이 낮아 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절하지만, "남은"이라는 표현이 문맥에 맞지 않아 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장입니다. 그러나 일부 표현이 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8932406824455915</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268～271cm, 여은 218~221cm입니다. 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 부정하고 있으며, 해당 정보가 누락되었다고 잘못된 주장을 하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 부적절한 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6375043569352441</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과의 출결 반영 비율에 대한 명시는 없습니다. 다른 학과들의 경우 결석일수와 반영점수가 제시되어 있었지만, 경기지도학과의 경우에는 해당 정보가 누락되었습니다.
+만약 더 자세한 정보를 원하시면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 평가: 생성된 응답은 모집 인원이 0명이라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 4명을 모집한다고 명시되어 있으므로, 사실과 일치하지 않습니다.
+   - 점수: 1
+2. Consistency Score (1-5):
+   - 평가: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본에서는 4명을 모집한다고 했지만, 생성된 응답에서는 모집 인원이 없다고 하여 일관성이 없습니다.
+   - 점수: 1
+3. Relevance Score (1-5):
+   - 평가: 생성된 응답은 물리치료학과에 대한 정보를 제공하고 있으나, 모집 인원에 대한 잘못된 정보로 인해 원본 텍스트의 핵심 내용을 잘못 전달하고 있습니다. 따라서 관련성이 낮습니다.
+   - 점수: 2
+4. Fluency Score (1-5):
+   - 평가: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 정확성 문제로 인해 전체적인 흐름이 매끄럽지 않습니다.
+   - 점수: 3
+5. Coherence Score (1-5):
+   - 평가: 생성된 응답은 문장 구조가 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+   - 점수: 3
+6. Accuracy Score (1-5):
+   - 평가: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 모집 인원에 대한 정보가 잘못되어 있습니다. 따라서 정확성이 매우 낮습니다.
+   - 점수: 1
+7. Multidimensional Quality Score (1-5):
+   - 평가: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+   - 점수: 1
+8. Semantic Appropriateness Score (1-5):
+   - 평가: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+   - 점수: 1
+9. Understandability Score (1-5):
+   - 평가: 문장은 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 낮습니다.
+   - 점수: 2
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7521115628743141</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 모집인원이 없습니다. 위 정보를 확인하면, 전형별 모집단위별 모집인원에서 단과대학은 상경대학이며, 모집단위는 물리치료학과이며, 정원 내 모집 인원은 0명으로 표기되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가된 정보도 관련성이 높고 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 실기고사 일정 외에도 디자인조형학과에 대한 유용한 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실적입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 관련성이 높습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4080769448203446</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인, 사고의 전환으로 구성되어 있습니다. 종목별 배점(비율)은 각각 700점(70%)입니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 원문 내용을 정확하게 반영하고 있습니다. 추가적인 정보 제공을 위한 웹사이트 링크도 포함되어 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저 기준이 없다는 점을 명확히 하고 있습니다. 추가 정보 요청에 대한 안내도 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용에 직접적으로 관련이 있으며, 수능 최저 기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "제공된 정보에서"라는 표현이 다소 어색하게 느껴질 수 있습니다. 그러나 전반적으로 이해하기 쉬운 문장입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다. 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 사실에 기반한 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.41948494010635</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 만약 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시거나 대학 관계자에게 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 모든 신설 학과를 정확하게 나열하고 있으며, 추가적인 설명도 포함되어 있어 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 원본의 내용을 잘 반영하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 신설 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7900816097649205</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과가 있습니다. 또한 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)도 신설되었습니다.
+따라서 동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부
+위와 같은 내용을 바탕으로 답변하였습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 서류 70%, 면접 30%라고 명시되어 있지만, 생성된 응답에서는 학생부 교과, 출결, 서류, 면접, 실기, 수능의 비율이 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원문에서 제시된 비율과 생성된 응답의 비율이 서로 다릅니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 요구하는 정보와는 다르게 비율이 나열되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열되어 있지만, 원문과의 일관성이 부족하여 논리적인 흐름이 약간 깨집니다. 비율이 서로 다르기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 여러 가지 잘못된 비율을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 내용의 정확성이 결여되어 있어 전체적인 이해에는 한계가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8137996700549546</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다.
+- 학생부 교과: 0%
+- 출결: 70%
+- 서류: 30%
+- 면접: 0%
+- 실기: 0%
+- 수능: 100%
+이러한 비율로 전형 절차가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 정확하게 언급하고 있으며, 수학 과목에 대한 가산점 부여 조건도 올바르게 설명하고 있습니다. 그러나 '학과들'이라는 표현이 다소 모호하게 느껴질 수 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, '학과들'이라는 표현이 원본의 '모집단위'와는 약간의 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 수능 가산점 적용 학과에 대한 질문에 적절히 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 '학과들'이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 '학과들'이라는 표현이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수학 과목에 대한 가산점 부여 조건도 정확하게 설명하고 있습니다. 다만, '학과들'이라는 표현이 정확한 용어 사용에 있어 약간의 오해를 불러일으킬 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 '학과들'이라는 표현이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 '학과들'이라는 표현이 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.8224586279199109</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 공과대학, ICT융합공과대학 모집단위에 해당하는 학과들입니다. 이들 학과에서는 수학(미적분 또는 기하) 응시자의 경우 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충하는 내용을 포함하고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 반영 영역과 비율에 대한 구체적인 설명이 추가되어 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 성적을 100% 반영한다고만 언급했지만, 생성된 응답은 다양한 반영 영역과 비율을 제시하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 수능 성적 반영 방법에 대한 정보를 제공하고 있으나, 원문에서 강조된 100% 반영이라는 핵심 내용을 간과하고 있습니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원문에서의 핵심 메시지와의 연관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 다르게 수능 성적 반영 비율에 대한 잘못된 정보를 포함하고 있습니다. 원문은 100% 반영이라고 명시했으나, 생성된 응답은 비율을 다르게 설명하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 떨어지며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미를 왜곡하는 방식으로 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7749469590279837</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 반영 영역별 비율은 각각 25%이며, 상위 3개 영역의 경우는 국어, 수학, 영어에 대해 각각 33.33%를 반영합니다.
+이러한 방식으로 수능 성적을 반영하여 학생들의 종합적인 능력을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)와 학과 정보를 포함하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 단일 날짜만을 언급하고 있지만, 생성된 응답은 여러 날짜와 학과를 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 주제에서 약간 벗어났습니다. 그러나 여전히 실기고사 날짜에 대한 정보를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜와 학과를 언급하면서 다소 복잡해져 일관된 흐름이 부족합니다. 원본 텍스트의 단순한 정보에 비해 복잡성이 증가하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜와 추가 정보를 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 정보의 정확성과 일관성이 부족합니다. 따라서 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가적인 정보가 포함되어 있어 원본의 의도와 다소 어긋납니다. 따라서 의미 적합성 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가적인 정보로 인해 약간의 혼란을 줄 수 있습니다. 그러나 여전히 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6913508124341782</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)입니다.
+- 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)입니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과를 제외한 다른 학과들을 언급하고 있으며, 레저스포츠학과와 태권도학과는 원문에 포함되지 않은 잘못된 정보입니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원문에서 제외된 학과와 생성된 응답에서 언급된 학과 간에 모순이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 가지지 않습니다. 그러나 전형에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기 쉽습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에 명시된 학과를 정확히 반영하지 않으며, 잘못된 학과를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 응답이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.8225229599358097</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외된 모집단위입니다. 이들 학과는 다른 전형에서 별도로 포함되어 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 잘 다루고 있으며, 수능 최저기준에 대한 질문에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가적인 정보도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.7899448837117484</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 명시되어 있습니다. 자세한 내용은 제공된 정보를 참고하시거나, 필요하다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 대부분의 학과 분리 정보를 정확하게 전달하고 있습니다. 그러나 "디자인공학부"가 "디자인조형학과"로 잘못 표기된 부분이 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "디자인공학부"의 명칭이 다르게 표현된 점에서 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 직접적으로 다루고 있으며, 모든 주요 포인트를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 "디자인조형학과"에 대한 언급이 원본과 다르게 되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, "디자인공학부"의 명칭이 잘못된 점에서 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 몇 가지 세부 사항에서의 오류로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 약간의 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 날짜와 시간도 일치합니다. 그러나 서류 제출 마감일에 대한 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 기반으로 하고 있지만, 추가된 서류 제출 마감일 정보는 원본과 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원서접수 마감일에 대한 정보는 정확하지만, 서류 제출 마감일에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.6971589625612307</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+추가 정보로, 서류 제출(제출서류가 있는 경우)의 마감일은 2024. 01. 12.(금) 17시까지 도착이어야 합니다.
+원서접수와 서류 제출에 대한 자세한 내용은 입학안내 홈페이지를 참조하시거나, http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com을 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 학생부종합(성인학습자전형)의 서류 반영 비율 변화에 대해서만 언급하고 있으며, 다른 전형의 변화는 포함되어 있지 않다. 따라서 일부 사실은 정확하지만, 전체적인 정보는 누락되어 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 학생부종합(성인학습자전형)의 비율 변화에 대해 일관되게 설명하고 있지만, 다른 전형에 대한 정보가 누락되어 있어 전체적으로 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 질문에 적절하게 답변하고 있으나, 다른 전형에 대한 정보가 부족하여 완전한 관련성을 갖추지 못하고 있다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 서류와 면접 비율의 변화에 대한 설명이 명확하다. 그러나 다른 전형에 대한 정보가 없어서 전체적인 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 서류 반영 비율에 대한 정보는 정확하지만, 다른 전형의 변화에 대한 정보가 누락되어 있어 정확성 점수가 낮아진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적이며, 일부 정보는 정확하지만 전체적인 정보의 누락으로 인해 점수가 낮아졌다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 다른 전형에 대한 정보가 부족하여 완전한 적절성을 갖추지 못하고 있다.
+9. Understandability Score (1-5): 5
+   - 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6976410513552819</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자(정원내·외)전형)입니다. 이 전형의 서류 반영 비율이 변경되었습니다.
+- 2023학년도: 서류(학생부)70%+면접30%
+- 2024학년도: 서류(학생부)60%+면접40%
+이와 같이 서류와 면접의 비율이 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8358415753168936</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 '가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율' 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8491053603806513</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 학과와 다릅니다. 원본에는 '체육학과'와 '레저스포츠학과'가 포함되어 있지만, 생성된 응답에는 '태권도학과'가 포함되어 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여하는 학과에 대한 정보를 제공하지만, 원본 텍스트와는 다른 학과를 포함하고 있어 부분적으로 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 불일치로 인해 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다르게 해석될 수 있는 부분이 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6916493100782396</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기)
+2. 태권도학과 (실기종목: Z-런)
+이 두 학과에서는 각각의 실기종목에 따라 실기를 치르게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 학과 목록을 제공하지 않고, 기계공학과, 로봇자동화공학과, 자동차공학과와 같은 잘못된 정보를 포함하고 있습니다. 원본 텍스트에 명시된 학과와 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있으며, 서로 상충하는 내용을 포함하고 있습니다. 원본 텍스트의 학과 목록과 생성된 응답의 학과 목록이 서로 다릅니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고, 주제에서 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 제공된 정보가 부정확하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5250201985296172</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 예를 들어, 기계공학과, 로봇자동화공학과, 자동차공학과 등이 해당될 수 있습니다.
+하지만 정확한 학과 목록을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다. 이 웹사이트에서는 최신 정보와 자세한 전형 안내를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: '스마트업창업투자학'이라는 전공은 '스타트업창업투자학'으로 잘못 표기되어 있어 사실과 다릅니다. 나머지 전공은 정확하게 언급되었으나, 이 하나의 오류로 인해 점수를 낮추었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 전공 목록은 대부분 일치하지만, '스마트업창업투자학'이라는 표현이 '스타트업창업투자학'과 다르기 때문에 약간의 불일치가 발생했습니다. 그러나 전반적으로 일관성은 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 전공에 대한 정보가 직접적으로 관련되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, '스마트업창업투자학'이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 전공에 대한 설명이 자연스럽게 이어집니다. 그러나 전공 이름의 오류로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 전공 이름 중 하나가 잘못 기재되어 있어 정확성에 문제가 있습니다. 나머지 정보는 정확하지만, 이 오류로 인해 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 전공 이름의 오류로 인해 일부 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 원본 텍스트와 잘 맞아떨어지지만, 전공 이름의 오류로 인해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬우나, 전공 이름의 오류로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8863341130117149</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세 가지 전공은 학부가 신설되었음을 나타내며, 미래의 융합적 인재 양성을 목표로 하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 특정 학교들(과학고, 국제고, 외국어고 등)의 지원 가능성에 대한 추가 정보가 포함되어 있어 원문과의 일치성이 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 특정 학교들에 대한 추가 정보가 원문에 포함되어 있지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 연결되어 있습니다. 그러나 일부 정보가 원문과 일치하지 않아 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 높지만, 특정 전형에 대한 추가 정보가 원문에 포함되어 있지 않아 의미적으로 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6510300932341837</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형으로 지원이 가능합니다. 
+특수목적고등학교 중 과학고, 국제고, 외국어고는 모든 모집군(가군, 나군, 다군)에서 지원이 가능하며, 예술고와 체육고도 나군과 다군에서 지원이 가능합니다.
+따라서, 특수목적고등학교 학생이라면:
+- 가군: 수능 (일반학생전형)
+- 나군: 실기/실적 (일반학생전형) 또는 학생부교과 (농어촌학생전형), 학생부종합 (평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형)
+- 다군: 수능 (일반학생전형)
+의 전형을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집한다고 명시하고 있지만, 생성된 응답에서는 기계공학과가 가장 많은 인원을 모집한다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 있지만, 주된 정보가 잘못되어 있어 관련성이 떨어집니다. 기계공학과에 대한 언급은 원문과 관련이 없으며, 추가 정보 제공은 필요하지만 주제에서 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 기계공학과의 모집 인원과 관련된 정보는 사실이 아니며, 원문에서 언급된 학과와 모집 인원에 대한 정확한 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 주제와 관련된 정보가 잘못되어 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 맥락을 벗어난 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5913325796066169</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 단순히 정원 내 모집 인원만으로 판단하면, 공과대학의 기계공학과 - 교직이 가장 많은 인원을 모집하고 있습니다. 정원 내 모집 인원은 103명입니다.
+하지만, 전체적인 상황을 고려하여 다른 학과들도 고려해야 할 수 있으며, 추가 정보를 확인하기 위해서는 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 참조하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 지원할 수 있는 고등학교 유형에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 특정 특수목적고등학교가 지원 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 지원할 수 없는 특수목적고등학교의 종류를 명확히 언급하고 있지만, 생성된 응답에서는 이와 반대되는 내용을 포함하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 원문에서 요구하는 정보와는 다르게 잘못된 지원 가능성을 제시하고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 중국어로 작성되어 있어 한국어 사용자에게는 불편할 수 있습니다. 또한, 문장 구조가 복잡하여 읽기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 유형의 고등학교를 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 떨어집니다. 원문에서의 주제와 관련된 정보가 명확히 전달되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원할 수 없는 고등학교 유형에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 내용이 잘못되어 있어 혼란을 초래할 수 있습니다. 또한, 한국어 사용자에게는 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4923299663513104</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以考虑通过동의大学的学生部学科农村学生选拔型进行申请。根据提供的信息，东义大学的農村学生选拔型（學生部教科）接受以下类型的高中：
+- 普通高中
+- 自主高中
+- 特殊目的高中中的 科学高中、国际高中和外语高中
+- 特殊目的高中的 艺术高中、体育高中
+- 特殊目的高中的 技工高中
+- 特性化高中的 特性（职业）
+- 特性化高中的 特性（替代）
+- 人才学校
+- 其他认可的高中
+- 其他放送通信高中
+- 其他各种学校
+但是，特殊目的高中中的 艺术高中、体育高中 不被接受。因此，你可以申请。
+如果你有进一步的问题或需要确认具体事项，可以访问“https://ipsi. deu. ac. kr/main. do”进行详细咨询。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 내용을 정확하게 반영하고 있으며, 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 소스 텍스트와 일관되며, 정보의 부재에 대한 설명이 일치합니다. 두 텍스트 모두 동일한 메시지를 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 주제와 관련이 있으며, 합격자 평균 성적에 대한 정보의 부재를 다루고 있습니다. 또한, 추가 정보를 얻기 위한 방법도 제시하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8277044805484075</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 제공된 정보는 다른 학과와 전공의 합격자 평균 성적을 포함하고 있으며, 소프트웨어공학부에 대한 특정 정보는 포함되어 있지 않습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 데이터를 확인하거나, 관련 부서에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 그러한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있으며, 생성된 응답은 구체적인 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트와의 연결이 없기 때문에 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로, 생성된 응답의 정보는 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 구체적인 성적 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5098480946356857</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다. 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 잘못 전달하고 있습니다. 예를 들어, 최초 합격자 등록 날짜가 원본에 명시되어 있지 않으며, 충원 합격자 발표 일정이 중복되어 잘못 기재되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히, 최초 합격자 등록과 관련된 정보가 원본에 없고, 충원 합격자 발표 일정이 중복되어 제시되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 불필요한 정보가 추가되어 있어 약간의 관련성 저하가 있습니다. 그러나 주요 발표 일정은 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 중복되어 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 구조가 있지만, 중복된 정보로 인해 논리적 흐름이 약간 깨집니다. 각 발표 일정이 명확하게 구분되지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확성을 크게 저해하는 잘못된 정보가 포함되어 있습니다. 특히, 등록 일정과 관련된 정보는 원본에 없으며, 발표 일정이 중복되어 기재되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 잘못된 정보가 포함되어 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 중복된 정보로 인해 약간의 혼란을 초래할 수 있습니다. 그러나 주요 내용은 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8736407339005571</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 2시.
+2. 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내).
+3. 충원 합격자 발표 및 등록 :
+   - 1차 : 2024년 2월 14일 목요일 오전 9시.
+   - 1차 : 2024년 2월 15일 목요일 오전 9시부터 오후 4시까지.
+4. 충원 합격자 발표 및 등록 :
+   - 2차 : 2024년 2월 15일 목요일 오전 9시.
+   - 2차 : 2024년 2월 15일 목요일 오전 9시부터 오후 4시까지.
+5. 충원 합격자 발표 및 등록 :
+   - 3차 이후 (개별 전화 통보) : 2024년 2월 15일 목요일 오후 7시부터 2024년 2월 20일 화요일 오후 6시까지.
+6. 충원 합격자 발표 및 등록 :
+   - 3차 이후 (개별 전화 통보) : 개별 전화 통보 시 안내.
+이상의 일정에 따라 합격자 발표와 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트는 2024년 1월 20일에 면접고사가 있다고 명시하고 있지만, 생성된 응답은 2024년 1월 17일에 실기고사가 있다고 잘못 언급하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 날짜와 내용을 제공합니다. 원본 텍스트의 정보와 생성된 응답의 정보는 서로 모순되므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 내용인 면접고사 일정에 대한 정보는 잘못된 정보로 인해 관련성이 낮습니다. 실기고사에 대한 언급은 있지만, 원본 텍스트의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성 문제로 인해 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 실기고사와 면접고사에 대한 정보가 혼합되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 면접고사 일정이 잘못 기재되어 있으며, 이는 정확성 점수를 매우 낮게 만듭니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 관계가 부족하여 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있으며, 주제와 관련된 정보가 부족합니다. 그러나 실기고사에 대한 언급이 있어 의미적으로 완전히 부적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.5025706518027913</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 &lt;나&gt;군 실기고사가 있습니다. 이는 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 면접고사입니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 잘못 해석하고 있습니다. 응답에서는 "최저학력 기준이 없다"는 내용을 "최저학력 기준이 설정되지 않았다"는 식으로 설명하고 있으며, 이는 원문과 일치하지 않습니다. 또한, 웹사이트 링크를 제공하는 부분은 원문에 포함되어 있지 않은 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 최저학력 기준이 없다고 명확히 언급하고 있지만, 생성된 응답은 이를 다르게 해석하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 추가적인 정보(웹사이트 링크 등)가 포함되어 있어 원문에서 벗어난 부분이 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다르게 해석하고 있으며, 이는 정확성 점수를 낮추는 요소입니다. 원문은 최저학력 기준이 없다고 명확히 언급하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성에서 모두 부족한 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미를 일부 전달하고 있지만, 잘못된 해석으로 인해 의미가 왜곡되었습니다. 따라서 의미 적합성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.4499904824800194</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到韩医科的具体最低学力标准。根据给出的信息，韩医科（한의예과）的招生类型是“一般学生型”，并且说明了其最低学力基准为无最低学力基准（수능최저기준 없음）。这意味着在一般学生型的招生中，并没有设定特定的最低学力要求。
+如果您需要更详细的信息，建议访问以下网站获取最新和最准确的数据：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저학력 기준에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.562587625715789</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 모든 전형에서 수능최저학력기준은 없습니다. 따라서 정시 전형으로 지원할 때 수능최저학력기준이 없음을 확인할 수 있습니다.
+만약 추가적인 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 1차 충원합격자 발표 일정은 정확하지만, 1차 등록과 2차 등록에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 3차 이후 발표 일정에 대한 정보도 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(등록 일정)를 포함하고 있으며, 3차 이후 발표 일정에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하고 있으나, 원본 텍스트에 없는 등록 일정이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보(등록 일정)를 추가하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.9244697318862443</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+1. 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+2. 충원 합격자 1차 등록: 2024년 2월 14일(수) 09:00~16:00
+3. 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+4. 충원 합격자 2차 등록: 2024년 2월 15일(목) 09:00~16:00
+이후에는 3차 발표와 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 구체적인 날짜와 시간을 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 구체적인 발표 일정을 제시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 정보인 발표 일정에 대한 내용을 무시하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해하기 어렵지 않지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4532814780355928</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 시기는 제공된 정보에서 명확히 확인할 수 없습니다. 추가합격자 발표와 관련된 자세한 일정은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 직접 입학처에 문의해보시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집에 대한 명확한 정보를 제공하지 않으며, 원본 텍스트의 내용을 왜곡하고 있습니다. 원본 텍스트는 추가 모집이 이루어진다는 내용을 포함하고 있지만, 생성된 응답은 그에 대한 언급이 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본의 내용을 반영하지 않고 있습니다. 원본 텍스트는 추가 모집이 이루어질 것이라고 명시하고 있지만, 생성된 응답은 그와 반대되는 내용을 암시합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 핵심적인 정보를 놓치고 있습니다. 추가 모집에 대한 질문에 대한 답변으로는 적절하지 않으며, 원본의 내용을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 중요한 정보를 누락하고 있습니다. 원본 텍스트의 내용을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있으며, 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변이 되지 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5059468571818213</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 명확한 내용이 없습니다. 추가 모집 여부는 각 전형별로 다르게 결정되므로, 구체적인 모집 단과대학 및 계열, 모집 인원 등은 해당 대학의 공식 웹사이트를 참조하시거나 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집단위 및 모집인원, 지원자격, 제출서류, 전형요소 반영 비율 등에서 일부 사실과 일치하지 않거나 잘못된 정보를 포함하고 있습니다. 예를 들어, '미래융합대학 인문사회 계열 라이프융합학부'의 모집인원이 23명으로 잘못 기재되어 있으며, 지원자격도 원본과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일관성이 부족합니다. 특히 모집단위와 지원자격에 대한 정보가 서로 다르며, 이는 일관성을 해치는 요소입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 특정 세부사항과는 관련이 적은 부분이 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 구조가 있지만, 정보의 흐름이 매끄럽지 않거나 논리적 연결이 부족한 부분이 있습니다. 특히, 지원자격 부분에서의 설명이 원본과 다르게 제시되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 여러 사실에서 부정확한 정보를 포함하고 있습니다. 예를 들어, 모집인원과 지원자격에 대한 정보가 원본과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 일부 정보가 부정확하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6562020906667178</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 나군에서 다양한 전형을 통해 지원자를 선발하는 하나의 방법입니다. 주요 내용은 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 미래융합대학 인문사회 계열 라이프융합학부: 11명
+   - 미래융합대학 인문사회 계열 라이프융합학부: 23명 (성인학습자(정원외)전형)
+   - 미래융합대학 인문사회 계열 부동산자산경영학부: 7명 (성인학습자(정원내)전형)
+   - 미래융합대학 인문사회 계열 부동산자산경영학부: 17명 (성인학습자(정원외)전형)
+2. **지원자격**:
+   - 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자 (6년 과정)
+   - 또는 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고, 거주한 자 (12년 과정)
+3. **제출서류**:
+   - 가족관계증명서
+   - 주민등록초본
+   - 중학교 및 고등학교 학교생활기록부
+   - 고교 졸업증명서
+4. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+5. **면접평가**:
+   - 평가영역: 학업역량, 전공적합성
+   - 평가기준: 문제해결능력, 진로정보 탐색능력 등
+6. **동점자 처리기준**:
+   - 1위: 면접고사 성적 상위자
+   - 2위: 서류평가 공동체역량 영역 성적 상위자
+   - 3위: 서류평가 전공적합성 영역 성적 상위자
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 더 궁금하신 점이 있으시다면 추가로 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 추가 정보를 제공하지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 핵심 자격 요건을 포함하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 추가적인 자격 요건을 제시하고 있습니다. 이는 원본 텍스트의 내용과 일관성이 없으므로 점수가 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하지만, 원본 텍스트의 핵심 요건을 간과하고 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 자격 요건을 나열하고 있지만, 원본 텍스트의 핵심 요건과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 핵심 자격 요건을 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확하게 전달됩니다. 그러나 일부 내용이 원본과 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.7075389393522615</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부를 제출합니다.
+   - 학생부 온라인 제공 동의자가 제출할 필요가 없습니다.
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부를 제출합니다.
+   - 온라인 제공 동의자가 제출할 필요가 없습니다.
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부를 제출합니다.
+   - 학교생활기록부 대체 서류는 선택적으로 제출할 수 있습니다.
+이러한 자격을 갖춘 지원자는 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 날짜와 시간에 대한 정보는 누락되어 있습니다. 그러나 웹사이트를 방문하라는 제안은 유용하지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 실기고사에 대한 구체적인 장소 언급이 없다는 점에서 일관성이 떨어집니다. 원본 텍스트의 정보와는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 웹사이트를 방문하라는 제안은 유용합니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점에서 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 못하고 있으며, 실기고사에 대한 구체적인 세부사항이 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 실기고사에 대한 질문에 대한 답변으로 적합합니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 적절성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 다만, 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3848295090565593</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사에 대한 구체적인 장소에 대한 언급이 없습니다. 따라서 "https://ipsi. deu. ac. kr/main. do" 주소를 방문하여 자세한 내용을 확인해 보시는 것이 좋겠습니다. 웹사이트에서 모집단위별 입학사정관, 면접장소 등 관련 정보를 찾으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하고 있지만, 대기실로 가야 하는 날짜에 대한 언급이 다소 모호합니다. 대기실에 가야 하는 날짜는 명확히 언급되지 않았으나, 실기고사 일정이 2024년 1월 17일이라는 정보는 정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 일정과 대기실 및 입실시간 안내를 포함하고 있지만, 대기실로 가야 하는 날짜에 대한 언급이 명확하지 않아 일관성이 떨어집니다. 응답의 일부는 일관되지만, 대기실에 가야 하는 날짜에 대한 정보가 혼란스러울 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 실기고사 일정과 대기실 및 입실시간 안내를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사 일정과 대기실 안내가 잘 연결되어 있습니다. 그러나 대기실로 가야 하는 날짜에 대한 명확한 언급이 부족하여 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하지만, 대기실로 가야 하는 날짜에 대한 정보가 명확하지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 대기실로 가야 하는 날짜에 대한 명확한 언급이 부족하여 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 의미를 가지고 있습니다. 그러나 대기실로 가야 하는 날짜에 대한 언급이 모호하여 약간의 개선이 필요합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 대기실로 가야 하는 날짜에 대한 정보가 혼란스러울 수 있어 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.6680031463310109</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 이 날은 실기고사 일정이며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+따라서 체육학과의 실기고사는 2024년 1월 17일에 대기실로 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 포함하고 있어 일관성이 없습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본의 핵심 내용과는 다르게 전화 통보에 대한 잘못된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본과의 내용 불일치로 인해 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6554305956922689</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드립니다. 따라서, 합격자 발표 이후에 개별적으로 전화를 받으실 예정입니다.
+만약 자세한 내용을 확인하고 싶으시다면, 입학안내 홈페이지를 참조해 보세요: https://ipsi. deu. ac. kr/main. do
+또한, 관련 정보는 공고일자 2024년 2월 15일 오후 7시 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있습니다. 그러나 "대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다"라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 수시모집 결과에 대한 정보가 없다는 점에서 일치하지만, 추가적인 웹사이트 방문 제안이 원본 텍스트와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊습니다. 수시모집 결과에 대한 정보가 없다는 점을 명확히 하고 있으며, 관련 웹사이트를 언급하여 독자가 필요한 정보를 찾도록 돕고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "ipsi. deu. ac. kr"의 점이 띄어져 있는 부분은 약간의 어색함을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가적인 정보가 포함되어 있어 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 추가된 정보가 원본의 의도와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 다만, 일부 문장 구조가 약간 복잡할 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8331378267778526</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서는 언급되어 있지 않습니다. 관련 정보를 찾기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능하다고 주장하고 있지만, 이는 원문에서 명시된 사실과 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있는데, 생성된 응답은 여러 전형에서 수능 응시 여부와 관계없이 지원이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시한 핵심 사실과는 다르게 해석하고 있습니다. 따라서 관련성은 있지만, 원문과의 일치성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에는 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명이 포함되어 있지만, 원문과의 논리적 흐름이 부족합니다. 원문에서 제시한 사실과의 연결이 약해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 다른 의미를 전달하고 있으며, 원문의 맥락과는 맞지 않는 내용을 포함하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5660481129847023</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 모집에서 수능을 응시하지 않아도 일부 전형에서는 지원이 가능합니다. 예를 들어, 농어촌학생전형과 평생학습자전형, 성인학습자전형, 재직자전형인 경우 수능 응시 여부에 관계없이 지원할 수 있습니다.
+특히, 농어촌학생전형의 경우 다음과 같은 자격을 갖추면 지원이 가능합니다:
+- 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자
+- 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주한 자
+또한, 평생학습자전형, 성인학습자전형, 재직자전형에서는 학력과 경력을 중심으로 평가되므로 수능 응시 여부에 관계없이 지원이 가능합니다.
+따라서, 정시 모집에서 수능을 응시하지 않아도 위와 같은 전형에서는 지원할 수 있습니다. 하지만 특정 단과대학이나 계열, 모집단위에서는 수능 성적을 반영하기 때문에 그 부분은 주의해야 합니다. 자세한 내용은 해당 대학의 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do 를 방문하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 언급하고 있으며, 검정고시 출신자로 분류될 수 있다는 점도 정확하게 설명하고 있습니다. 그러나, "검정고시 출신자"로 분류되는 조건이 명확하지 않아서 약간의 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 검정고시 출신자로 분류될 수 있다는 추가 정보가 원본 텍스트에 명시되어 있지 않아서 일관성이 떨어집니다. 원본 텍스트는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명확히 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 지원 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 검정고시 출신자에 대한 언급이 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 사실적으로 정확하지만, 검정고시 출신자로 분류되는 조건에 대한 명확한 설명이 부족하여 약간의 혼란을 초래할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 검정고시 출신자에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.7087505746257843</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합전형의 경우, 정시 지원은 가능하지만, 지원 자격과 서류 제출 요건이 있습니다. 특히 고등학교 졸업한지 10년이 지났다면 검정고시 출신자로 분류될 수 있으며, 그에 따른 서류 제출 요건을 확인해야 합니다.
+검정고시 출신자의 경우 다음과 같은 서류가 필요합니다:
+1. 검정고시 합격증서 사본 또는 합격증명서 1부
+2. 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+3. 학교생활기록부 대체 서류 (제출여부 선택 가능)
+따라서, 고등학교 졸업한지 10년이 지났다면 검정고시 출신자로 분류되며, 위와 같은 서류를 제출해야 합니다. 또한 지원 자격과 전형 요건을 확인하여 지원 가능성을 판단하는 것이 좋습니다.
+더 자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 핵심 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7752808983162417</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 이날 입학안내 홈페이지에서 모집인원이 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간은 각각 18시까지
+   - 원서 접수는 인터넷을 통해 진행되며, 원서접수 마감일은 1월 6일(토) 18시까지입니다.
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감시간은 각각 17시까지 도착
+   - 서류제출 대상에 따라 접수 방법이 다르며, 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과 태권도학과)**: 2024년 1월 16일 (화)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시 00분
+     - 1차: 2024년 2월 14일 (수) 9시 00분 ~ 16시 00분
+     - 2차: 2024년 2월 15일 (목) 9시 00분
+     - 2차: 2024년 2월 15일 (목) 9시 00분 ~ 16시 00분
+     - 3차 이후: 2024년 2월 15일 (목) 19시 00분 ~ 2024년 2월 20일 (화) 18시까지
+이 일정은 동의대학교 정시 모집에 대한 주요 내용이며, 자세한 사항은 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 흐름을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8583601099318813</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024. 01. 02.)
+   - 이날 입학안내 홈페이지에서 모집인원이 공고됩니다.
+2. **원서접수(인터넷)** (2024. 01. 03. ~ 2024. 01. 06.)
+   - 원서 접수 마감일은 2024년 1월 6일 18시까지입니다.
+   - 관련 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출 (제출서류가 있는 경우)** (2024. 01. 03. ~ 2024. 01. 12.)
+   - 서류 제출 마감일은 2024년 1월 12일 17시까지입니다.
+   - 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)** (2024. 01. 16.)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)** (2024. 01. 17.)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부 (최초 합격자 발표)** (2024. 02. 02.)
+   - 이날 합격자 발표가 이루어지고, 합격자는 등록금을 납부해야 합니다.
+   - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **합격자 발표 및 등록금 납부 (최초 합격자 등록)** (2024. 02. 07. ~ 02. 13.)
+   - 이 기간 동안 합격자는 등록금을 납부해야 합니다.
+   - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+8. **합격자 발표 및 등록금 납부 (충원 합격자 1차 발표)** (2024. 02. 14.)
+   - 이날 충원 합격자가 발표되며, 합격자는 등록금을 납부해야 합니다.
+   - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+9. **합격자 발표 및 등록금 납부 (충원 합격자 1차 등록)** (2024. 02. 14.)
+   - 이날 충원 합격자는 등록금을 납부해야 합니다.
+   - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+10. **합격자 발표 및 등록금 납부 (충원 합격자 2차 발표)** (2024. 02. 15.)
+    - 이날 충원 합격자가 발표되며, 합격자는 등록금을 납부해야 합니다.
+    - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+11. **합격자 발표 및 등록금 납부 (충원 합격자 2차 등록)** (2024. 02. 15.)
+    - 이날 충원 합격자는 등록금을 납부해야 합니다.
+    - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+12. **합격자 발표 및 등록금 납부 (충원 합격자 3차 이후 발표)** (2024. 02. 15. ~ 2024. 02. 20.)
+    - 이 기간 동안 충원 합격자가 발표되며, 합격자는 등록금을 납부해야 합니다.
+    - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+이 일정은 2024년 동의대학교 정시 모집에 대한 일반적인 일정이며, 실제 일정은 변경될 수 있으므로 공식 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 모든 전형에서 수능 점수가 필요하다는 점도 올바르게 언급되었습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 미응시자는 지원할 수 없다는 내용을 일관되게 전달하고 있습니다. 원문과의 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 원문에서 언급된 주요 사항을 잘 반영하고 있습니다. 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "deu"와 "ac" 사이의 공백이 불필요하게 삽입되어 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 수능 미응시자가 지원할 수 없다는 사실을 정확하게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.8076132650008246</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 없습니다. 모든 전형에서 수능 점수 반영이 필요하며, 수능 미응시자는 해당 전형에 지원할 수 없습니다.
+만약 더 자세한 정보가 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격자가 36명이라고 언급했지만, 1차 충원 합격자가 34명이라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다. 또한, "최소 2차까지 이루어졌을 것으로 추정"이라는 부분도 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 충원 합격 차수에 대한 추정이 원본 텍스트의 내용과 모순됩니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 일부 잘못된 정보가 포함되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 신뢰할 수 없는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보가 포함되어 있어 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 응답이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7881240687614645</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 전자공학과의 경우, 충원 합격자는 36명이었고, 이 중 1차 충원 합격자는 34명이었습니다. 따라서 전년도에 전자공학과의 충원 합격은 최소 2차까지 이루어졌을 것으로 추정할 수 있습니다.
+만약 더 정확한 정보가 필요하다면, 해당 대학의 입학처 웹사이트를 방문하여 자세한 내용을 확인해보시는 것이 좋겠습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 추가적인 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호에 대한 정보를 제공하지 않으며, 원본 텍스트의 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있으며, 전화번호에 대한 언급이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교 입학관리팀의 전화번호에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관성이 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 반영하지 않으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5026233943668991</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要该信息，建议访问东义大学官网或者直接联系学校的招生办公室获取准确的联系方式。如果需要帮助，请告诉我更多信息，我会尽力提供帮助。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우 학생이 홈페이지에서 합격 여부를 확인할 수 있다고 언급하고 있지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 따라서 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 홈페이지에서 확인할 수 있다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 전화 통화의 중요성에 대한 언급이 부족합니다. 따라서 관련성은 있지만, 핵심 포인트를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 원문에서 제시한 정보와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성 및 정확성에서도 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.4732567634436839</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 학생은 홈페이지에서 개별 조회를 통해 합격 여부를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행(등록금 고지서에 기재된 곳)으로 처리됩니다.
+따라서 전화 통화가 되지 않아도 합격 여부와 관련된 정보를 홈페이지 및 고지서를 통해 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 서류를 잘못 언급하고 있으며, 6년 과정과 12년 과정의 제출 서류가 동일하다고 잘못 설명하고 있습니다. 실제로는 각 과정에 따라 제출해야 할 서류가 다릅니다.
+2. Consistency Score (1-5): 3
+   - 응답은 일부 일관성을 유지하고 있지만, 6년 과정과 12년 과정의 서류가 동일하다는 주장은 원본 텍스트와 모순됩니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 응답은 주제와 관련된 정보를 제공하고 있으나, 잘못된 정보가 포함되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 응답의 정확성은 다소 떨어지며, 특히 서류 제출에 대한 정보가 잘못되어 있습니다. 이는 원본 텍스트와의 불일치를 초래합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 일부 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보가 포함되어 있어 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7189328751199614</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정 모두 동일한 서류를 제출해야 합니다.
+제출서류:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+추가적으로, 6년 과정에서는:
+5. 고교 졸업증명서 1부
+6. 지원자 본인, 부모의 초본 각 1부 (총 3부)
+12년 과정에서는:
+7. 고교 졸업증명서 1부
+이러한 서류들은 원본을 제출해야 하며, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다 (본교 입학관리팀 확인 후 원본은 반송). 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 2024. 02. 16.(금)까지 추가 제출해야 합니다.
+위와 같은 서류들을 정확하게 준비하여 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 대부분의 서류를 정확하게 나열하고 있지만, "이 외에 추가로 제출해야 할 서류는 없습니다"라는 부분은 원본 텍스트의 추가 서류에 대한 내용을 잘못 전달하고 있습니다. 또한, 6년 과정 서류에 대한 언급은 원본 텍스트에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 추가 서류에 대한 정보가 잘못 전달되어 일관성이 떨어집니다. 원본 텍스트에서는 최종 등록자에게 제출해야 할 서류가 명시되어 있으나, 생성된 응답에서는 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 잘 전달하고 있습니다. 주제와 관련된 정보가 잘 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가 서류에 대한 잘못된 정보로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부 사항을 누락하거나 잘못 전달하고 있습니다. 특히, 추가 서류에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 잘못된 정보로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8253752660402959</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 추가로 제출해야 할 서류는 없습니다. 단, 중학교 재학 시 부모 모두 농어촌 지역에 거주한 자는 6년 과정 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 기회균등 전형에 대한 일반적인 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "기회균등 전형이 존재하지 않는다"는 사실을 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 기회균등 전형에 대한 일반적인 설명을 제공하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형에 대한 정보를 제공하지만, 원본 텍스트의 주제와는 관련이 없습니다. 원본 텍스트는 기회균등 전형이 존재하지 않는다는 점을 강조하고 있으며, 생성된 응답은 그와 관련된 정보를 제공하지 않기 때문에 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길고 복잡할 수 있어 약간의 개선이 필요합니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 기회균등 전형이 존재하지 않는다는 사실을 무시하고 일반적인 정보를 제공하고 있기 때문에 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 기회균등 전형이 존재하지 않는다는 점을 무시하고 일반적인 설명을 제공하고 있기 때문에 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5662540427605245</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2023년 정시 모집에서 저소득 기회균등 전형에 대한 정보는 제공된 문맥에서 직접적으로 언급되지 않았습니다. 일반적으로 저소득 기회균등 전형은 다음과 같은 특징을 가집니다:
+1. **대상**: 저소득층 학생들을 대상으로 합니다.
+2. **평가요인**: 주로 학생부와 면접, 그리고 경제적 상황 등을 종합적으로 평가합니다.
+3. **전형요소 비율**: 학생부 50%, 면접 40%, 경제적 상황 10% 등으로 구성될 수 있습니다.
+하지만, 제공된 정보는 정시 모집의 특정 전형에 대한 자세한 내용이 아니므로, 저소득 기회균등 전형에 대한 자세한 내용은 각 대학의 공식 홈페이지나 입학처에서 확인해 보시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.
+만약 저소득 기회균등 전형에 대한 자세한 내용이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의해 보시는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 절사 여부에 대한 정보가 없다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답에서는 2.5등급이 절사되어 3등급으로 처리된다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 절사 처리를 주장하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 최저등급과 관련된 내용을 다루고 있습니다. 원문과 관련된 정보에 대해 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원문과의 내용 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공함으로써 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.5901406607639907</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나온 경우, 절사하여 3등급으로 처리됩니다. 수능 최저등급에서 사탐 2 과목 평균산출을 할 때, 등급은 반올림하여 상위 등급으로 처리합니다.
+즉, 2.5 등급은 3등급으로 반올림되어 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 총 4차로 이루어진다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에 따르면 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 진행된다고 명시되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 3차 발표까지 있다고 명시하고 있지만, 생성된 응답은 4차 발표가 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 정시 충원 합격자 발표에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 4차 발표에 대한 잘못된 정보로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 4차 발표에 대한 언급은 잘못된 정보입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8315229866117025</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+2. **2차 발표**: 2024년 2월 15일(목) 09:00~16:00 사이에 이루어집니다.
+3. **3차 이후 발표**: 이는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보로 이루어집니다.
+이와 같이 총 4차에 걸쳐 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 구체적인 정보를 제공하지 않으며, 수능 성적 기준에 대한 명확한 답변을 피하고 있습니다. 그러나 제공된 정보와 관련된 내용을 요약하고 있어 일부 사실은 반영하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 세부사항을 제공하지 않으므로 일관성이 떨어집니다. 원본 텍스트의 평균 점수와 관련된 정보는 언급되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 질문에 대해 관련된 정보를 제공하려고 하지만, 구체적인 수능 성적 기준에 대한 답변이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 수능 성적 기준에 대한 구체적인 내용을 제공하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 특히 관련성과 일관성에서 다소 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 구체적인 수능 성적 기준에 대한 정보가 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5602040949768692</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 e비즈니스학과의 정시 전형에 대한 자세한 내용을 알 수 없습니다. e비즈니스학과의 정시 전형에서 수능 성적 기준이 어떻게 설정되어 있는지 명확히 파악하기 위해서는 해당 대학의 공식 웹사이트를 참조하거나 입학처에 직접 문의해야 합니다.
+입력하신 정보 중에서 유용한 내용을 요약하면 다음과 같습니다:
+- 다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 상경대학이며, 계열은 인문사회이며, 모집단위는 e비즈니스학과  - 신설이며, 모집인원은 10이다.
+- 다군 수능(일반학생전형) 전형요소 반영비율에서 전형명은 다군 수능(일반학생전형)이며, 모집단위는 전 모집단위이며, 전형요소 반영비율의 수능은 100%이다.
+- 다군 수능(일반학생전형) 동점자 처리기준에서 순위는 4이며, 동점자 처리기준은 교과 성적 상위자이다.
+이 정보만으로는 e비즈니스학과의 정시 전형에 대한 수능 점수 기준을 알 수 없습니다. 따라서 추가 합격 가능성 여부를 판단하기 위해서는:
+1. 해당 대학의 입학처 웹사이트에서 정시 전형의 모집요강을 확인합니다.
+2. e비즈니스학과의 정시 전형에 대한 수능 점수 기준이 어떻게 설정되어 있는지 파악합니다.
+추가로, e비즈니스학과의 정시 전형에 대한 자세한 내용은 입학처에 직접 문의하거나 대학의 공식 웹사이트를 참조하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 언급하고 있으며, 정시 등급 5.3에 대한 합격 가능성을 논의하고 있습니다. 그러나 경쟁률에 대한 정보는 추가되었지만, 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다. 따라서, 전반적으로 사실적이지만 일부 세부사항에서 차이가 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 평균 등급과 관련된 정보는 포함되어 있지만, 경쟁률에 대한 해석이 다소 다르게 나타나므로 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 등급 5.3에 대한 합격 가능성을 다루고 있습니다. 따라서, 매우 관련성이 높아 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 경쟁률에 대한 정보가 추가되면서 약간의 혼란이 생길 수 있어 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 경쟁률에 대한 정보가 추가되면서 정확성이 다소 떨어질 수 있습니다. 따라서 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항에서 차이가 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 경쟁률에 대한 추가 정보가 다소 혼란을 줄 수 있어 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 혼란이 있을 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6922103216820991</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률을 확인해보겠습니다.
+- **모집 인원**: 3명
+- **지원 인원**: 16명
+- **경쟁률**: 5.33
+이 데이터를 바탕으로, 정시 등급 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 높지 않을 것으로 보입니다. 경쟁률이 5.33이라는 것은 지원자 중에서 상위 19%만 합격하게 되는 것을 의미합니다.
+하지만, 정시 등급 5.3이란 점수 자체가 합격 기준을 넘는다면 최초합격 가능성은 있을 수 있습니다. 그러나 이 경우에도 경쟁률이 매우 높기 때문에 확실한 것은 아닙니다.
+추가적으로, 동의대학교 e비즈니스학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 430.10이며, 이 점수가 정시 등급 5.3에 해당하는 점수보다 높다면 경쟁률이 더 높아질 수 있습니다.
+따라서, 정시 등급 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 낮지만, 확실한 것은 아닙니다. 실제 합격 가능성을 확인하려면 동의대학교 e비즈니스학과의 최종 합격자 명단을 참조하거나, 동의대학교 입학처에 문의하는 것이 가장 정확할 것입니다.
+더 자세한 정보를 얻고 싶으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 여부를 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서는 예비 38번의 경우 예비 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 응답은 원본의 사실을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 불확실성을 강조하고 있지만, 원본 텍스트의 명확한 정보와는 일치하지 않습니다. 원본에서는 예비 38번의 경우 가능성이 낮다고 명시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비합격 가능성을 확인하기 위한 절차를 제시하고 있어 관련성이 높지만, 원본의 핵심 정보인 예비 38번의 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 절차를 제시하는 방식이 일관성을 유지하고 있습니다. 그러나 원본의 핵심 메시지와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 정보를 제공하지만, 원본의 구체적인 사실을 반영하지 못하고 있습니다. 예비 38번의 가능성이 낮다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성과 일관성에서 부족함이 있습니다. 그러나 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 예비합격 여부를 판단하기 위한 다양한 요소를 고려하고 있습니다. 그러나 원본의 명확한 사실과는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 절차를 명확히 설명하고 있습니다. 그러나 원본의 핵심 정보와의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5083467454930012</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 전형일정과 모집인원, 지원자의 성적 등 다양한 요소가 고려되어 결정됩니다.
+이정도의 성적이 예비합격 가능할지 확인하려면 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **최근 성적 확인**: 지원자의 성적을 가장 최근까지 확인합니다.
+2. **모집인원 확인**: 해당 전공과 모집단위의 모집인원 수를 확인합니다.
+3. **동점자 처리 기준 확인**: 동점자 처리 기준을 확인하여 자신의 성적이 어느 순위에 속하는지 판단합니다.
+더 자세한 정보를 얻기 위해서는 입학안내 홈페이지(https://ipsi. deu. ac. kr/main. do) 또는 지원사이트(http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하거나, 학교 입학관리팀에 문의하는 것이 가장 정확한 방법입니다.
+입학 관련 정보는 매년 변경될 수 있으므로 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 3.44라는 성적이 합격 가능성이 낮다는 점을 언급하고 있습니다. 그러나 일부 세부 사항(예: 모집 인원 등)은 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 일치하지만, 추가된 정보(모집 인원 등)가 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 정확한지 확인할 수 없으므로 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지지만, 추가된 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.605394084167465</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 합격할 확률은 상당히 낮습니다. 동의대학교 간호학과의 정원 내 모집 인원이 110명이고, 가군 일반 학생은 0명이며, 나군 일반 학생은 22명입니다. 이는 전체 모집 인원의 약 20%에 해당합니다.
+성적 3.44은 상당히 낮은 수준으로, 대부분의 경우 동의대학교 간호학과에 합격하기 어렵습니다. 그러나 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **개별 전형 성적 기준**: 각 전형별로 다른 성적 기준이 적용되므로, 해당 전형의 기준을 확인해야 합니다.
+2. **학생부 평가**: 간호학과에서는 학생부 평가도 중요한 요소입니다. 특히 간호 관련 활동이나 자원봉사 경험 등이 중요하게 평가됩니다.
+3. **추천서 및 자기소개서**: 일부 전형에서는 추천서나 자기소개서 등의 서류평가가 이루어집니다.
+따라서, 정확한 합격 가능성 판단을 위해서는 동의대학교 간호학과의 각 전형별 성적 기준과 기타 평가 요인들을 자세히 확인해 보시기 바랍니다. 만약 불확실성이 있다면, 동의대학교 입학처에 문의하시거나, 관련 컨설팅 서비스를 이용하는 것도 좋은 방법입니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 성적과 경쟁률에 대한 정보가 잘못되었습니다. 원문에서는 2.52의 성적이 평균 등급보다 높다고 언급했으나, 생성된 응답에서는 이 성적이 간호학과에 합격하기에 부족하다고 주장하고 있습니다. 또한, 수능 성적에 대한 정보도 원문과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 2.52의 성적이 합격 가능성이 높다고 했지만, 생성된 응답에서는 이 성적이 부족하다고 주장하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문과의 일치성 부족으로 인해 일부 정보가 부적절하게 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있으나, 정보의 흐름이 매끄럽지 않고 논리적인 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 수능 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원문과의 불일치로 인해 의미 전달이 부적절하게 이루어졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 내용이지만, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6260980727228921</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수로 동의대학교 간호학과에 최종합격하기는 어려울 것으로 보입니다. 동의대학교 간호학과의 경쟁률은 매우 높고, 평균 합격 점수가 상당히 높습니다.
+간호학과의 경우 일반적으로 다음과 같은 요소들이 고려됩니다:
+1. 수능 성적: 평균 350점 이상이 요구되며, 일부 모집단위에서는 400점을 넘는 합격자가 있습니다.
+2. 서류평가 점수: 공동체역량 영역에서 높은 점수가 필요합니다 (평균 130점 이상).
+3. 면접 성적: 전공적합성과 학업역량을 평가하며, 이 부분에서도 높은 점수가 요구됩니다.
+현재의 수능 점수(2.52)는 간호학과에 충분한 점수가 아닌 것으로 보입니다. 그러나 서류평가와 면접 성적에서 좋은 결과를 얻으면 가능성은 열려 있습니다.
+추가적으로, 동의대학교 간호학과의 모집인원이 22명이고 지원 인원이 145명이라는 점을 고려하면 경쟁률이 매우 높습니다. 이에 따라 충원 합격자 수(37명)도 많으므로, 최종합격 가능성은 낮다고 판단할 수 있습니다.
+만약 간호학과에 진학하고 싶다면, 다른 대학이나 모집단위를 고려해 보는 것이 좋을 것 같습니다. 또한, 수능 준비를 다시 한 번 체계적으로 하거나, 추가 학습 자료를 활용하여 점수를 향상시키는 것도 방법이 될 수 있습니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.7의 점수가 간호학과에 지원하는 데 충분할 수 있다고 언급하지만, 원본 텍스트에서는 3.7이 평균 등급보다 낮다고 명시하고 있어 사실과 상충합니다. 또한, 실기 성적이 중요하다고 언급했으나 원본 텍스트에서는 실기 성적에 대한 언급이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되지 않습니다. 원본 텍스트는 3.7이 낮은 성적이라고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관성이 떨어질 수 있습니다. 특히, 3.7의 점수에 대한 해석이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 3.7의 점수에 대한 해석이 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성과 일관성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.66823895347393</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 평균점수는 간호학과에 지원하는 데 충분한 점수일 수 있습니다. 그러나 간호학과의 경우, 학생부 교과성적뿐만 아니라 실기 성적도 중요하게 고려되기 때문에, 정확한 합격 가능성은 모집인원, 전형요소 반영비율, 동점자 처리 기준 등을 고려해야 합니다.
+현재 제공된 정보를 바탕으로 간호학과에 대한 몇 가지 주요 사항을 확인해 보겠습니다:
+1. **모집인원**: 22명
+2. **전형요소 반영비율**:
+   - 수능: 100%
+   - 실기/실적: 없음 (즉, 수능 절대평가)
+3. **동점자 처리 기준**: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+이 정보를 바탕으로, 3.7의 평균점수가 충분히 높은 점수일 것으로 보입니다. 그러나 수능 국어, 수학, 영어 등 각 과목별 성적도 중요하게 고려됩니다.
+따라서, 정확한 합격 가능성 판단을 위해서는:
+- **수능 절대평가** 결과를 확인해야 합니다.
+- **동점자 처리 기준**에 따라 수능 국어, 수학, 영어 등 각 과목별 성적도 중요하게 고려됩니다.
+따라서, 3.7의 평균점수가 간호학과에 지원하는 데 충분한 점수일 것으로 보이지만, 최종 합격 가능성은 수능 절대평가 결과와 동점자 처리 기준을 참조하여 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해 보시거나, 대학 입학처에 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 성적 2.58이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 면접의 중요성에 대한 추가 정보가 포함되어 있어, 원본 텍스트의 핵심 내용을 잘 반영하고 있습니다. 다만, 모집 인원과 성적 반영 방식에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 면접과 성적 반영 방식에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 성적에 대한 정보에 집중하고 있으나, 생성된 응답은 면접과 성적 반영 방식에 대한 세부 사항을 추가하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 입시에 대한 정보를 제공하고 있습니다. 성적 2.58에 대한 합격 가능성에 대한 언급도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 면접과 성적 반영 방식에 대한 추가 정보가 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 성적 2.58에 대한 합격 가능성을 잘 설명하고 있으며, 면접의 중요성에 대한 정보도 포함되어 있습니다. 그러나 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 추가로 인해 일관성이 떨어지는 점이 아쉽습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 간호학과의 입시에 대한 정보를 적절하게 전달하고 있습니다. 다만, 추가된 정보가 원본 텍스트의 의미와 약간의 차이를 보일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 복잡함이 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6116507753615207</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 간호학과의 정시 모집인원은 110명이며, 성적 반영 방식은 다음과 같습니다:
+- 반영과목: 전 모집단위(한의예과 제외) 12과목 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목)
+- 성적 반영 비율: 학생부교과 60%, 면접 40%
+성적이 2.58인 경우, 이는 대체로 좋은 성적을 보여줍니다. 그러나 간호학과의 입시에서는 단순히 성적뿐만 아니라 면접 결과도 중요한 역할을 합니다.
+1. **학생부교과 성적**: 전 모집단위에서 12과목 중 석차등급 상위 12과목을 반영합니다. 따라서 성적이 좋은 과목들을 많이 포함하고 있어야 합니다.
+2. **면접 결과**: 면접에서는 간호사로서의 역량, 진로계획 등이 평가됩니다. 이 부분에서도 좋은 점수를 받는 것이 중요합니다.
+따라서 성적 2.58인 경우에도 합격 가능성은 있습니다만, 면접 준비와 함께 전반적인 경쟁력을 갖추는 것이 필요합니다. 동의대학교 간호학과의 입시 결과를 확인하거나, 동의대학교 입학처에 문의하여 자세한 정보를 얻는 것을 추천드립니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 게임공학과의 예비 합격 가능성에 대한 구체적인 정보를 제공하지 않고, 대신 일반적인 절차와 정보를 확인하는 방법을 제시하고 있습니다. 그러나 원본 텍스트에서 명시된 예비 7번의 상황에 대한 직접적인 언급이 없으며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보와 절차를 제시하고 있습니다. 예비 7번의 상황에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 게임공학과에 대한 정보 확인 절차를 제시하지만, 원본 텍스트의 핵심 질문인 예비 7번의 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보 확인 절차를 나열하고 있지만, 원본 텍스트의 질문과의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 예비 7번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6066040371367403</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 게임공학과에 대한 모집단위와 모집인원 등이 명시되어 있지 않습니다. 현재까지의 정보에서는 게임공학과에 대한 특별한 내용이 없어 보아서는 불확실합니다.
+게임공학과에 대한 모집정보를 확인하기 위해서는 다음과 같은 절차를 따르세요:
+1. **입학 안내 홈페이지**를 방문하여 해당 학과의 최신 전형일정 및 모집요강을 확인하세요.
+2. **모집인원**이 남아 있는지 확인합니다.
+3. **전형요소 반영비율** 등을 고려하여 결정합니다.
+만약 입학 안내 홈페이지를 방문하지 못한다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 를 통해 최신 정보를 확인하실 수 있습니다.
+혹시 게임공학과에 대한 추가적인 정보가 필요하시다면, 학교 입학관리팀이나 관련 부서에 문의해 보세요.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 점수 4.16이 낮다고 언급하고 있으며, 평균 수능 4개 영역 등급이 5.25라고 주장하고 있습니다. 그러나 원본 텍스트에 따르면 평균 등급은 4.78입니다. 이로 인해 생성된 응답은 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 예를 들어, 평균 수능 등급에 대한 잘못된 정보가 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 추가 합격 가능성에 대한 논의도 포함되어 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 적은 부분이 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 평균 수능 등급에 대한 잘못된 정보가 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소를 가지고 있지만, 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 내용을 포함하고 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6501741229722739</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 게임공학과의 경쟁률을 고려할 때 낮은 점수로 보입니다. 게임공학과의 모집인원은 3명이며, 지원 인원이 16명으로 높은 경쟁률을 가지고 있습니다. 평균 수능 4개 영역 등급의 평균은 5.25이고, 표준 편차는 0.35입니다.
+수능 점수가 4.16인 경우 이 점수는 평균보다 상당히 낮습니다. 경쟁률이 높고 모집 인원이 적은 만큼 추가 합격 가능성은 매우 낮을 것으로 예상됩니다. 하지만 최종 합격 여부는 서류평가, 면접평가 등 다른 요소도 고려되기 때문에 완전히 배제할 수는 없습니다.
+추가적으로 지원하기 위해서는:
+1. **서류평가**에서 좋은 평점을 받는 것이 중요합니다. 공동체역량, 학업역량, 전공적합성 등 영역에서 높은 점수를 얻어야 합니다.
+2. **면접평가**에서도 좋은 성적을 받아야 하며, 면접 질문에 대한 답변이 탄탄해야 합니다.
+따라서 4.16이라는 수능 점수로 추가 합격 가능성은 매우 낮지만, 최종 결과는 서류평가와 면접평가 등 다른 요소도 고려되기 때문에 완전히 배제할 수 없습니다. 자세한 정보는 입학사정관이나 대학 홈페이지를 통해 확인하시기 바랍니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 합격 가능성에 대한 정보를 포함하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나 최소 등급 기준에 대한 명확한 정보가 없다는 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최소 등급 기준에 대한 불확실성을 강조하면서 원본 텍스트의 명확한 합격 가능성 언급과는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 경영정보학과의 지원 요건과 관련된 정보를 제공하며, 원본 텍스트의 주요 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 문장에서 연결이 다소 약할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 최소 등급 기준에 대한 불확실성을 언급함으로써 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 부분에서 다소 모호한 표현이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7290304634240689</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 정시모집으로 지원하려면, 최초 등록자로 지원 가능한 점수 기준을 확인해야 합니다. 하지만 제공된 정보만으로는 경영정보학과의 최소 등급 또는 점수 기준이 명확히 나와 있지 않습니다.
+현재 제공된 정보를 바탕으로 추론해보면, 정시모집에서 경영정보학과에 지원하려면 일반적으로 국어, 수학, 영어 등의 학교 성적과 대학수능 점수가 요구됩니다. 특히 경영정보학과는 경영 분야와 관련이 있으므로, 수학과 영어의 성적이 중요할 것으로 예상됩니다.
+만약 경영정보학과의 최소 등급 기준이 3.75 이상이라면, 정시모집에서 최초등록자로 지원 가능할 것입니다. 하지만 이는 특정 학교의 정책에 따라 다르므로, 동의대학교의 공식 입학요건을 확인하시기 바랍니다.
+공식 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 입학규정과 지원 자격 요건을 확인하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하고 있으며, 수능 점수와 서류 평가, 면접 성적 등이 복합적으로 반영된다는 점을 언급하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급과 비교하여 합격 가능성이 낮다는 점을 명확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 합격 가능성이 낮다는 원본의 결론과는 다소 상충하는 내용을 포함하고 있습니다. 따라서 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 다양한 방법을 제안하여 질문자의 상황에 맞는 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 제안이 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 결론과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하는 데 있어 정확성을 유지하고 있지만, 원본 텍스트의 평균 등급과 비교하여 합격 가능성이 낮다는 점을 명확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 결론이 원본과 다소 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6525547246693107</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.2인데 경영정보학과 최초 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 최초합격 가능성 판단하기 어렵습니다. 경영정보학과의 최초합격을 결정하는 요소들은 수능 점수, 서류평가 결과, 면접 성적 등이 복합적으로 반영되기 때문입니다.
+현재 제공된 정보는 수능(일반학생전형) 최초합격자들의 통계 데이터만을 기반으로 한 것이므로, 정시 성적이 4.2인 경우 경영정보학과에서 최초 합격이 가능한지에 대한 확정적인 답변을 드릴 수 없습니다.
+더 자세한 정보를 얻기 위해서는 다음과 같은 방법들을 고려해 보실 수 있습니다:
+1. **입학사정관 제도** : 각 대학의 입학사정관들이 서류평가와 면접 평가 등을 통해 학생들의 전반적인 능력을 종합적으로 판단합니다. 따라서, 개인의 특성과 경영정보학과에 대한 적합성을 입학사정관이 어떻게 평가할지에 따라 최초합격 여부는 달라질 수 있습니다.
+2. **대입 컨설팅 서비스** : 전문적인 대입 컨설팅 서비스를 이용하여, 자신의 성적과 경영정보학과의 입학 기준을 종합적으로 분석받으실 수 있습니다.
+3. **대학 홈페이지 확인** : 각 대학의 공식 홈페이지에서 해당 학과의 최신 입학 정보와 전형 요건 등을 확인하실 수 있습니다.
+4. **입학사정관 면담** : 일부 대학에서는 지원자에게 입학사정관 면담을 제공합니다. 이는 개인적인 상황을 고려하여 합격 가능성에 대한 직접적인 조언을 받을 수 있는 기회입니다.
+따라서, 정시 성적이 4.2인 경우 경영정보학과에서 최초합격이 가능한지에 대한 확정적인 답변은 제공하기 어렵습니다. 더 자세한 정보를 얻기 위해서는 위와 같은 방법들을 활용해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급과 비교하여 현재 성적이 낮다는 점을 명확히 언급하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 합격 가능성에 대한 추가적인 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 사실과는 약간의 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 적절하게 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 합격 가능성에 대한 명확한 판단을 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 답변을 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6233725547734719</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 동의대학교 경영정보학과의 정시 합격 기준 점수와 현재의 성적(5.33)이 어떻게 비교되는지에 따라 달라질 수 있습니다.
+다군 수능(일반학생전형)의 동점자 처리 기준을 보면, 순위 1은 면접고사 성적 상위자로 처리되며, 순위 2는 서류평가 공동체역량 영역 성적 상위자로 처리됩니다. 그러나 이 정보만으로는 정시 합격 가능성 판단에 충분하지 않습니다.
+정확한 답변을 위해서는:
+1. 동의대학교 경영정보학과의 정시 합격 기준 점수를 확인해야 합니다.
+2. 현재의 성적(5.33)이 해당 학과의 합격 기준 점수와 어떻게 비교되는지 파악해야 합니다.
+따라서, 더 많은 정보가 필요합니다. 동의대학교의 공식 홈페이지 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 입학처에 직접 문의하여 최신 정보와 정확한 합격 가능성 판단을 받는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 평균 영어 등급이 3.82이고, 수능 4개 영역 등급 평균이 4.74라고 명시되어 있지만, 생성된 응답에서는 2024년의 평균 등급을 4.53으로 잘못 언급하고 있습니다. 또한, 3.33의 성적이 낮은 등급에 해당한다고 언급했으나, 원본 텍스트에서는 3.33이 평균 등급보다 높은 성적이라고 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답에서는 이 성적이 낮은 등급에 해당한다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 지원하는 것과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 내용은 원본 텍스트의 핵심 포인트와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 읽기 쉬운 문장 구조를 가지고 있지만, 일부 문장은 어색하게 표현되어 있습니다. 특히, 중국어가 섞여 있는 부분은 한국어 사용자에게 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 보입니다. 특히, 평균 등급에 대한 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 평균 등급과 관련된 정보가 잘못 전달되고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 일부 어색한 표현과 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6823085263908063</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 바이오응용공학부에 지원하려면, 현재 제공된 데이터를 바탕으로 분석해볼 수 있습니다.
+바이오응용공학부는 2023년에는 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학)로 모집되었고, 2024년에는 바이오의医药学和应用工程系分别在2023年和2024年的招生情况进行了调整。根据您提供的信息，您的成绩为3.33（假设是等级制），这可能对应于较低的等级。
+从给定的数据来看：
+- 2024年度巴伊奥应有应用工程系的录取平均等级为4.53。
+- 标准偏差为0.80。
+这意味着大多数被录取的学生的成绩集中在4.53左右，标准偏差表明成绩分布有一定的波动范围。您的成绩（假设是等级制）在4.53以下，可能处于较低等级。
+因此，虽然您的成绩可能低于平均值，但并不完全排除您被录取的可能性。具体能否被录取还需要参考更多详细信息和最终的招生结果。
+建议您可以直接访问东国大学官网（https://ipsi. deu.ac.kr/main.do）获取最新的招生政策、要求以及具体的录取标准等详细信息。</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 4.4라는 사실을 언급하고 있지만, 방사선학과에 지원하기 위한 다른 조건들에 대한 정보가 포함되어 있어 원본 텍스트의 핵심 사실과는 다소 동떨어져 있습니다. 특히, 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다는 점을 명확히 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 조건을 제시하고 있지만, 원본 텍스트에서 언급된 합격 가능성이 낮다는 점과 일치하지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 다양한 요소를 다루고 있지만, 원본 텍스트의 핵심 주제인 정시 등급과 합격 가능성에 대한 직접적인 언급이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 각 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 특히, 방사선학과의 평균 등급과 관련된 정보가 명확히 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 정보가 포함되어 있지만, 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 정시 등급이 4.4인 경우의 합격 가능성에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 관련성, 정확성 모두에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.5738951730202168</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도의 방사선학과에 지원하려면, 학생부종합 평가를 받을 가능성이 높습니다. 현재 정시 등급이 4.4로 보통의 경우 방사선학과는 비교적 높은 성적을 요구하기 때문에, 방사선학과에 진학하려면 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 종합 평가**: 현재 정시 등급이 4.4라면, 학생부종합 평가에서 좋은 결과를 얻기 위해서는 인성, 학업역량, 전공적합성을 잘 보여줘야 합니다.
+2. **진로선택과목 성적 반영**: 방사선학과에 지원하려면 관련 진로선택과목의 성적이 중요합니다. 방사선학과와 관련된 과목을 잘 수강하고 좋은 성적을 받는 것이 유리할 것입니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서나 자기소개서를 요구하기도 합니다. 이에 대한 준비가 필요합니다.
+4. **면접 준비**: 방사선학과의 경우 면접을 통해 지원자의 적합성을 평가하는 경우가 많습니다.因此，根据提供的信息，目前您的成绩可能不太适合直接申请放射学专业。建议您先了解该专业的具体要求，并考虑其他与之相关的专业或课程作为过渡。
+如果您还有其他问题或者需要进一步的帮助，请访问“https://ipsi. deu. ac. kr/main. do”以获取更多信息。
+如果您想了解更多关于放射学专业的详细信息，可以参考上述链接中的相关信息。</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 관련된 정보는 포함되어 있지 않습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 내용과는 일관성이 떨어집니다. 경쟁률에 대한 언급은 있지만, 성적이 평균보다 높다는 원본의 주장을 명확히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하여 주제와 관련이 있지만, 원본 텍스트의 주요 포인트인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 의미를 잘 전달하고 있지만, 원본 텍스트의 맥락과는 일부 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6405627818375128</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66의 경쟁률을 방사선학과에서 볼 때, 이는 상당히 높은 수준입니다. 방사선학과의 모집인원이 5명이고 지원 인원이 36명으로, 경쟁률이 7.20이라는 것을 고려하면, 2.66은 이미 충분히 높은 수준입니다.
+방사선학과의 경우, 평균 표준 변환 점수 합은 463.36이고, 이는 상당히 높은 점수를 요구합니다. 또한, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 338.76이며, 이 역시 높은 점수입니다.
+따라서, 2.66 경쟁률에서 463.36의 평균 점수를 얻기 위해서는 매우 높은 수준의 성적을 보여야 합니다. 만약 현재의 성적이 이보다 낮다면, 충분히 위험할 수 있습니다.
+추천되는 조치:
+1. 현재 성적을 다시 확인하고, 필요하다면 추가 학습을 진행하세요.
+2. 다른 전공들에 대한 정보를 수집하여 대안을 마련하세요.
+3. 면접 준비를 철저하게 하세요. 면접에서도 좋은 결과를 얻기 위해서는 충분한 준비가 필요합니다.
+더 자세한 조언이 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시거나, 입학사정관과 상담을 진행하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 성적 4.12와 비교할 때 3.66의 성적이 "좋은 점수"라고 단정짓는 것은 다소 과장된 표현입니다. 또한, 원본 텍스트에서 제시된 경쟁률 감소와 관련된 긍정적인 요소에 대한 언급이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 농어촌학생전형에 대한 추가적인 요소를 강조하면서 원본 텍스트의 주요 포인트인 평균 성적과 경쟁률에 대한 언급이 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 농어촌학생전형에 대한 정보가 추가되어 있어 다소 주제에서 벗어난 느낌이 있습니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 3.66의 성적이 "좋은 점수"라는 주장은 원본 텍스트의 평균 성적과 비교할 때 정확하지 않습니다. 또한, 합격 여부에 대한 정보가 다소 모호하게 표현되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 농어촌학생전형에 대한 추가적인 정보가 원본 텍스트의 주제와 다소 어긋나는 느낌을 줍니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5447021804616042</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적은 농어촌학생전형에서 좋은 점수입니다. 그러나 합격 여부는 단순히 성적만으로 결정되는 것이 아닙니다. 다음과 같은 요소들이 함께 고려됩니다:
+1. **학업역량**: 학교생활기록부를 통해 보여지는 학업태도와 성취정도, 수업시간의 적극성 등이 중요합니다.
+2. **전공적합성**: 지원하는 전공과 관련된 활동이나 경험, 학업의지 등을 평가받습니다.
+3. **공동체역량**: 협력능력, 배려, 나눔 등의 공동체 역량을 평가받습니다.
+특히 농어촌학생전형은 농어촌 지역 거주 경험이나 관련 활동이 중요하게 고려됩니다. 따라서 성적 외에도 학교생활기록부에서 보여지는 다양한 요소들이 합격 여부에 영향을 미칩니다.
+만약에 추가적인 서류가 필요하다면, 해당 전형의 제출서류를 체크해보세요. 예를 들어 농어촌 거주 경험이나 관련 활동 증빙 자료 등을 준비해야 할 수도 있습니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 방문하여 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저 기준과 수능 점수에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원문과의 일치도가 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수에 대한 정보를 제공하지만, 원문에서 제시된 예비 25번 이상 합격한 학과 목록과의 일관성이 부족합니다. 원문에서 특정 학과에 대한 언급이 있었으나, 생성된 응답에서는 이를 반영하지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하여 질문에 대한 답변을 시도하고 있지만, 원문에서 제시된 특정 학과에 대한 정보와의 관련성이 떨어집니다. 그러나 수능 점수에 대한 언급은 질문과 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 반복적으로 나타나며 약간의 중복이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 수능 점수에 대한 설명이 일관되게 이어집니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보는 정확하지만, 원문에서 제공된 특정 학과에 대한 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 정확하지만, 원문과의 일관성 및 관련성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 의미를 잘 전달하고 있으며, 질문의 맥락에 적절하게 반응하고 있습니다. 그러나 원문에서 요구하는 특정 정보는 포함되어 있지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 다만, 원문과의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5400557933901569</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자는 수능 최저 기준이 없으므로, 이는 주로 수능 점수에 따라 결정됩니다. 현재 정보에서는 수능 위주로 평가되므로, 수능 점수가 합격선을 넘으면 가능성이 있습니다.
+다군 수능(일반학생전형)의 경우, 전형요소 반영비율이 100%이며, 수능 최저 기준이 없으므로, 수능 점수만으로 결정됩니다. 따라서 예비 등록자 중에서 수능 점수가 합격선을 넘는다면 붙을 확률은 있습니다.
+하지만 정확한 합격 가능성을 알기 위해서는 해당 대학의 수능 최저 기준이나 최근 몇 년간의 합격 점수를 참고해야 합니다. 예비 등록자 중에서 수능 점수가 합격선을 넘는다면 붙을 확률이 있습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재한다고 언급하고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있습니다. 또한, 제공된 성적 정보와 통계도 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 여러 면에서 일관성이 없습니다. 법경찰행정학부의 존재 여부와 관련된 정보가 상충하며, 성적 및 통계에 대한 정보도 원본과 다릅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 입학 성적에 대한 정보를 제공하고 있지만, 법경찰행정학부에 대한 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 정확한 정보가 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 법경찰행정학부의 존재 여부와 성적 통계가 모두 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받으며, 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 법경찰행정학부의 존재에 대한 잘못된 정보로 인해 전체적인 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7252243015889761</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 법경찰행정학부에 대한 정보를 바탕으로, 정시로 들어가기 위한 평균 성적을 추정해보겠습니다.
+1. **모집인원과 지원인원**: 모집인원은 7명이고, 지원인원은 40명입니다. 이는 경쟁률이 높아 보입니다 (5.71).
+2. **경쟁률 및 충원 합격자 수**: 경쟁률이 5.71이며, 충원 합격자는 13명입니다.
+3. **국어 + 수학 + 탐구(2개) 표준 변환 점수 평균과 표준 편차**:
+   - 평균: 315.78
+   - 표준 편차: 6.84
+4. **영어 등급 평균**: 3.11
+5. **수능 4개 영역 등급 평균**: 4.27
+6. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 437.89
+이러한 정보를 바탕으로, 안정권을 위해서는 평균적으로 310-320 사이의 점수가 필요할 것으로 보입니다. 이 점수대에서는 경쟁률이 높은 상황에서 충원 합격자 수에 포함될 가능성이 높습니다.
+문 닫고 들어갈 수 있는 수준으로는 340-350 사이의 점수가 필요할 것으로 예상됩니다. 이 점수대에서는 경쟁률이 낮아지면서 충원 합격자 수에 포함될 가능성이 높습니다.
+결론적으로, 정시로 들어가기 위해서는 평균 310-320 사이의 점수가 필요하며, 문 닫고 들어갈 수 있는 수준은 340-350 사이의 점수를 받는 것이 좋을 것으로 추정됩니다. 이 정보는 실제 입학 결과와 다소 차이가 있을 수 있으므로, 최종 결정을 내리기 전에 공식적인 입학 결과를 확인하는 것이 중요합니다.
+더 자세한 정보나 추가 질문이 있다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 등급 5.33에 대한 합격 가능성을 여러 요인에 따라 설명하고 있으며, 이는 원본 텍스트의 정보와 일치합니다. 그러나 원본 텍스트에서 아동학과의 평균 등급에 대한 구체적인 수치가 제공되었음에도 불구하고, 생성된 응답은 보육가정상담학과에 대한 구체적인 평균 등급 정보를 제공하지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 정시 등급이 합격 가능성에 미치는 영향을 여러 요인으로 설명하고 있습니다. 그러나 보육가정상담학과에 대한 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 등급 5.33에 대한 합격 가능성을 평가하는 데 필요한 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 약간의 정보 누락으로 인해 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정시 등급에 대한 합격 가능성을 평가하는 데 필요한 정보를 제공합니다. 그러나 보육가정상담학과에 대한 구체적인 평균 등급 정보가 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 유창성 등에서 높은 점수를 받았습니다. 그러나 약간의 정보 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.557162985005768</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33의 정시 산출 등급을 가지고 동의대학교 보육가정상담학과에 합격할 수 있는지는 여러 요인에 따라 다릅니다. 주요 요인으로는:
+1. **전형 방식**: 동의대학교의 전형 방식이 어떻게 구성되어 있는지 확인해야 합니다. 예를 들어, 학생부 종합 평가와 정시 등급의 비율은 어떤 것인지 중요합니다.
+2. **정시 등급 반영 비율**: 보육가정상담학과에서 정시 등급이 얼마나 중요한 역할을 하는지 파악해야 합니다. 일부 학과에서는 정시 등급이 큰 영향을 미치지만, 다른 학과에서는 학생부 종합 평가가 더 중요할 수 있습니다.
+3. **전형별 합격 기준**: 동의대학교 보육가정상담학과에서 각 전형별로 어떤 기준을 가지고 합격자를 선발하는지 확인해야 합니다. 예를 들어, 정시 등급이 5.0 이상이라는 기준이 있을 수 있습니다.
+4. **전반적인 경쟁률**: 해당 학과의 전반적인 경쟁률도 중요한 요인입니다. 경쟁률이 높다면, 5.33의 정시 등급으로는 합격하기 어려울 수 있습니다.
+위와 같은 정보를 바탕으로 판단해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트를 방문하여 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 가능성을 언급하고 있지만, 동점자 처리 기준에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이로 인해 사실성과 정확성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 동점자 처리 기준에 대한 추가 정보는 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 번호와 합격 가능성에 대한 질문에 잘 대응하고 있지만, 동점자 처리 기준에 대한 정보는 원본 텍스트와 관련이 적다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제 간의 연결이 명확하다. 그러나 동점자 처리 기준에 대한 정보가 추가되면서 약간의 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 합격 가능성에 대한 정보를 제공하지만, 동점자 처리 기준에 대한 내용은 원본 텍스트에 포함되어 있지 않아 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용하지만, 사실성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과 일부 일치하지만, 동점자 처리 기준에 대한 정보는 맥락에 맞지 않다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 동점자 처리 기준에 대한 추가 정보가 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6433571881391654</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 있습니다. 하지만 확실한 것은 아닙니다. 동일한 상황에서는 이전 차수와 동점자 처리 기준을 고려해야 합니다.
+동점자 처리기준에 따르면:
+- 순위가 낮을수록 더 높은 점수가 필요합니다.
+- 1순위는 수능 국어, 수학, 영어 영역의 합계점수 상위자입니다.
+- 2순위는 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자입니다.
+- 3순위는 의료‧보건‧생활대학, 공과대학 ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자입니다.
+예비 12번을 받으셨다면, 이전 차수에서 동점자 처리가 이루어졌거나, 현재 상황에서는 합격 가능성은 있습니다. 하지만 최종 합격 여부는 합격자 발표일에 확인해야 합니다. 따라서 합격자 발표일(2024년 2월 7일 ~ 13일)까지 기다리시는 것이 좋습니다.
+더 자세한 정보를 얻으려면 [입학 안내 홈페이지](http://ipsi. deu. ac. kr) 또는 [온라인 지원 사이트](http://www. uwayapply. com)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 결론과는 다소 상충하는 부분이 있습니다. 유아교육학과의 평균 성적이 4.18이라는 정보는 정확하지만, 4.75로 지원할 수 있다고 하는 부분은 다소 과장된 해석입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 주장하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어려울 것이라고 명확히 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대한 논의를 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 지원 가능 학과 목록에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 유아교육학과에 대한 결론이 원본 텍스트와 상충하여 약간의 일관성 문제가 발생합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대한 설명이 포함되어 있지만, 원본 텍스트의 결론과는 다소 차이가 있어 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 문제가 있어 다차원적으로 높은 품질을 보장하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 논의가 적절하게 이루어지고 있으며, 의미적으로도 적합합니다. 그러나 원본 텍스트의 결론과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7637763701858571</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 하지만 정시 모집에 지원 가능한 학과는 여러 요인에 따라 달라질 수 있습니다. 유아교육학과의 경우, 해당 학과에서 요구하는 성적이 어느 정도인지 확인해야 합니다.
+유아교육학과의 경우, 보통 다음과 같은 요소들이 중요하게 작용합니다:
+1. **학교생활기록부** : 학생의 인성 및 학업역량을 평가받습니다.
+2. **진로선택과목 성적** : 유아교육 관련 과목에서 높은 점수를 받는 것이 중요합니다.
+3. **학업역량** : 고교 내에서의 학업 성적이 높다면 이점이 있습니다.
+4.75라는 성적을 가지고 있다면, 대부분의 경우 유아교육학과에 지원할 수 있을 것입니다. 하지만 정확한 가능성을 판단하기 위해서는 해당 대학의 유아교육학과에서 요구하는 최소 점수를 확인해야 합니다. 또한, 학교생활기록부와 진로선택과목 성적 등 다른 평가 요인도 고려해야 합니다.
+따라서, 정확한 가능성을 판단하기 위해서는:
+1. **대입 지원 사이트** : 대입 지원 사이트나 해당 대학의 입학처 웹사이트를 통해 유아교육학과에서 요구하는 최소 점수와 평가 요인을 확인하세요.
+2. **상담** : 학교 상담실이나 입학처에 문의하여 자세한 정보를 얻으세요.
+이런 정보들을 바탕으로 판단하시면 됩니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 정보가 누락되어 있다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족하다. 원본 텍스트는 특정한 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 원하는 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어진다. 그러나 일부 정보는 여전히 관련이 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족하다. 원본 텍스트의 핵심 주제와 연결되지 않아 일관된 메시지를 전달하지 못하고 있다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 질문에 대한 정확한 답변을 제공하지 않는다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았다. 사실성, 일관성, 관련성, 정확성 모두 부족하여 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있다. 질문에 대한 직접적인 답변이 부족하여 의미적 적절성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 부정확하게 설명하고 있습니다. "2024학년도에 소프트웨어융합학과는 신설되지 않았으며"라는 내용은 사실과 다르며, 소프트웨어융합학과에 대한 정보가 주어진 데이터에서 확인되지 않는다는 주장은 원문과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 소프트웨어융합학과가 정시로 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 신설 여부와 관련된 정보로 혼란을 주고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 관련 정보를 제공하려고 하지만, 주제에서 벗어난 정보가 포함되어 있어 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 사실을 잘못 전달하고 있으며, 신설 여부에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성과 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 일관성이 부족하여 전체적으로는 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 혼란으로 인해 일부 독자에게는 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5751259480729245</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 신설되지 않았으며, 관련 정보가 주어진 데이터에서 확인되지 않습니다. 현재 제공된 정보에서는 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)에 대한 지원 자료만이 있습니다.
+따라서 정시로 소프트웨어융합학과에 들어갈 수 있는지, 평균 몇 등급정도 받아야 하는지는 확인할 수 없습니다. 관련 정보가 필요하다면, 해당 대학의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 문의하시는 것이 좋습니다.
+입시 관련 자세한 내용은 대학 입학처에서 가장 정확한 답변을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 서류 평가와 면접 고사에 대한 내용을 포함하고 있습니다. 그러나 서류 준비에 대한 구체적인 내용이 원문과 다소 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 서류 평가와 면접의 중요성을 강조하고 있습니다. 다만, 일부 세부 사항에서 원문과의 일치성이 떨어지는 부분이 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 제공하고 있으며, 소프트웨어융합학과의 평가 방식과 준비 서류에 대한 내용을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 매끄럽지 않은 부분이 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 서류 준비에 대한 세부 사항에서 약간의 차이가 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부 사항에서의 차이로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 부합하고 있으며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해 가능성은 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6050315494848142</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 비중이 있습니다. 면접에서는 지원동기 및 학업계획, 학업역량, 전공적합성에 대한 질문을 받게 됩니다. 따라서 세특 내용은 중요하지만, 면접 준비도 함께 해야 합니다.
+서류는 주로 다음과 같은 항목들이 필요합니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학생부 온라인 제공 동의 (필요시)
+   - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+2. **검정고시출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (필요시 온라인 제공 동의)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부 (성적 체계 자료 포함)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+따라서 세특 내용을 많이 보시는 것이 좋습니다. 특히 창의적 체험활동, 동아리 활동, 진로활동 등과 관련된 경험을 자세히 기재해야 합니다. 또한 면접 준비도 함께 해야 하며, 지원동기와 학업계획, 학업역량, 전공적합성에 대해 잘 준비해 두세요.
+더 궁금한 사항이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조하시거나 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 점수와 경쟁률에 대한 정보를 포함하고 있으며, 4.08이라는 점수에 대한 가능성을 논의하고 있습니다. 그러나 최초합격자의 평균 점수가 4.12라는 사실을 언급하지 않고, 4.08 이상인 경우에 대한 언급이 다소 모호하여 점수는 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 모집인원에 대한 정보를 제공하지만, 최초합격자의 평균 점수와 관련된 정보가 다소 일관성이 부족합니다. 특히, 4.08이라는 점수가 경쟁이 치열하다는 점에서 다소 모순된 해석이 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 동의대학교 소프트웨어공학부의 최초합격 가능성에 대해 직접적으로 관련된 정보를 제공합니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있어 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있어 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 제공된 정보에 기반하여 정확한 내용을 전달하고 있지만, 일부 세부사항에서 정확성이 떨어질 수 있어 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있어 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 표현에서 다소 모호함이 있어 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장에서 복잡한 표현이 있어 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7026474402129369</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 수능 점수가 동의대학교 소프트웨어공학부의 최초합격자에 해당하는지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집인원과 지원인원**: 동의대학교 소프트웨어공학부의 모집인원은 45명이며, 지원인원은 200명 정도입니다 (이 숫자는 실제 지원자 수와 다를 수 있습니다). 이에 따라 경쟁률은 매우 높습니다.
+2. **최초합격자의 평균 점수**: 제공된 정보에서 소프트웨어공학부의 최초합격자의 평균 점수가 4.08 이상인 경우, 4.08이라는 점수로는 경쟁이 매우 치열할 것입니다.
+3. **경쟁률**: 제공된 정보에 따르면, 소프트웨어공학부의 경쟁률은 대략 4.44입니다 (200명 지원자 중 45명 선발). 이는 매우 높은 경쟁률을 의미합니다.
+따라서, 4.08이라는 점수로는 동의대학교 소프트웨어공학부의 최초합격자가 될 가능성은 낮습니다. 하지만 수능 점수가 정확한 지원자 수와 경쟁률에 따라 달라질 수 있으므로, 실제 지원 결과를 확인하기 위해서는 해당 대학의 공식 정보나 입학처 웹사이트를 참조하는 것이 좋습니다.
+추가적으로, 다른 전형(예: 학생부종합전형)을 통해 지원하거나, 추가로 준비하여 점수를 높이는 방법도 고려해볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있으며, 이는 원본 텍스트와 일치하지 않습니다. 원본 텍스트는 소프트웨어융합학과의 정시 모집에 대한 정보를 다루고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 소프트웨어융합학과에 대한 언급이 없고, 소프트웨어공학부에 대한 정보로 대체되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 직접적인 답변이 아니며, 소프트웨어공학부에 대한 정보로 대체되었습니다. 그러나 여전히 관련된 주제를 다루고 있어 어느 정도의 관련성은 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 부족합니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 대체되어 있습니다. 이는 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 관련성도 제한적입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 그러나 여전히 관련된 주제를 다루고 있어 어느 정도의 의미적 적절성을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 문장 구조가 명확합니다. 그러나 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6314004961452213</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)가 신설되었으므로, 현재 소프트웨어융합학과는 해당되지 않습니다. 대신, 2024학년도에 소프트웨어공학부가 신설되었다는 정보를 참고하실 수 있습니다.
+2023년도의 경우, 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)의 평균 5등급을 기준으로 지원이 이루어졌습니다. 하지만 2024년에는 이 학과가 신설되어 평균 등급이 변경될 수 있습니다.
+따라서, 2024학년도에 소프트웨어공학부를 지원하려면 최신 정보와 해당 학과의 평균 등급을 확인하시기 바랍니다. 필요하다면, 대학 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do를 방문해보시거나, 직접 입학처에 문의하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 분석을 시도했지만, 원본 텍스트에서 제공된 평균 점수와 비교하는 부분에서 약간의 오류가 있습니다. 원본 텍스트는 4.28이 평균보다 높다고 언급했으나, 생성된 응답에서는 평균 점수인 4.47보다 낮다고 언급하여 혼란을 초래합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수에 대한 언급에서 불일치가 발생합니다. 원본 텍스트는 4.28이 평균보다 높다고 명시했으나, 생성된 응답에서는 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 신소재공학과의 경쟁률 및 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 주제를 잘 연결하고 있습니다. 그러나 평균 점수에 대한 언급에서의 불일치로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 분석을 시도했으나, 평균 점수에 대한 잘못된 해석이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 품질을 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 제공하고 있습니다. 그러나 일부 정보의 해석에서 혼란이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 평균 점수에 대한 잘못된 해석으로 인해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6251672494758168</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만, 제공된 데이터를 바탕으로 분석해보겠습니다.
+신소재공학과의 경우:
+- 모집 인원: 15명
+- 지원 인원: 24명
+- 경쟁률: 1.60 (24 / 15)
+- 충원 합격 (후보순위): 5명
+이 데이터를 바탕으로, 신소재공학과의 경쟁률은 약 1.60이며, 충원 합격자는 5명입니다. 이는 전체 지원자의 약 20.83%만이 합격하는 수준을 의미합니다.
+4.28이라는 점수를 가지고 보면, 평균점수인 4.47보다 낮습니다. 하지만, 표준 편차가 0.60으로 상대적으로 낮은 편입니다. 이는 점수가 비교적 밀집되어 있다는 의미이며, 고점수와 저점수 사이의 차이가 크지 않다는 것을 의미합니다.
+따라서, 4.28이라는 점수로 합격할 수 있는지는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. 지원자의 점수가 전체적으로 높은 경우
+2. 지원자의 점수가 전체적으로 낮은 경우
+결론적으로, 4.28이라는 점수로는 합격할 확률이 상대적으로 낮지만, 동의대학교 신소재공학과에 합격하는 것은 불가능한 것은 아닙니다. 지원자의 개인적인 성적과 전체 지원자들의 성적 분포를 고려해야 합니다.
+더 정확한 판단을 위해서는, 동의대학교에서 제공하는 최종 합격선이나 해당 학과의 입학사정관에게 문의하시는 것이 좋습니다. 더 자세한 정보를 얻으시기 바랍니다. "https://ipsi. deu. ac. kr/main. do" 를 참조하시거나, 동의대학교 입학사정관실에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 자기소개서 작성의 필요성에 대한 추가적인 설명이 포함되어 있어, 원문과는 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 자기소개서 작성의 필요성에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원문은 자기소개서가 필요 없다고 명확히 언급하고 있으나, 생성된 응답은 선택 사항으로 제안하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 자기소개서에 대한 추가적인 정보와 조언을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 차이로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 사실적으로 정확하지만, 자기소개서 작성의 필요성에 대한 추가적인 정보가 원문과 다소 상충할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 작성되었으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 자기소개서 작성의 필요성에 대한 추가적인 설명이 원문과 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 독자에게는 추가적인 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6553516179645362</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 다군 수능(일반학생전형)에서는 자기소개서가 필수적으로 요구되지 않습니다. 이 전형은 주로 수능 점수와 학교생활기록부를 기준으로 합니다. 그러나 자기소개서를 작성해두면 입학사정관이 지원자의 개인적 특성과 적합성을 더 잘 파악할 수 있습니다.
+만약에 자기소개서를 작성하려고 한다면, 다음과 같은 내용을 포함시킬 것을 추천드립니다:
+1. 지원동기와 학업목표
+2. 학교생활 및 활동 경험
+3. 특기사항이나 뛰어난 능력
+4. 미래 계획과 비전
+하지만 이는 선택 사항이며, 필수 항목이 아닙니다. 중요한 것은 수능 점수와 학교생활기록부를 잘 준비하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 여러 요인에 따라 설명하고 있으며, 원본 텍스트의 내용과 대체로 일치합니다. 그러나, 원본 텍스트에서 언급된 특정 학과의 평균 등급과 관련된 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 정보와 관련된 요인들을 잘 설명하고 있습니다. 다만, 특정 학과의 평균 등급에 대한 언급이 없어서 약간의 일관성 부족이 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 모집에 영향을 미치는지를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보에 대해 정확하게 설명하고 있지만, 원본 텍스트의 특정 세부사항(예: 평균 등급)에 대한 언급이 부족하여 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 원본 텍스트의 특정 세부사항이 누락되어 있어 전반적인 품질이 약간 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6070098840784868</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 들어갈 수 있는지 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **경쟁률**: 각 모집단위의 경쟁률이 매우 중요합니다. 예를 들어, 경영학과와 같은 인기 학과에서는 경쟁률이 높을 수 있으며, 이 경우 4.5라는 점수로 충원합격을 받는 것이 어렵습니다.
+2. **모집인원 및 지원인원**: 모집인원과 지원인원의 비율도 중요합니다. 예를 들어, 모집인원이 10명이고 지원인원이 30명이라면 경쟁률은 높을 것입니다. 이 경우 4.5라는 점수로 충원합격을 받는 것이 어렵습니다.
+3. **충원합격자**: 이미 충원합격한 학생들의 수와 그들의 점수가 중요합니다. 만약 이미 많은 학생들이 충원합격했고, 그들의 평균점수가 높다면 4.5라는 점수로 추가모집에 들어갈 가능성은 낮아질 것입니다.
+4. **학과별 특성**: 각 학과의 특성도 중요합니다. 예를 들어, 경영학과와 같은 인기 학과에서는 점수가 높더라도 충원합격을 받는 것이 어렵습니다.
+따라서, 4.5라는 점수로 추가모집에 들어갈 수 있는지 여부는 각 모집단위의 상황에 따라 달라질 수 있습니다. 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 학교 관계자에게 문의하는 것이 좋습니다.
+더 자세한 정보를 얻고 싶으시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 정시 모집군에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트의 평균 등급에 대한 정보가 누락되어 있습니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 정시 모집군에 대한 정보가 없다는 점에서 일관성이 떨어집니다. 원본 텍스트는 평균 등급에 대한 정보를 제공하고 있으나, 생성된 응답은 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 정시 모집군에 대한 질문에 답변하고 있으며, 관련된 웹사이트 링크를 제공하여 정보를 찾을 수 있도록 하고 있습니다. 그러나 원본 텍스트의 구체적인 정보는 포함되어 있지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 구체적인 수치나 정보를 포함하지 않고 있으며, 이는 정확성에 영향을 미칩니다. 그러나 제공된 링크는 정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 정보의 일부는 유용하지만 원본 텍스트의 핵심 정보를 누락하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 적절한 맥락에서 작성되었습니다. 그러나 원본 텍스트의 구체적인 내용이 반영되지 않아 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다. 다만, 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5379786368486126</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부의 경우, 정시 모집군과 관련된 정보가 제공되지 않았습니다. 정시 모집군에 대한 자세한 내용은 공식 웹사이트를 참조해주세요. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 해당 링크에서 최신 정보와 정시 모집군 등급을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점과 귀하의 점수인 447점을 언급하고 있지만, 2024학년도 모집에 대한 정보는 출처에 명시된 내용과 일치하지 않습니다. 특히, 표준점수 평균이 447.98이라는 정보는 출처에 없는 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 작년과 비슷한 수준의 점수라고 언급하지만, 작년의 평균 점수와 비교할 때 귀하의 점수가 훨씬 높다는 출처의 주장을 일관되게 반영하지 못하고 있습니다. 또한, 경쟁률에 대한 언급이 출처의 정보와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 경쟁률과 관련된 정보를 제공하고 있지만, 출처의 핵심 내용인 귀하의 점수와 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 여전히 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 출처의 정보와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제공된 정보 중 일부는 출처와 일치하지 않으며, 특히 평균 점수와 관련된 부분에서 부정확한 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 내용에서 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7596302551821624</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과는 모집인원이 35명이고 지원 인원이 168명으로 경쟁률이 높습니다. 표준점수 평균은 447.98이며, 표준편차는 20.51입니다.
+당신의 표준점수가 447점이라면, 작년과 비슷한 수준입니다. 하지만 작년에 비해 약간 낮은 점수이므로 경쟁률이 높아서 충원되지 않을 가능성이 있습니다. 그러나 동일한 점수를 받은 다른 지원자들이 있을 수도 있고, 입학사정관의 평가 결과 등으로 충원될 가능성도 있습니다.
+따라서 작년과 비슷한 수준의 점수가 있지만, 확실한 것은 아닙니다. 입학사정관의 평가와 기타 요인들에 따라 결정이 될 수 있으므로, 최종 결과를 확인하기 위해서는 대학에서 공개하는 정보나 입학처와의 상담을 통해 확인해보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인하시거나, 대학 입학처와 연락을 취하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 전형 기준과 서류 평가 기준에 대한 정보를 추가적으로 제공하고 있지만, 원본 텍스트에서 제공된 평균 성적 데이터와 비교할 때 구체적인 수치가 부족하여 다소 불확실한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 지원 가능성을 논의하고 있지만, 원본 텍스트의 구체적인 성적 수치와 비교할 때 일관성이 떨어지는 부분이 있습니다. 특히, 성적 변환에 대한 언급이 원본의 내용과 직접적으로 연결되지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부 일반학생전형에 대한 지원 가능성을 논의하며, 관련된 요인들을 고려하고 있어 대체로 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 데이터와의 연결이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 간결함이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 지원 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 명확하지 않아 약간의 일관성 부족이 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 전형 기준과 관련된 정보를 제공하지만, 원본 텍스트의 구체적인 성적 수치와 비교할 때 정확성이 떨어질 수 있습니다. 특히, 성적 변환에 대한 설명이 원본의 데이터와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 다소 낮은 점수를 받았습니다. 특히, 사실성과 일관성에서 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으며, 전반적으로 적절한 내용을 포함하고 있습니다. 그러나 원본의 구체적인 성적 데이터와의 연결이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확한 설명을 제공합니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.547005947405251</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2로 변환될 경우, 신소재공학부 일반학생전형에 지원 가능성을 판단하기 위해서는 몇 가지 요인을 고려해야 합니다.
+1. **신소재공학부의 전형 기준**: 신소재공학부의 학생부종합 평가 기준과 서류평가 기준을 확인해야 합니다. 특히, 학업역량과 전공적합성 부분에서 요구하는 성적이 어느 정도인지 파악해야 합니다.
+2. **서류평가 영역**: 공동체역량, 학업역량, 전공적합성 등 각 평가영역에서의 점수와 서류의 유의미성을 고려해야 합니다. 특히, 학업역량과 전공적합성 부분에서 지원자의 성적이 어느 정도를 보여줘야 하는지 확인해야 합니다.
+3. **전형요소 반영비율**: 서류 70%, 면접 30%로 구성되어 있으므로, 서류평가에서의 점수가 중요합니다. 따라서, 서류평가 영역에서의 성적과 활동이 잘 반영될 수 있도록 준비해야 합니다.
+4. **지원자의 전반적인 경력**: 학교생활기록부를 통해 보여줄 수 있는 지원자의 전반적인 경력과 활동을 고려해야 합니다. 예를 들어, 창의적체험활동상황, 교과학습발달상황 등에서의 성적이 중요할 수 있습니다.
+따라서, 4.1~4.2로 변환될 경우에도 신소재공학부 일반학생전형에 지원 가능성이 있지만, 서류평가 영역에서의 점수와 활동이 중요합니다. 따라서, 현재의 성적과 활동을 바탕으로 서류를 체계적으로 준비하고, 학업역량과 전공적합성 부분에서 잘 반영될 수 있도록 노력하는 것이 좋습니다.
+더 자세한 정보나 지원 방법에 대한 궁금증이 있다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 입학처와 연락을 취하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답에서 제시된 성적(국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균 403.85 및 영어 등급 평균 4.53)은 원본 텍스트의 정보와 일치하지 않으며, 원본 텍스트에 명시된 평균 점수와 등급과는 큰 차이가 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 예를 들어, 원본 텍스트의 평균 점수와 생성된 응답의 평균 점수가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하고자 하는 학생에게 필요한 성적 정보를 제공하려고 하였으나, 제공된 정보가 부정확하여 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답의 성적 정보는 원본 텍스트와 크게 다르며, 사실적으로 부정확합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 정확성에서 큰 문제가 있습니다. 그러나 유창성과 일관성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 제공된 정보가 부정확하여 의미적으로 적절하지 않습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 정보의 정확성 문제로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7494594015218972</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과로 지원을 계획하고 계신다면, 아래와 같은 성적을 준비해보시는 것이 좋을 것 같습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **영어 등급 평균**: 4.53
+이 성적은 동의대학교 인공지능학과에서 충원 합격을 하기 위한 대략적인 기준입니다. 실제 경쟁률과 지원자의 성적이 변동될 수 있으므로, 최신 정보를 확인하시고 추가로 준비해보시는 것이 좋습니다.
+더 자세한 정보나 도움이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보와 관련된 내용을 다루고 있지만, 원본 텍스트에서 제공된 구체적인 학과의 평균 성적과 충원 합격 가능성에 대한 정보가 누락되어 있습니다. 또한, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 5.27 성적에 대한 충원 합격 가능성을 특정 학과에 대해 명확히 제시하고 있지만, 생성된 응답은 경쟁률과 충원 합격자 수에 대한 정보로 대체되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 지원 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 학과 정보와 비교할 때 일부 정보가 누락되어 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 경쟁률과 충원 합격자 수에 대한 정보를 포함하고 있으며, 이는 원본 텍스트에서 제공된 정보와 일치하지 않습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.7228266392804169</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 상경대학의 학생부종합전형에서 지원이 가능할지 여부는 모집단위와 전공에 따라 다릅니다. 제공된 정보를 바탕으로 분석해보겠습니다.
+1. **모집단위별 경쟁률과 충원 합격자 확인**:
+   - 금융경영학과: 경쟁률 1.93, 충원 합격자 22명
+   - 재무부동산학과: 경쟁률 1.60, 충원 합격자 4명
+   - 무역학과: 경쟁률 1.89, 충원 합격자 13명
+   - 유통물류학과: 경쟁률 1.33, 충원 합격자 4명
+   - 경영학과: 경쟁률 4.33, 충원 합격자 23명
+   - 회계학과: 경쟁률 2.00, 충원 합격자 13명
+   - 경영정보학과: 경쟁률 10.56, 충원 합격자 33명
+   - e비즈니스학과: 경쟁률 8.90, 충원 합격자 31명
+   - 국제관광경영학과: 경쟁률 1.73, 충원 합격자 11명
+   - 호텔·컨벤션경영학과: 경쟁률 1.50, 충원 합격자 3명
+   - 외식경영학과: 경쟁률 4.83, 충원 합격자 12명
+2. **평균 성적 확인**:
+   - 금융경영학과: 평균 5.41
+   - 재무부동산학과: 평균 5.82
+   - 무역학과: 평균 5.18
+   - 유통물류학과: 평균 5.45
+   - 경영학과: 평균 4.69
+   - 회계학과: 평균 4.99
+   - 경영정보학과: 평균 4.31
+   - e비즈니스학과: 평균 3.66
+   - 국제관광경영학과: 평균 5.41
+   - 호텔·컨벤션경영학과: 평균 6.12
+   - 외식경영학과: 평균 4.91
+3. **결론**:
+   - 경쟁률이 낮은 학과들(예: 재무부동산학과, 무역학과, 유통물류학과)에서는 5.27이라는 성적을 가지고 지원 가능성이 높습니다.
+   - 경쟁률이 높은 학과들(예: 경영정보학과, e비즈니스학과, 국제관광경영학과, 호텔·컨벤션경영학과)에서는 5.27이라는 성적을 가지고 지원하기는 어렵습니다.
+따라서, 5.27의 성적으로 추합 가능한 학과들은 경쟁률이 낮은 학과들로 추정됩니다. 상세한 정보를 확인하려면 각 모집단위별 평균 성적과 충원 합격자들의 성적을 참고하시거나, 입학사정관에게 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 추가로 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경쟁률, 모집 인원, 지원 인원 등의 정보를 포함하고 있지만, 소스 텍스트에서 제공된 평균 등급과 비교할 때 정시 성적 4.2가 상대적으로 낮다고 언급한 부분은 다소 주관적입니다. 또한, 소스 텍스트의 구체적인 수치와 비교할 때 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 소스 텍스트의 정보와 일부 일치하지만, 정시 성적 4.2가 평균 등급보다 높은 성적이라는 소스 텍스트의 주장을 반영하지 않고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 평가하는 데 관련된 정보를 제공하고 있지만, 소스 텍스트의 핵심 내용인 평균 등급과의 비교가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 소스 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 소스 텍스트의 평균 등급과 비교할 때 정시 성적 4.2의 위치에 대한 해석이 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 과도하게 복잡하게 제시되어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6346471089675969</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 합격 가능성은 다음과 같이 판단할 수 있습니다.
+1. **경쟁률과 모집 인원**: 
+   - 모집 인원: 3명
+   - 지원 인원: 16명
+   - 경쟁률: 5.33
+2. **성적 평균 및 표준 편차**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 303.05
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 8.27
+3. **성적 분석**:
+   - 평균 점수는 303.05이고, 표준 편차는 8.27입니다.
+   - 이는 성적이 상대적으로 높은 편이며, 표준 편차가 작아서 성적의 변동성이 적다는 것을 의미합니다.
+4. **합격 가능성**:
+   - 경쟁률이 5.33으로 높기 때문에, 평균 점수와 비교해보면 정시 성적 4.2는 상대적으로 낮은 편입니다.
+   - 그러나 표준 편차가 작아서 성적이 일정 수준 이상이라면 합격 가능성은 있습니다.
+따라서, 정시 성적 4.2인 경우 동의대학교 소프트웨어공학부에 합격하는 것은 어렵지만, 성적이 일정 수준 이상이라면 합격 가능성은 존재합니다. 실제 합격 여부는 모집 인원과 지원 인원, 그리고 해당년도의 전체 성적 분포를 고려해야 합니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 3.92라는 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 추가적인 조건(정원 내 모집 인원, 경쟁률 등)을 고려해야 한다는 점에서 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 조건을 언급하면서 원본 텍스트의 단순한 합격 가능성 언급과는 다소 상충하는 부분이 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 중복되거나 불필요하게 길어질 수 있어 완벽한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92라는 성적에 대한 해석도 적절합니다. 그러나 추가적인 조건을 고려해야 한다는 점에서 약간의 불확실성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 일관성 문제로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 일부 내용이 추가되어 원본의 간결함을 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 명확성과 이해 가능성에서 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6765659649273401</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92이라는 성적이 주어졌을 때, 화학환경공학부에 대한 일반 학생 전형 가능성은 다음과 같이 판단됩니다.
+1. **성적 기준**: 동의대학교의 정시 모집에서 특정 단과대학 및 모집단위별로 정원 내 모집 인원이 제한되어 있습니다. 예를 들어, 공과대학의 기계공학과 교직에서는 정원 내 모집 인원이 103명입니다.
+2. **성적 산출**: 성적이 3.92이라면, 이는 대체로 좋은 성적을 보여줍니다. 그러나 특정 단과대학 및 모집단위별로 정원 내 모집 인원이 제한되어 있으므로, 해당 성적이 충분히 높은 수준일 경우에도 선발 가능성이 있습니다.
+3. **모집인원**: 화학환경공학부에 대한 정원 내 모집 인원을 확인해야 합니다. 만약 해당 단과대학 및 모집단위의 정원 내 모집 인원이 여유가 있다면, 3.92이라는 성적은 충분히 선발 가능성을 높입니다.
+4. **경쟁률**: 동일한 성적이 여러 명에게 있을 경우, 경쟁률을 고려해야 합니다. 만약 해당 단과대학 및 모집단위의 경쟁률이 매우 높다면, 3.92이라는 성적만으로는 선발 가능성이 낮아질 수 있습니다.
+따라서, 화학환경공학부에 대한 일반 학생 전형 가능성은 다음과 같이 요약할 수 있습니다:
+- **정원 내 모집 인원 확인**: 해당 단과대학 및 모집단위의 정원 내 모집 인원을 확인해야 합니다.
+- **경쟁률 고려**: 동일한 성적이 여러 명에게 있을 경우, 경쟁률을 고려해야 합니다.
+따라서, 3.92이라는 성적만으로는 확정적으로 가능하다고 말하기 어렵습니다. 정확한 정보를 얻기 위해서는 해당 단과대학 및 모집단위의 정원 내 모집 인원과 경쟁률 등을 확인해 보시기 바랍니다.
+더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 공식 홈페이지에서 해당 단과대학 및 모집단위의 정원 내 모집 인원과 경쟁률 등을 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.25라는 점수로 합격 가능성이 낮다고 언급하고 있지만, 원본 텍스트에서는 4.25가 최초합격자의 평균값보다 높아 합격 가능성이 높다고 판단하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본에서는 4.25가 합격 가능성이 높다고 판단하는 반면, 생성된 응답은 합격하기 어렵다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 누락되어 있습니다. 그러나 여전히 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 4.25라는 점수에 대한 해석이 잘못되었습니다. 원본에서는 합격 가능성이 높다고 판단하는 반면, 생성된 응답은 반대의 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실관계, 일관성, 정확성에서 낮은 점수를 받았기 때문에 다차원적인 품질이 낮습니다. 일부 요소는 양호하지만, 전반적인 품질은 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6588901433905437</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 수능 4개 영역 등급 평균을 가지고 동의대학교 화학환경공학부에 정시로 합격할 확률을 판단하기 위해서는 해당 학과의 경쟁률, 모집인원 등을 고려해야 합니다.
+위에서 제공된 정보를 바탕으로, 화학환경공학부와 관련된 정보는 없습니다. 그러나 일반적으로 수능 4개 영역 등급 평균이 5.0 이상인 경우 경쟁률이 높은 학과에 지원하기 어렵다는 것을 알 수 있습니다.
+따라서, 4.25라는 점수로는 화학환경공학부에 정시로 합격하기 어려울 것으로 예상됩니다. 그러나 이는 단순 추정이며, 실제 합격 가능성은 해당 학과의 경쟁률, 모집인원 등 다양한 요소에 따라 달라질 수 있습니다.
+더 정확한 판단을 위해서는 동의대학교 화학환경공학부의 2024년도 정시 모집 정보를 확인하시거나, 대입 전문 사이트나 학교 관계자에게 문의하시는 것이 좋습니다. 더 자세한 정보를 얻기 위해 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 평균 성적 및 경쟁률에 대한 정보를 포함하고 있으며, 4.2라는 점수가 합격 가능성을 언급하고 있습니다. 그러나 일부 세부사항(모집 인원, 지원 인원 등)은 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 세부사항(모집 인원, 지원 인원 등)을 포함하여 혼란을 초래할 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 합격 가능성에 대한 분석을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 합격 가능성을 분석하고 있으나, 일부 세부사항이 추가되어 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 의미를 전달하고 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 세부사항이 추가되어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6136795524754707</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 분석해보겠습니다.
+영화학과의 경우, 모집 인원이 5명이고 지원 인원이 11명이며 경쟁률은 2.20입니다. 충원 합격 (후보순위)은 6명이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77이고, 표준 편차는 17.29입니다.
+4.2라는 점수를 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합으로 환산하면, 평균보다 약간 낮은 점수가 나옵니다. 하지만 표준 편차가 17.29이므로, 이 정도의 차이는 충분히 경쟁력을 갖추고 있을 수 있습니다.
+영화학과는 경쟁률이 2.20이고, 충원 합격은 6명입니다. 따라서 지원 인원 중 상위 6명이 충원 합격을 받게 됩니다. 현재 제공된 평균 점수와 표준 편차를 고려하면, 4.2라는 점수는 충분히 경쟁력을 갖추고 있을 것으로 보입니다.
+하지만 정확한 합격 여부는 최종 등록자들의 성적과 후보순위에 따라 결정되므로, 최종 결과를 확인하기 위해서는 대학의 공식 발표나 입학처와의 상담을 통해 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 면접 진행 방식에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 정보가 추가되어 있어 완벽한 일치를 이루지 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차와 일관되게 정보를 제공하고 있습니다. 다만, 추가된 정보가 원본 텍스트와의 일관성을 약간 떨어뜨릴 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차와 관련된 정보가 잘 연결되어 있습니다. 그러나 추가된 정보가 약간의 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 추가 정보로 인해 약간의 일관성 문제가 발생할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8594166559626767</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+① 대기실 입실
+② 신분 확인
+③ 고사장 앞 이동
+④ 고사장 입실
+⑤ 지원동기 및 학업계획 발표
+⑥ 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+⑦ 기타 질의응답(제출서류 진위 여부 등)
+⑧ 퇴실
+이 절차를 따르며, 면접은 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
